--- a/data/raw/supplyit/UsageOverview_Formatted.xlsx
+++ b/data/raw/supplyit/UsageOverview_Formatted.xlsx
@@ -475,25 +475,25 @@
         <v>358529</v>
       </c>
       <c r="C2" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>510</v>
+        <v>414</v>
       </c>
       <c r="F2">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.368627450980392</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>67.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>322</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -504,7 +504,7 @@
         <v>358529</v>
       </c>
       <c r="C3" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -533,25 +533,25 @@
         <v>358529</v>
       </c>
       <c r="C4" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F4">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.163541666666667</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>12.874</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>803</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -562,25 +562,25 @@
         <v>358529</v>
       </c>
       <c r="C5" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0614035087719298</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.01</v>
       </c>
       <c r="I5">
-        <v>474</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -591,7 +591,7 @@
         <v>358529</v>
       </c>
       <c r="C6" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -600,16 +600,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -620,25 +620,25 @@
         <v>358529</v>
       </c>
       <c r="C7" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="I7">
-        <v>840</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -649,25 +649,25 @@
         <v>358529</v>
       </c>
       <c r="C8" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>756</v>
+        <v>456</v>
       </c>
       <c r="F8">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="G8">
-        <v>0.19973544973545</v>
+        <v>0.223684210526316</v>
       </c>
       <c r="H8">
-        <v>54.1625</v>
+        <v>36.945</v>
       </c>
       <c r="I8">
-        <v>605</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -678,25 +678,25 @@
         <v>358529</v>
       </c>
       <c r="C9" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>0.166666666666667</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H9">
-        <v>1.98</v>
+        <v>4.95</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -707,25 +707,25 @@
         <v>358529</v>
       </c>
       <c r="C10" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="F10">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0601851851851852</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5.33</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1015</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -736,25 +736,25 @@
         <v>358529</v>
       </c>
       <c r="C11" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>696</v>
+        <v>516</v>
       </c>
       <c r="F11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.109195402298851</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>28.13</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>620</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -765,7 +765,7 @@
         <v>358529</v>
       </c>
       <c r="C12" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -774,16 +774,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -794,25 +794,25 @@
         <v>358529</v>
       </c>
       <c r="C13" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
-        <v>1440</v>
+        <v>1080</v>
       </c>
       <c r="F13">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.170138888888889</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>20.09</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1195</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -823,25 +823,25 @@
         <v>358529</v>
       </c>
       <c r="C14" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="F14">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G14">
-        <v>0.106796116504854</v>
+        <v>0.144557823129252</v>
       </c>
       <c r="H14">
-        <v>23.895</v>
+        <v>30.6875</v>
       </c>
       <c r="I14">
-        <v>552</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -852,25 +852,25 @@
         <v>358529</v>
       </c>
       <c r="C15" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>0.111111111111111</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H15">
-        <v>1.98</v>
+        <v>4.95</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -881,25 +881,25 @@
         <v>358529</v>
       </c>
       <c r="C16" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0458333333333333</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="I16">
-        <v>840</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -910,25 +910,25 @@
         <v>358529</v>
       </c>
       <c r="C17" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>414</v>
+        <v>720</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1375</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>35.5125</v>
       </c>
       <c r="I17">
-        <v>414</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -939,25 +939,25 @@
         <v>358529</v>
       </c>
       <c r="C18" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -968,25 +968,25 @@
         <v>358529</v>
       </c>
       <c r="C19" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.108333333333333</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.792</v>
       </c>
       <c r="I19">
-        <v>840</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -997,25 +997,25 @@
         <v>364322</v>
       </c>
       <c r="C20" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="F20">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G20">
-        <v>0.292982456140351</v>
+        <v>0.357954545454545</v>
       </c>
       <c r="H20">
-        <v>60.3625</v>
+        <v>67.6875</v>
       </c>
       <c r="I20">
-        <v>403</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1026,7 +1026,7 @@
         <v>364322</v>
       </c>
       <c r="C21" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1035,16 +1035,16 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>0.166666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H21">
-        <v>1.98</v>
+        <v>6.93</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1055,25 +1055,25 @@
         <v>364322</v>
       </c>
       <c r="C22" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F22">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>22.14</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>810</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1084,25 +1084,25 @@
         <v>364322</v>
       </c>
       <c r="C23" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="F23">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G23">
-        <v>0.264814814814815</v>
+        <v>0.42831541218638</v>
       </c>
       <c r="H23">
-        <v>51.4825</v>
+        <v>86.10250000000001</v>
       </c>
       <c r="I23">
-        <v>397</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1113,7 +1113,7 @@
         <v>364322</v>
       </c>
       <c r="C24" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1122,16 +1122,16 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>0.666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H24">
-        <v>7.92</v>
+        <v>2.97</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1142,25 +1142,25 @@
         <v>364322</v>
       </c>
       <c r="C25" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="G25">
-        <v>0.277777777777778</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H25">
-        <v>24.6</v>
+        <v>14.35</v>
       </c>
       <c r="I25">
-        <v>780</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1171,25 +1171,25 @@
         <v>364322</v>
       </c>
       <c r="C26" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26">
-        <v>720</v>
+        <v>594</v>
       </c>
       <c r="F26">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G26">
-        <v>0.152777777777778</v>
+        <v>0.126262626262626</v>
       </c>
       <c r="H26">
-        <v>39.625</v>
+        <v>27.2325</v>
       </c>
       <c r="I26">
-        <v>610</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1200,7 +1200,7 @@
         <v>364322</v>
       </c>
       <c r="C27" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -1209,16 +1209,16 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>0.0833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H27">
-        <v>0.99</v>
+        <v>6.93</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1229,25 +1229,25 @@
         <v>364322</v>
       </c>
       <c r="C28" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28">
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="F28">
-        <v>450</v>
+        <v>92</v>
       </c>
       <c r="G28">
-        <v>0.3125</v>
+        <v>0.0958333333333333</v>
       </c>
       <c r="H28">
-        <v>36.9</v>
+        <v>7.544</v>
       </c>
       <c r="I28">
-        <v>990</v>
+        <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>364322</v>
       </c>
       <c r="C29" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29">
-        <v>714</v>
+        <v>504</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.0456349206349206</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>8.702500000000001</v>
       </c>
       <c r="I29">
-        <v>714</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1287,13 +1287,13 @@
         <v>364322</v>
       </c>
       <c r="C30" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1316,25 +1316,25 @@
         <v>364322</v>
       </c>
       <c r="C31" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31">
-        <v>1320</v>
+        <v>1080</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.324074074074074</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="I31">
-        <v>1320</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1345,25 +1345,25 @@
         <v>364322</v>
       </c>
       <c r="C32" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="F32">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G32">
-        <v>0.149717514124294</v>
+        <v>0.11624649859944</v>
       </c>
       <c r="H32">
-        <v>37.895</v>
+        <v>29.6725</v>
       </c>
       <c r="I32">
-        <v>602</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1374,25 +1374,25 @@
         <v>364322</v>
       </c>
       <c r="C33" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1403,7 +1403,7 @@
         <v>364322</v>
       </c>
       <c r="C34" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -1412,16 +1412,16 @@
         <v>1200</v>
       </c>
       <c r="F34">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.116666666666667</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>11.48</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1060</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>364322</v>
       </c>
       <c r="C35" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
-        <v>528</v>
+        <v>708</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.08757062146892659</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>22.165</v>
       </c>
       <c r="I35">
-        <v>528</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1461,7 +1461,7 @@
         <v>364322</v>
       </c>
       <c r="C36" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -1470,16 +1470,16 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1490,13 +1490,13 @@
         <v>364322</v>
       </c>
       <c r="C37" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>840</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1519,25 +1519,25 @@
         <v>357993</v>
       </c>
       <c r="C38" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>553</v>
+        <v>474</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G38">
-        <v>0.0235081374321881</v>
+        <v>0.0337552742616034</v>
       </c>
       <c r="H38">
-        <v>4.7075</v>
+        <v>5.72</v>
       </c>
       <c r="I38">
-        <v>540</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1548,7 +1548,7 @@
         <v>357993</v>
       </c>
       <c r="C39" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -1557,16 +1557,16 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1577,7 +1577,7 @@
         <v>357993</v>
       </c>
       <c r="C40" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -1606,25 +1606,25 @@
         <v>357993</v>
       </c>
       <c r="C41" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>0.0896057347670251</v>
+        <v>0.0193798449612403</v>
       </c>
       <c r="H41">
-        <v>17.875</v>
+        <v>3.575</v>
       </c>
       <c r="I41">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1635,25 +1635,25 @@
         <v>357993</v>
       </c>
       <c r="C42" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H42">
-        <v>2.97</v>
+        <v>0.99</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1664,13 +1664,13 @@
         <v>357993</v>
       </c>
       <c r="C43" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1200</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1693,25 +1693,25 @@
         <v>357993</v>
       </c>
       <c r="C44" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44">
-        <v>750</v>
+        <v>552</v>
       </c>
       <c r="F44">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="G44">
-        <v>0.181333333333333</v>
+        <v>0.0978260869565217</v>
       </c>
       <c r="H44">
-        <v>48.62</v>
+        <v>19.545</v>
       </c>
       <c r="I44">
-        <v>614</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1722,25 +1722,25 @@
         <v>357993</v>
       </c>
       <c r="C45" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.111111111111111</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H45">
-        <v>1.98</v>
+        <v>0.99</v>
       </c>
       <c r="I45">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1751,25 +1751,25 @@
         <v>357993</v>
       </c>
       <c r="C46" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46">
-        <v>1320</v>
+        <v>840</v>
       </c>
       <c r="F46">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G46">
-        <v>0.150757575757576</v>
+        <v>0.197619047619048</v>
       </c>
       <c r="H46">
-        <v>16.318</v>
+        <v>13.612</v>
       </c>
       <c r="I46">
-        <v>1121</v>
+        <v>674</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1780,25 +1780,25 @@
         <v>357993</v>
       </c>
       <c r="C47" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="F47">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G47">
-        <v>0.0275080906148867</v>
+        <v>0.0652920962199313</v>
       </c>
       <c r="H47">
-        <v>6.0775</v>
+        <v>13.705</v>
       </c>
       <c r="I47">
-        <v>601</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1809,7 +1809,7 @@
         <v>357993</v>
       </c>
       <c r="C48" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -1818,16 +1818,16 @@
         <v>18</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>0.111111111111111</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H48">
-        <v>1.98</v>
+        <v>3.96</v>
       </c>
       <c r="I48">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1838,25 +1838,25 @@
         <v>357993</v>
       </c>
       <c r="C49" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49">
-        <v>1560</v>
+        <v>840</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0440476190476191</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3.034</v>
       </c>
       <c r="I49">
-        <v>1560</v>
+        <v>803</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1867,25 +1867,25 @@
         <v>357993</v>
       </c>
       <c r="C50" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50">
-        <v>966</v>
+        <v>762</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G50">
-        <v>0.0010351966873706</v>
+        <v>0.0275590551181102</v>
       </c>
       <c r="H50">
-        <v>0.3575</v>
+        <v>7.6275</v>
       </c>
       <c r="I50">
-        <v>965</v>
+        <v>741</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1896,13 +1896,13 @@
         <v>357993</v>
       </c>
       <c r="C51" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1925,25 +1925,25 @@
         <v>357993</v>
       </c>
       <c r="C52" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.0266666666666667</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="I52">
-        <v>960</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1954,25 +1954,25 @@
         <v>357993</v>
       </c>
       <c r="C53" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53">
-        <v>474</v>
+        <v>756</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G53">
-        <v>0.0337552742616034</v>
+        <v>0.06613756613756611</v>
       </c>
       <c r="H53">
-        <v>5.72</v>
+        <v>18.295</v>
       </c>
       <c r="I53">
-        <v>458</v>
+        <v>706</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1983,25 +1983,25 @@
         <v>357993</v>
       </c>
       <c r="C54" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.416666666666667</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H54">
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
       <c r="I54">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2012,25 +2012,25 @@
         <v>357993</v>
       </c>
       <c r="C55" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="I55">
-        <v>840</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2041,25 +2041,25 @@
         <v>359042</v>
       </c>
       <c r="C56" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F56">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G56">
-        <v>0.154761904761905</v>
+        <v>0.053921568627451</v>
       </c>
       <c r="H56">
-        <v>23.4775</v>
+        <v>7.865</v>
       </c>
       <c r="I56">
-        <v>355</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2070,25 +2070,25 @@
         <v>359042</v>
       </c>
       <c r="C57" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H57">
-        <v>5.94</v>
+        <v>4.95</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2099,7 +2099,7 @@
         <v>359042</v>
       </c>
       <c r="C58" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -2108,16 +2108,16 @@
         <v>840</v>
       </c>
       <c r="F58">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="G58">
-        <v>0.154761904761905</v>
+        <v>0.0452380952380952</v>
       </c>
       <c r="H58">
-        <v>10.66</v>
+        <v>3.116</v>
       </c>
       <c r="I58">
-        <v>710</v>
+        <v>802</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2128,25 +2128,25 @@
         <v>359042</v>
       </c>
       <c r="C59" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59">
-        <v>498</v>
+        <v>372</v>
       </c>
       <c r="F59">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.182730923694779</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>33.1325</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>407</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2157,25 +2157,25 @@
         <v>359042</v>
       </c>
       <c r="C60" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.277777777777778</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2186,25 +2186,25 @@
         <v>359042</v>
       </c>
       <c r="C61" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F61">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="G61">
-        <v>0.0821428571428571</v>
+        <v>0.29375</v>
       </c>
       <c r="H61">
-        <v>5.658</v>
+        <v>23.124</v>
       </c>
       <c r="I61">
-        <v>771</v>
+        <v>678</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2215,13 +2215,13 @@
         <v>359042</v>
       </c>
       <c r="C62" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
       </c>
       <c r="E62">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>522</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2244,7 +2244,7 @@
         <v>359042</v>
       </c>
       <c r="C63" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -2253,16 +2253,16 @@
         <v>18</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>0.5</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H63">
-        <v>8.91</v>
+        <v>6.93</v>
       </c>
       <c r="I63">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2273,25 +2273,25 @@
         <v>359042</v>
       </c>
       <c r="C64" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F64">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="G64">
-        <v>0.152083333333333</v>
+        <v>0.080952380952381</v>
       </c>
       <c r="H64">
-        <v>11.972</v>
+        <v>5.576</v>
       </c>
       <c r="I64">
-        <v>814</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2302,25 +2302,25 @@
         <v>359042</v>
       </c>
       <c r="C65" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
       </c>
       <c r="E65">
-        <v>570</v>
+        <v>486</v>
       </c>
       <c r="F65">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G65">
-        <v>0.043859649122807</v>
+        <v>0.1440329218107</v>
       </c>
       <c r="H65">
-        <v>8.9975</v>
+        <v>25.205</v>
       </c>
       <c r="I65">
-        <v>545</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2331,7 +2331,7 @@
         <v>359042</v>
       </c>
       <c r="C66" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -2340,16 +2340,16 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>0.611111111111111</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H66">
-        <v>10.89</v>
+        <v>1.98</v>
       </c>
       <c r="I66">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2360,25 +2360,25 @@
         <v>359042</v>
       </c>
       <c r="C67" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F67">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="G67">
-        <v>0.08125</v>
+        <v>0.263095238095238</v>
       </c>
       <c r="H67">
-        <v>6.396</v>
+        <v>18.122</v>
       </c>
       <c r="I67">
-        <v>882</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2389,25 +2389,25 @@
         <v>359042</v>
       </c>
       <c r="C68" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
       </c>
       <c r="E68">
-        <v>618</v>
+        <v>534</v>
       </c>
       <c r="F68">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>0.153721682847896</v>
+        <v>0.0636704119850187</v>
       </c>
       <c r="H68">
-        <v>34.0225</v>
+        <v>12.635</v>
       </c>
       <c r="I68">
-        <v>523</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2418,7 +2418,7 @@
         <v>359042</v>
       </c>
       <c r="C69" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -2427,16 +2427,16 @@
         <v>18</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.444444444444444</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2447,7 +2447,7 @@
         <v>359042</v>
       </c>
       <c r="C70" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -2476,25 +2476,25 @@
         <v>359042</v>
       </c>
       <c r="C71" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
       </c>
       <c r="E71">
-        <v>408</v>
+        <v>534</v>
       </c>
       <c r="F71">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G71">
-        <v>0.053921568627451</v>
+        <v>0.202247191011236</v>
       </c>
       <c r="H71">
-        <v>7.865</v>
+        <v>39.51</v>
       </c>
       <c r="I71">
-        <v>386</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2505,25 +2505,25 @@
         <v>359042</v>
       </c>
       <c r="C72" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2534,25 +2534,25 @@
         <v>359042</v>
       </c>
       <c r="C73" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F73">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G73">
-        <v>0.0452380952380952</v>
+        <v>0.0302083333333333</v>
       </c>
       <c r="H73">
-        <v>3.116</v>
+        <v>2.378</v>
       </c>
       <c r="I73">
-        <v>802</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2563,25 +2563,25 @@
         <v>363271</v>
       </c>
       <c r="C74" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74">
-        <v>498</v>
+        <v>402</v>
       </c>
       <c r="F74">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G74">
-        <v>0.136546184738956</v>
+        <v>0.17910447761194</v>
       </c>
       <c r="H74">
-        <v>24.31</v>
+        <v>25.74</v>
       </c>
       <c r="I74">
-        <v>430</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2592,7 +2592,7 @@
         <v>363271</v>
       </c>
       <c r="C75" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -2601,16 +2601,16 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I75">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2621,25 +2621,25 @@
         <v>363271</v>
       </c>
       <c r="C76" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
       </c>
       <c r="E76">
-        <v>840</v>
+        <v>480</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I76">
-        <v>840</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2650,25 +2650,25 @@
         <v>363271</v>
       </c>
       <c r="C77" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
       </c>
       <c r="E77">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G77">
-        <v>0.208333333333333</v>
+        <v>0.206572769953052</v>
       </c>
       <c r="H77">
-        <v>35.75</v>
+        <v>31.46</v>
       </c>
       <c r="I77">
-        <v>380</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2679,7 +2679,7 @@
         <v>363271</v>
       </c>
       <c r="C78" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -2688,16 +2688,16 @@
         <v>12</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="H78">
-        <v>7.92</v>
+        <v>8.91</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2708,25 +2708,25 @@
         <v>363271</v>
       </c>
       <c r="C79" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="F79">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="G79">
-        <v>0.327380952380952</v>
+        <v>0.125</v>
       </c>
       <c r="H79">
-        <v>22.55</v>
+        <v>6.15</v>
       </c>
       <c r="I79">
-        <v>565</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2737,25 +2737,25 @@
         <v>363271</v>
       </c>
       <c r="C80" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
       </c>
       <c r="E80">
-        <v>582</v>
+        <v>438</v>
       </c>
       <c r="F80">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="G80">
-        <v>0.276632302405498</v>
+        <v>0.267123287671233</v>
       </c>
       <c r="H80">
-        <v>57.5575</v>
+        <v>41.8275</v>
       </c>
       <c r="I80">
-        <v>421</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2766,25 +2766,25 @@
         <v>363271</v>
       </c>
       <c r="C81" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
       </c>
       <c r="E81">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81">
         <v>0.166666666666667</v>
       </c>
       <c r="H81">
-        <v>2.97</v>
+        <v>1.98</v>
       </c>
       <c r="I81">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2795,25 +2795,25 @@
         <v>363271</v>
       </c>
       <c r="C82" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F82">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="G82">
-        <v>0.170833333333333</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H82">
-        <v>13.448</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I82">
-        <v>796</v>
+        <v>740</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2824,25 +2824,25 @@
         <v>363271</v>
       </c>
       <c r="C83" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
       </c>
       <c r="E83">
-        <v>600</v>
+        <v>492</v>
       </c>
       <c r="F83">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G83">
-        <v>0.09666666666666671</v>
+        <v>0.103658536585366</v>
       </c>
       <c r="H83">
-        <v>20.735</v>
+        <v>18.2325</v>
       </c>
       <c r="I83">
-        <v>542</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2853,25 +2853,25 @@
         <v>363271</v>
       </c>
       <c r="C84" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F84">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>0.777777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H84">
-        <v>13.86</v>
+        <v>1.98</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2882,25 +2882,25 @@
         <v>363271</v>
       </c>
       <c r="C85" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
       </c>
       <c r="E85">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.252380952380952</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>17.384</v>
       </c>
       <c r="I85">
-        <v>720</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2911,25 +2911,25 @@
         <v>363271</v>
       </c>
       <c r="C86" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="F86">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="G86">
-        <v>0.0746527777777778</v>
+        <v>0.162962962962963</v>
       </c>
       <c r="H86">
-        <v>15.4325</v>
+        <v>31.82</v>
       </c>
       <c r="I86">
-        <v>533</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2940,25 +2940,25 @@
         <v>363271</v>
       </c>
       <c r="C87" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="E87">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G87">
-        <v>0.375</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H87">
-        <v>8.91</v>
+        <v>9.9</v>
       </c>
       <c r="I87">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2969,7 +2969,7 @@
         <v>363271</v>
       </c>
       <c r="C88" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -2978,16 +2978,16 @@
         <v>960</v>
       </c>
       <c r="F88">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="G88">
-        <v>0.229166666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H88">
-        <v>18.04</v>
+        <v>1.64</v>
       </c>
       <c r="I88">
-        <v>740</v>
+        <v>940</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2998,25 +2998,25 @@
         <v>363271</v>
       </c>
       <c r="C89" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89">
-        <v>402</v>
+        <v>594</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.0488215488215488</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>10.3675</v>
       </c>
       <c r="I89">
-        <v>402</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3027,25 +3027,25 @@
         <v>363271</v>
       </c>
       <c r="C90" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3056,25 +3056,25 @@
         <v>363271</v>
       </c>
       <c r="C91" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
       </c>
       <c r="E91">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.0231481481481481</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I91">
-        <v>480</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3085,25 +3085,25 @@
         <v>343939</v>
       </c>
       <c r="C92" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
       </c>
       <c r="E92">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.243421052631579</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>39.6825</v>
       </c>
       <c r="I92">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3114,7 +3114,7 @@
         <v>343939</v>
       </c>
       <c r="C93" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -3123,16 +3123,16 @@
         <v>12</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="I93">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3143,25 +3143,25 @@
         <v>343939</v>
       </c>
       <c r="C94" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F94">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G94">
-        <v>0.0316666666666667</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="H94">
-        <v>1.558</v>
+        <v>3.69</v>
       </c>
       <c r="I94">
-        <v>581</v>
+        <v>795</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3172,25 +3172,25 @@
         <v>343939</v>
       </c>
       <c r="C95" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95">
-        <v>426</v>
+        <v>336</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G95">
-        <v>0.009389671361502349</v>
+        <v>0.133928571428571</v>
       </c>
       <c r="H95">
-        <v>1.43</v>
+        <v>16.0875</v>
       </c>
       <c r="I95">
-        <v>422</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3201,7 +3201,7 @@
         <v>343939</v>
       </c>
       <c r="C96" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
@@ -3210,16 +3210,16 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3230,7 +3230,7 @@
         <v>343939</v>
       </c>
       <c r="C97" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -3239,16 +3239,16 @@
         <v>840</v>
       </c>
       <c r="F97">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G97">
-        <v>0.0845238095238095</v>
+        <v>0.101190476190476</v>
       </c>
       <c r="H97">
-        <v>5.822</v>
+        <v>6.97</v>
       </c>
       <c r="I97">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3259,25 +3259,25 @@
         <v>343939</v>
       </c>
       <c r="C98" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
       </c>
       <c r="E98">
-        <v>510</v>
+        <v>408</v>
       </c>
       <c r="F98">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="G98">
-        <v>0.407843137254902</v>
+        <v>0.301470588235294</v>
       </c>
       <c r="H98">
-        <v>74.36</v>
+        <v>43.9725</v>
       </c>
       <c r="I98">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3288,7 +3288,7 @@
         <v>343939</v>
       </c>
       <c r="C99" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
@@ -3297,16 +3297,16 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>0.583333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H99">
-        <v>6.93</v>
+        <v>2.97</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3317,25 +3317,25 @@
         <v>343939</v>
       </c>
       <c r="C100" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
       </c>
       <c r="E100">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="F100">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="G100">
-        <v>0.08749999999999999</v>
+        <v>0.0375</v>
       </c>
       <c r="H100">
-        <v>6.888</v>
+        <v>2.214</v>
       </c>
       <c r="I100">
-        <v>876</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3346,25 +3346,25 @@
         <v>343939</v>
       </c>
       <c r="C101" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D101" t="s">
         <v>16</v>
       </c>
       <c r="E101">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="F101">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="G101">
-        <v>0.104166666666667</v>
+        <v>0.343137254901961</v>
       </c>
       <c r="H101">
-        <v>19.6625</v>
+        <v>50.05</v>
       </c>
       <c r="I101">
-        <v>473</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3375,25 +3375,25 @@
         <v>343939</v>
       </c>
       <c r="C102" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I102">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3404,25 +3404,25 @@
         <v>343939</v>
       </c>
       <c r="C103" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
       </c>
       <c r="E103">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F103">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G103">
-        <v>0.105208333333333</v>
+        <v>0.0321428571428571</v>
       </c>
       <c r="H103">
-        <v>8.282</v>
+        <v>2.214</v>
       </c>
       <c r="I103">
-        <v>859</v>
+        <v>813</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3433,25 +3433,25 @@
         <v>343939</v>
       </c>
       <c r="C104" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
       </c>
       <c r="E104">
-        <v>576</v>
+        <v>414</v>
       </c>
       <c r="F104">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="G104">
-        <v>0.274305555555556</v>
+        <v>0.306763285024155</v>
       </c>
       <c r="H104">
-        <v>56.485</v>
+        <v>45.4025</v>
       </c>
       <c r="I104">
-        <v>418</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3462,7 +3462,7 @@
         <v>343939</v>
       </c>
       <c r="C105" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
@@ -3471,16 +3471,16 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H105">
-        <v>0.99</v>
+        <v>2.97</v>
       </c>
       <c r="I105">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3491,25 +3491,25 @@
         <v>343939</v>
       </c>
       <c r="C106" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
       </c>
       <c r="E106">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F106">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G106">
-        <v>0.185185185185185</v>
+        <v>0.217857142857143</v>
       </c>
       <c r="H106">
-        <v>16.4</v>
+        <v>15.006</v>
       </c>
       <c r="I106">
-        <v>880</v>
+        <v>657</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3520,25 +3520,25 @@
         <v>343939</v>
       </c>
       <c r="C107" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="F107">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="G107">
-        <v>0.243421052631579</v>
+        <v>0.355392156862745</v>
       </c>
       <c r="H107">
-        <v>39.6825</v>
+        <v>51.8375</v>
       </c>
       <c r="I107">
-        <v>345</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3549,7 +3549,7 @@
         <v>343939</v>
       </c>
       <c r="C108" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
@@ -3558,16 +3558,16 @@
         <v>12</v>
       </c>
       <c r="F108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G108">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H108">
-        <v>8.91</v>
+        <v>7.92</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3578,7 +3578,7 @@
         <v>343939</v>
       </c>
       <c r="C109" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -3587,16 +3587,16 @@
         <v>840</v>
       </c>
       <c r="F109">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="G109">
-        <v>0.0535714285714286</v>
+        <v>0.176190476190476</v>
       </c>
       <c r="H109">
-        <v>3.69</v>
+        <v>12.136</v>
       </c>
       <c r="I109">
-        <v>795</v>
+        <v>692</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3607,25 +3607,25 @@
         <v>301290</v>
       </c>
       <c r="C110" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="G110">
-        <v>0.0764525993883792</v>
+        <v>0.287234042553192</v>
       </c>
       <c r="H110">
-        <v>17.995</v>
+        <v>58.515</v>
       </c>
       <c r="I110">
-        <v>604</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3636,7 +3636,7 @@
         <v>301290</v>
       </c>
       <c r="C111" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D111" t="s">
         <v>17</v>
@@ -3645,16 +3645,16 @@
         <v>18</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I111">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3665,7 +3665,7 @@
         <v>301290</v>
       </c>
       <c r="C112" s="2">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -3674,16 +3674,16 @@
         <v>360</v>
       </c>
       <c r="F112">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G112">
-        <v>0.116666666666667</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="H112">
-        <v>3.444</v>
+        <v>2.624</v>
       </c>
       <c r="I112">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3694,13 +3694,13 @@
         <v>301290</v>
       </c>
       <c r="C113" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
       </c>
       <c r="E113">
-        <v>906</v>
+        <v>606</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>906</v>
+        <v>606</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3723,7 +3723,7 @@
         <v>301290</v>
       </c>
       <c r="C114" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -3732,16 +3732,16 @@
         <v>18</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3752,7 +3752,7 @@
         <v>301290</v>
       </c>
       <c r="C115" s="2">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
@@ -3761,16 +3761,16 @@
         <v>360</v>
       </c>
       <c r="F115">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0.122222222222222</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>3.608</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3781,25 +3781,25 @@
         <v>301290</v>
       </c>
       <c r="C116" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
       <c r="E116">
-        <v>888</v>
+        <v>684</v>
       </c>
       <c r="F116">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="G116">
-        <v>0.315315315315315</v>
+        <v>0.14766081871345</v>
       </c>
       <c r="H116">
-        <v>100.4</v>
+        <v>36.6475</v>
       </c>
       <c r="I116">
-        <v>608</v>
+        <v>583</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3810,7 +3810,7 @@
         <v>301290</v>
       </c>
       <c r="C117" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -3839,7 +3839,7 @@
         <v>301290</v>
       </c>
       <c r="C118" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -3848,16 +3848,16 @@
         <v>360</v>
       </c>
       <c r="F118">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="G118">
-        <v>0.330555555555556</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H118">
-        <v>9.757999999999999</v>
+        <v>2.87</v>
       </c>
       <c r="I118">
-        <v>241</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3868,25 +3868,25 @@
         <v>301290</v>
       </c>
       <c r="C119" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D119" t="s">
         <v>16</v>
       </c>
       <c r="E119">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="F119">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="G119">
-        <v>0.16</v>
+        <v>0.08201058201058201</v>
       </c>
       <c r="H119">
-        <v>42.9</v>
+        <v>22.705</v>
       </c>
       <c r="I119">
-        <v>630</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3897,7 +3897,7 @@
         <v>301290</v>
       </c>
       <c r="C120" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
@@ -3926,7 +3926,7 @@
         <v>301290</v>
       </c>
       <c r="C121" s="2">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
@@ -3935,16 +3935,16 @@
         <v>360</v>
       </c>
       <c r="F121">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G121">
-        <v>0.0361111111111111</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H121">
-        <v>1.066</v>
+        <v>2.87</v>
       </c>
       <c r="I121">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3955,25 +3955,25 @@
         <v>301290</v>
       </c>
       <c r="C122" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D122" t="s">
         <v>16</v>
       </c>
       <c r="E122">
-        <v>732</v>
+        <v>828</v>
       </c>
       <c r="F122">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G122">
-        <v>0.14344262295082</v>
+        <v>0.132850241545894</v>
       </c>
       <c r="H122">
-        <v>37.5375</v>
+        <v>39.625</v>
       </c>
       <c r="I122">
-        <v>627</v>
+        <v>718</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3984,7 +3984,7 @@
         <v>301290</v>
       </c>
       <c r="C123" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
@@ -3993,16 +3993,16 @@
         <v>18</v>
       </c>
       <c r="F123">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4013,25 +4013,25 @@
         <v>301290</v>
       </c>
       <c r="C124" s="2">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
       </c>
       <c r="E124">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="F124">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="G124">
-        <v>0.308333333333333</v>
+        <v>0.108333333333333</v>
       </c>
       <c r="H124">
-        <v>12.136</v>
+        <v>3.198</v>
       </c>
       <c r="I124">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4042,25 +4042,25 @@
         <v>301290</v>
       </c>
       <c r="C125" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D125" t="s">
         <v>16</v>
       </c>
       <c r="E125">
-        <v>564</v>
+        <v>732</v>
       </c>
       <c r="F125">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="G125">
-        <v>0.287234042553192</v>
+        <v>0.0204918032786885</v>
       </c>
       <c r="H125">
-        <v>58.515</v>
+        <v>5.3625</v>
       </c>
       <c r="I125">
-        <v>402</v>
+        <v>717</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4071,7 +4071,7 @@
         <v>301290</v>
       </c>
       <c r="C126" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
@@ -4080,16 +4080,16 @@
         <v>18</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4100,7 +4100,7 @@
         <v>301290</v>
       </c>
       <c r="C127" s="2">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
@@ -4109,16 +4109,16 @@
         <v>360</v>
       </c>
       <c r="F127">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.08888888888888891</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>2.624</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/supplyit/UsageOverview_Formatted.xlsx
+++ b/data/raw/supplyit/UsageOverview_Formatted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="19">
   <si>
     <t>Location</t>
   </si>
@@ -432,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,25 +475,25 @@
         <v>358529</v>
       </c>
       <c r="C2" s="2">
-        <v>45796</v>
+        <v>45802</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>414</v>
+        <v>798</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.191729323308271</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>54.6975</v>
       </c>
       <c r="I2">
-        <v>414</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -504,25 +504,25 @@
         <v>358529</v>
       </c>
       <c r="C3" s="2">
-        <v>45796</v>
+        <v>45802</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -533,13 +533,13 @@
         <v>358529</v>
       </c>
       <c r="C4" s="2">
-        <v>45796</v>
+        <v>45802</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>840</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -562,25 +562,25 @@
         <v>358529</v>
       </c>
       <c r="C5" s="2">
-        <v>45797</v>
+        <v>45803</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>456</v>
+        <v>630</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0614035087719298</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>10.01</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>428</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -591,7 +591,7 @@
         <v>358529</v>
       </c>
       <c r="C6" s="2">
-        <v>45797</v>
+        <v>45803</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -600,16 +600,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -620,25 +620,25 @@
         <v>358529</v>
       </c>
       <c r="C7" s="2">
-        <v>45797</v>
+        <v>45803</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>960</v>
+        <v>1440</v>
       </c>
       <c r="F7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.046875</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>915</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -649,25 +649,25 @@
         <v>358529</v>
       </c>
       <c r="C8" s="2">
-        <v>45798</v>
+        <v>45804</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="F8">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="G8">
-        <v>0.223684210526316</v>
+        <v>0.284810126582278</v>
       </c>
       <c r="H8">
-        <v>36.945</v>
+        <v>49.1625</v>
       </c>
       <c r="I8">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -678,25 +678,25 @@
         <v>358529</v>
       </c>
       <c r="C9" s="2">
-        <v>45798</v>
+        <v>45804</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>0.277777777777778</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H9">
-        <v>4.95</v>
+        <v>3.96</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -707,25 +707,25 @@
         <v>358529</v>
       </c>
       <c r="C10" s="2">
-        <v>45798</v>
+        <v>45804</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.345238095238095</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>23.78</v>
       </c>
       <c r="I10">
-        <v>720</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -736,25 +736,25 @@
         <v>358529</v>
       </c>
       <c r="C11" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.238683127572016</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>41.95</v>
       </c>
       <c r="I11">
-        <v>516</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -765,7 +765,7 @@
         <v>358529</v>
       </c>
       <c r="C12" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -794,25 +794,25 @@
         <v>358529</v>
       </c>
       <c r="C13" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.02</v>
       </c>
       <c r="I13">
-        <v>1080</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -823,25 +823,25 @@
         <v>358529</v>
       </c>
       <c r="C14" s="2">
-        <v>45800</v>
+        <v>45806</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14">
-        <v>588</v>
+        <v>492</v>
       </c>
       <c r="F14">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>0.144557823129252</v>
+        <v>0.032520325203252</v>
       </c>
       <c r="H14">
-        <v>30.6875</v>
+        <v>5.72</v>
       </c>
       <c r="I14">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -852,7 +852,7 @@
         <v>358529</v>
       </c>
       <c r="C15" s="2">
-        <v>45800</v>
+        <v>45806</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -861,16 +861,16 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -881,25 +881,25 @@
         <v>358529</v>
       </c>
       <c r="C16" s="2">
-        <v>45800</v>
+        <v>45806</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F16">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G16">
-        <v>0.0458333333333333</v>
+        <v>0.0583333333333333</v>
       </c>
       <c r="H16">
-        <v>4.51</v>
+        <v>4.018</v>
       </c>
       <c r="I16">
-        <v>1145</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -910,25 +910,25 @@
         <v>358529</v>
       </c>
       <c r="C17" s="2">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>720</v>
+        <v>582</v>
       </c>
       <c r="F17">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="G17">
-        <v>0.1375</v>
+        <v>0.123711340206186</v>
       </c>
       <c r="H17">
-        <v>35.5125</v>
+        <v>25.74</v>
       </c>
       <c r="I17">
-        <v>621</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -939,25 +939,25 @@
         <v>358529</v>
       </c>
       <c r="C18" s="2">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -968,100 +968,100 @@
         <v>358529</v>
       </c>
       <c r="C19" s="2">
-        <v>45801</v>
+        <v>45807</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1440</v>
+        <v>1080</v>
       </c>
       <c r="F19">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="G19">
-        <v>0.108333333333333</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="H19">
-        <v>12.792</v>
+        <v>17.22</v>
       </c>
       <c r="I19">
-        <v>1284</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C20" s="2">
-        <v>45796</v>
+        <v>45808</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20">
-        <v>528</v>
+        <v>714</v>
       </c>
       <c r="F20">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>0.357954545454545</v>
+        <v>0.0224089635854342</v>
       </c>
       <c r="H20">
-        <v>67.6875</v>
+        <v>6.08</v>
       </c>
       <c r="I20">
-        <v>339</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C21" s="2">
-        <v>45796</v>
+        <v>45808</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0.583333333333333</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H21">
-        <v>6.93</v>
+        <v>3.96</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C22" s="2">
-        <v>45796</v>
+        <v>45808</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>840</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1084,25 +1084,25 @@
         <v>364322</v>
       </c>
       <c r="C23" s="2">
-        <v>45797</v>
+        <v>45802</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23">
-        <v>558</v>
+        <v>714</v>
       </c>
       <c r="F23">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c r="G23">
-        <v>0.42831541218638</v>
+        <v>0.07703081232493</v>
       </c>
       <c r="H23">
-        <v>86.10250000000001</v>
+        <v>19.6625</v>
       </c>
       <c r="I23">
-        <v>319</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1113,7 +1113,7 @@
         <v>364322</v>
       </c>
       <c r="C24" s="2">
-        <v>45797</v>
+        <v>45802</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1122,16 +1122,16 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>0.25</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H24">
-        <v>2.97</v>
+        <v>1.98</v>
       </c>
       <c r="I24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1142,25 +1142,25 @@
         <v>364322</v>
       </c>
       <c r="C25" s="2">
-        <v>45797</v>
+        <v>45802</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25">
-        <v>840</v>
+        <v>1320</v>
       </c>
       <c r="F25">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.208333333333333</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>665</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1171,25 +1171,25 @@
         <v>364322</v>
       </c>
       <c r="C26" s="2">
-        <v>45798</v>
+        <v>45803</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="F26">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="G26">
-        <v>0.126262626262626</v>
+        <v>0.216475095785441</v>
       </c>
       <c r="H26">
-        <v>27.2325</v>
+        <v>41.0575</v>
       </c>
       <c r="I26">
-        <v>519</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1200,7 +1200,7 @@
         <v>364322</v>
       </c>
       <c r="C27" s="2">
-        <v>45798</v>
+        <v>45803</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -1209,16 +1209,16 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>0.583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H27">
-        <v>6.93</v>
+        <v>8.91</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1229,7 +1229,7 @@
         <v>364322</v>
       </c>
       <c r="C28" s="2">
-        <v>45798</v>
+        <v>45803</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1238,16 +1238,16 @@
         <v>960</v>
       </c>
       <c r="F28">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G28">
-        <v>0.0958333333333333</v>
+        <v>0.0364583333333333</v>
       </c>
       <c r="H28">
-        <v>7.544</v>
+        <v>2.87</v>
       </c>
       <c r="I28">
-        <v>868</v>
+        <v>925</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>364322</v>
       </c>
       <c r="C29" s="2">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="F29">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G29">
-        <v>0.0456349206349206</v>
+        <v>0.172222222222222</v>
       </c>
       <c r="H29">
-        <v>8.702500000000001</v>
+        <v>33.2475</v>
       </c>
       <c r="I29">
-        <v>481</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1287,7 +1287,7 @@
         <v>364322</v>
       </c>
       <c r="C30" s="2">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1296,16 +1296,16 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1316,25 +1316,25 @@
         <v>364322</v>
       </c>
       <c r="C31" s="2">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F31">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.324074074074074</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>28.7</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>730</v>
+        <v>840</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1345,25 +1345,25 @@
         <v>364322</v>
       </c>
       <c r="C32" s="2">
-        <v>45800</v>
+        <v>45805</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32">
-        <v>714</v>
+        <v>534</v>
       </c>
       <c r="F32">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G32">
-        <v>0.11624649859944</v>
+        <v>0.129213483146067</v>
       </c>
       <c r="H32">
-        <v>29.6725</v>
+        <v>24.8475</v>
       </c>
       <c r="I32">
-        <v>631</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1374,7 +1374,7 @@
         <v>364322</v>
       </c>
       <c r="C33" s="2">
-        <v>45800</v>
+        <v>45805</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -1403,25 +1403,25 @@
         <v>364322</v>
       </c>
       <c r="C34" s="2">
-        <v>45800</v>
+        <v>45805</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.0773809523809524</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="I34">
-        <v>1200</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>364322</v>
       </c>
       <c r="C35" s="2">
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
-        <v>708</v>
+        <v>534</v>
       </c>
       <c r="F35">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>0.08757062146892659</v>
+        <v>0.187265917602996</v>
       </c>
       <c r="H35">
-        <v>22.165</v>
+        <v>35.99</v>
       </c>
       <c r="I35">
-        <v>646</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1461,7 +1461,7 @@
         <v>364322</v>
       </c>
       <c r="C36" s="2">
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -1470,16 +1470,16 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>0.166666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H36">
-        <v>1.98</v>
+        <v>3.96</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1490,65 +1490,65 @@
         <v>364322</v>
       </c>
       <c r="C37" s="2">
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37">
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I37">
-        <v>1440</v>
+        <v>860</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C38" s="2">
-        <v>45796</v>
+        <v>45807</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>474</v>
+        <v>726</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G38">
-        <v>0.0337552742616034</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="H38">
-        <v>5.72</v>
+        <v>58.9875</v>
       </c>
       <c r="I38">
-        <v>458</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C39" s="2">
-        <v>45796</v>
+        <v>45807</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -1557,85 +1557,85 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C40" s="2">
-        <v>45796</v>
+        <v>45807</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40">
-        <v>840</v>
+        <v>1320</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>55.76</v>
       </c>
       <c r="I40">
-        <v>840</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C41" s="2">
-        <v>45797</v>
+        <v>45808</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>516</v>
+        <v>726</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G41">
-        <v>0.0193798449612403</v>
+        <v>0.21900826446281</v>
       </c>
       <c r="H41">
-        <v>3.575</v>
+        <v>57.0825</v>
       </c>
       <c r="I41">
-        <v>506</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C42" s="2">
-        <v>45797</v>
+        <v>45808</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -1644,45 +1644,45 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>0.0833333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H42">
-        <v>0.99</v>
+        <v>1.98</v>
       </c>
       <c r="I42">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C43" s="2">
-        <v>45797</v>
+        <v>45808</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>840</v>
+        <v>1560</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.224358974358974</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="I43">
-        <v>840</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1693,25 +1693,25 @@
         <v>357993</v>
       </c>
       <c r="C44" s="2">
-        <v>45798</v>
+        <v>45802</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44">
-        <v>552</v>
+        <v>744</v>
       </c>
       <c r="F44">
         <v>54</v>
       </c>
       <c r="G44">
-        <v>0.0978260869565217</v>
+        <v>0.0725806451612903</v>
       </c>
       <c r="H44">
-        <v>19.545</v>
+        <v>19.665</v>
       </c>
       <c r="I44">
-        <v>498</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1722,7 +1722,7 @@
         <v>357993</v>
       </c>
       <c r="C45" s="2">
-        <v>45798</v>
+        <v>45802</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -1731,16 +1731,16 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>0.0833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H45">
-        <v>0.99</v>
+        <v>2.97</v>
       </c>
       <c r="I45">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1751,25 +1751,25 @@
         <v>357993</v>
       </c>
       <c r="C46" s="2">
-        <v>45798</v>
+        <v>45802</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F46">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0.197619047619048</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>13.612</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>674</v>
+        <v>960</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1780,25 +1780,25 @@
         <v>357993</v>
       </c>
       <c r="C47" s="2">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="F47">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G47">
-        <v>0.0652920962199313</v>
+        <v>0.157801418439716</v>
       </c>
       <c r="H47">
-        <v>13.705</v>
+        <v>32.4775</v>
       </c>
       <c r="I47">
-        <v>544</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1809,25 +1809,25 @@
         <v>357993</v>
       </c>
       <c r="C48" s="2">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>0.222222222222222</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H48">
-        <v>3.96</v>
+        <v>4.95</v>
       </c>
       <c r="I48">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1838,7 +1838,7 @@
         <v>357993</v>
       </c>
       <c r="C49" s="2">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -1847,16 +1847,16 @@
         <v>840</v>
       </c>
       <c r="F49">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.0440476190476191</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>3.034</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>803</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1867,25 +1867,25 @@
         <v>357993</v>
       </c>
       <c r="C50" s="2">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50">
-        <v>762</v>
+        <v>516</v>
       </c>
       <c r="F50">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="G50">
-        <v>0.0275590551181102</v>
+        <v>0.203488372093023</v>
       </c>
       <c r="H50">
-        <v>7.6275</v>
+        <v>37.5375</v>
       </c>
       <c r="I50">
-        <v>741</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1896,25 +1896,25 @@
         <v>357993</v>
       </c>
       <c r="C51" s="2">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I51">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1925,25 +1925,25 @@
         <v>357993</v>
       </c>
       <c r="C52" s="2">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F52">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="G52">
-        <v>0.0266666666666667</v>
+        <v>0.155952380952381</v>
       </c>
       <c r="H52">
-        <v>2.624</v>
+        <v>10.742</v>
       </c>
       <c r="I52">
-        <v>1168</v>
+        <v>709</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1954,25 +1954,25 @@
         <v>357993</v>
       </c>
       <c r="C53" s="2">
-        <v>45801</v>
+        <v>45805</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53">
-        <v>756</v>
+        <v>546</v>
       </c>
       <c r="F53">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G53">
-        <v>0.06613756613756611</v>
+        <v>0.0366300366300366</v>
       </c>
       <c r="H53">
-        <v>18.295</v>
+        <v>7.15</v>
       </c>
       <c r="I53">
-        <v>706</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1983,25 +1983,25 @@
         <v>357993</v>
       </c>
       <c r="C54" s="2">
-        <v>45801</v>
+        <v>45805</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G54">
-        <v>0.0555555555555556</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H54">
-        <v>0.99</v>
+        <v>6.93</v>
       </c>
       <c r="I54">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2012,65 +2012,65 @@
         <v>357993</v>
       </c>
       <c r="C55" s="2">
-        <v>45801</v>
+        <v>45805</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="F55">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1140</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C56" s="2">
-        <v>45796</v>
+        <v>45806</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56">
-        <v>408</v>
+        <v>594</v>
       </c>
       <c r="F56">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.053921568627451</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>7.865</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>386</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C57" s="2">
-        <v>45796</v>
+        <v>45806</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -2079,27 +2079,27 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C58" s="2">
-        <v>45796</v>
+        <v>45806</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -2108,33 +2108,33 @@
         <v>840</v>
       </c>
       <c r="F58">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.0452380952380952</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>3.116</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>802</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C59" s="2">
-        <v>45797</v>
+        <v>45807</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59">
-        <v>372</v>
+        <v>762</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2146,24 +2146,24 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>372</v>
+        <v>762</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C60" s="2">
-        <v>45797</v>
+        <v>45807</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2175,18 +2175,18 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C61" s="2">
-        <v>45797</v>
+        <v>45807</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -2195,33 +2195,33 @@
         <v>960</v>
       </c>
       <c r="F61">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0.29375</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>23.124</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>678</v>
+        <v>960</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C62" s="2">
-        <v>45798</v>
+        <v>45808</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
       </c>
       <c r="E62">
-        <v>444</v>
+        <v>810</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2233,18 +2233,18 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>444</v>
+        <v>810</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C63" s="2">
-        <v>45798</v>
+        <v>45808</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -2253,45 +2253,45 @@
         <v>18</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C64" s="2">
-        <v>45798</v>
+        <v>45808</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F64">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.080952380952381</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>5.576</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>772</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2302,25 +2302,25 @@
         <v>359042</v>
       </c>
       <c r="C65" s="2">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
       </c>
       <c r="E65">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="F65">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="G65">
-        <v>0.1440329218107</v>
+        <v>0.286516853932584</v>
       </c>
       <c r="H65">
-        <v>25.205</v>
+        <v>55.7175</v>
       </c>
       <c r="I65">
-        <v>416</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2331,7 +2331,7 @@
         <v>359042</v>
       </c>
       <c r="C66" s="2">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -2340,16 +2340,16 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G66">
-        <v>0.111111111111111</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="H66">
-        <v>1.98</v>
+        <v>10.89</v>
       </c>
       <c r="I66">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2360,25 +2360,25 @@
         <v>359042</v>
       </c>
       <c r="C67" s="2">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F67">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="G67">
-        <v>0.263095238095238</v>
+        <v>0.175</v>
       </c>
       <c r="H67">
-        <v>18.122</v>
+        <v>13.776</v>
       </c>
       <c r="I67">
-        <v>619</v>
+        <v>792</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2389,25 +2389,25 @@
         <v>359042</v>
       </c>
       <c r="C68" s="2">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
       </c>
       <c r="E68">
-        <v>534</v>
+        <v>408</v>
       </c>
       <c r="F68">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G68">
-        <v>0.0636704119850187</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="H68">
-        <v>12.635</v>
+        <v>21.57</v>
       </c>
       <c r="I68">
-        <v>500</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2418,25 +2418,25 @@
         <v>359042</v>
       </c>
       <c r="C69" s="2">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I69">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2447,25 +2447,25 @@
         <v>359042</v>
       </c>
       <c r="C70" s="2">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.338095238095238</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>23.288</v>
       </c>
       <c r="I70">
-        <v>960</v>
+        <v>556</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2476,25 +2476,25 @@
         <v>359042</v>
       </c>
       <c r="C71" s="2">
-        <v>45801</v>
+        <v>45804</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
       </c>
       <c r="E71">
-        <v>534</v>
+        <v>390</v>
       </c>
       <c r="F71">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="G71">
-        <v>0.202247191011236</v>
+        <v>0.169230769230769</v>
       </c>
       <c r="H71">
-        <v>39.51</v>
+        <v>24.135</v>
       </c>
       <c r="I71">
-        <v>426</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2505,25 +2505,25 @@
         <v>359042</v>
       </c>
       <c r="C72" s="2">
-        <v>45801</v>
+        <v>45804</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I72">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2534,373 +2534,373 @@
         <v>359042</v>
       </c>
       <c r="C73" s="2">
-        <v>45801</v>
+        <v>45804</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F73">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="G73">
-        <v>0.0302083333333333</v>
+        <v>0.317857142857143</v>
       </c>
       <c r="H73">
-        <v>2.378</v>
+        <v>21.894</v>
       </c>
       <c r="I73">
-        <v>931</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C74" s="2">
-        <v>45796</v>
+        <v>45805</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74">
-        <v>402</v>
+        <v>486</v>
       </c>
       <c r="F74">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G74">
-        <v>0.17910447761194</v>
+        <v>0.127572016460905</v>
       </c>
       <c r="H74">
-        <v>25.74</v>
+        <v>22.165</v>
       </c>
       <c r="I74">
-        <v>330</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C75" s="2">
-        <v>45796</v>
+        <v>45805</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F75">
         <v>7</v>
       </c>
       <c r="G75">
-        <v>0.583333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H75">
         <v>6.93</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C76" s="2">
-        <v>45796</v>
+        <v>45805</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
       </c>
       <c r="E76">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="F76">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="G76">
-        <v>0.15625</v>
+        <v>0.167857142857143</v>
       </c>
       <c r="H76">
-        <v>6.15</v>
+        <v>11.562</v>
       </c>
       <c r="I76">
-        <v>405</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C77" s="2">
-        <v>45797</v>
+        <v>45806</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
       </c>
       <c r="E77">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="F77">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G77">
-        <v>0.206572769953052</v>
+        <v>0.0905349794238683</v>
       </c>
       <c r="H77">
-        <v>31.46</v>
+        <v>15.97</v>
       </c>
       <c r="I77">
-        <v>338</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C78" s="2">
-        <v>45797</v>
+        <v>45806</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
       </c>
       <c r="E78">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>0.75</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H78">
-        <v>8.91</v>
+        <v>1.98</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C79" s="2">
-        <v>45797</v>
+        <v>45806</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F79">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G79">
-        <v>0.125</v>
+        <v>0.113095238095238</v>
       </c>
       <c r="H79">
-        <v>6.15</v>
+        <v>7.79</v>
       </c>
       <c r="I79">
-        <v>525</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C80" s="2">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
       </c>
       <c r="E80">
-        <v>438</v>
+        <v>558</v>
       </c>
       <c r="F80">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="G80">
-        <v>0.267123287671233</v>
+        <v>0.121863799283154</v>
       </c>
       <c r="H80">
-        <v>41.8275</v>
+        <v>24.37</v>
       </c>
       <c r="I80">
-        <v>321</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C81" s="2">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
       </c>
       <c r="E81">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H81">
-        <v>1.98</v>
+        <v>11.88</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C82" s="2">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G82">
-        <v>0.119047619047619</v>
+        <v>0.105208333333333</v>
       </c>
       <c r="H82">
-        <v>8.199999999999999</v>
+        <v>8.282</v>
       </c>
       <c r="I82">
-        <v>740</v>
+        <v>859</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C83" s="2">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
       </c>
       <c r="E83">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="F83">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G83">
-        <v>0.103658536585366</v>
+        <v>0.0448028673835125</v>
       </c>
       <c r="H83">
-        <v>18.2325</v>
+        <v>9.1775</v>
       </c>
       <c r="I83">
-        <v>441</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C84" s="2">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
       </c>
       <c r="E84">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84">
         <v>0.166666666666667</v>
       </c>
       <c r="H84">
-        <v>1.98</v>
+        <v>2.97</v>
       </c>
       <c r="I84">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C85" s="2">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
       </c>
       <c r="E85">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F85">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0.252380952380952</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>17.384</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>628</v>
+        <v>960</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2911,25 +2911,25 @@
         <v>363271</v>
       </c>
       <c r="C86" s="2">
-        <v>45800</v>
+        <v>45802</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86">
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="F86">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G86">
-        <v>0.162962962962963</v>
+        <v>0.155448717948718</v>
       </c>
       <c r="H86">
-        <v>31.82</v>
+        <v>34.6775</v>
       </c>
       <c r="I86">
-        <v>452</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2940,25 +2940,25 @@
         <v>363271</v>
       </c>
       <c r="C87" s="2">
-        <v>45800</v>
+        <v>45802</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="E87">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G87">
-        <v>0.555555555555556</v>
+        <v>0.25</v>
       </c>
       <c r="H87">
-        <v>9.9</v>
+        <v>5.94</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2969,25 +2969,25 @@
         <v>363271</v>
       </c>
       <c r="C88" s="2">
-        <v>45800</v>
+        <v>45802</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="F88">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="G88">
-        <v>0.0208333333333333</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="H88">
-        <v>1.64</v>
+        <v>17.22</v>
       </c>
       <c r="I88">
-        <v>940</v>
+        <v>870</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2998,25 +2998,25 @@
         <v>363271</v>
       </c>
       <c r="C89" s="2">
-        <v>45801</v>
+        <v>45803</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89">
-        <v>594</v>
+        <v>432</v>
       </c>
       <c r="F89">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G89">
-        <v>0.0488215488215488</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H89">
-        <v>10.3675</v>
+        <v>15.015</v>
       </c>
       <c r="I89">
-        <v>565</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3027,25 +3027,25 @@
         <v>363271</v>
       </c>
       <c r="C90" s="2">
-        <v>45801</v>
+        <v>45803</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
       </c>
       <c r="E90">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H90">
+        <v>6.93</v>
+      </c>
+      <c r="I90">
         <v>5</v>
-      </c>
-      <c r="G90">
-        <v>0.277777777777778</v>
-      </c>
-      <c r="H90">
-        <v>4.95</v>
-      </c>
-      <c r="I90">
-        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3056,152 +3056,152 @@
         <v>363271</v>
       </c>
       <c r="C91" s="2">
-        <v>45801</v>
+        <v>45803</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
       </c>
       <c r="E91">
-        <v>1080</v>
+        <v>480</v>
       </c>
       <c r="F91">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="G91">
-        <v>0.0231481481481481</v>
+        <v>0.25</v>
       </c>
       <c r="H91">
-        <v>2.05</v>
+        <v>9.84</v>
       </c>
       <c r="I91">
-        <v>1055</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C92" s="2">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
       </c>
       <c r="E92">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="F92">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.243421052631579</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>39.6825</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>345</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C93" s="2">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C94" s="2">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="F94">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0.0535714285714286</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>795</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C95" s="2">
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="F95">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="G95">
-        <v>0.133928571428571</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="H95">
-        <v>16.0875</v>
+        <v>57.2</v>
       </c>
       <c r="I95">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B96">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C96" s="2">
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
@@ -3210,27 +3210,27 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I96">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C97" s="2">
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -3239,56 +3239,56 @@
         <v>840</v>
       </c>
       <c r="F97">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="G97">
-        <v>0.101190476190476</v>
+        <v>0.297619047619048</v>
       </c>
       <c r="H97">
-        <v>6.97</v>
+        <v>20.5</v>
       </c>
       <c r="I97">
-        <v>755</v>
+        <v>590</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C98" s="2">
-        <v>45798</v>
+        <v>45806</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
       </c>
       <c r="E98">
-        <v>408</v>
+        <v>534</v>
       </c>
       <c r="F98">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="G98">
-        <v>0.301470588235294</v>
+        <v>0.342696629213483</v>
       </c>
       <c r="H98">
-        <v>43.9725</v>
+        <v>65.9025</v>
       </c>
       <c r="I98">
-        <v>285</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C99" s="2">
-        <v>45798</v>
+        <v>45806</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
@@ -3297,85 +3297,85 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0.25</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H99">
-        <v>2.97</v>
+        <v>0.99</v>
       </c>
       <c r="I99">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B100">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C100" s="2">
-        <v>45798</v>
+        <v>45806</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
       </c>
       <c r="E100">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="F100">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G100">
-        <v>0.0375</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H100">
-        <v>2.214</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I100">
-        <v>693</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B101">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C101" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
       <c r="D101" t="s">
         <v>16</v>
       </c>
       <c r="E101">
-        <v>408</v>
+        <v>618</v>
       </c>
       <c r="F101">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>0.343137254901961</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>50.05</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>268</v>
+        <v>618</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B102">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C102" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
@@ -3384,132 +3384,132 @@
         <v>18</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C103" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
       </c>
       <c r="E103">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F103">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.0321428571428571</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>2.214</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>813</v>
+        <v>960</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C104" s="2">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
       </c>
       <c r="E104">
-        <v>414</v>
+        <v>624</v>
       </c>
       <c r="F104">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="G104">
-        <v>0.306763285024155</v>
+        <v>0.0689102564102564</v>
       </c>
       <c r="H104">
-        <v>45.4025</v>
+        <v>15.3725</v>
       </c>
       <c r="I104">
-        <v>287</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C105" s="2">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C106" s="2">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
       </c>
       <c r="E106">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="F106">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G106">
-        <v>0.217857142857143</v>
+        <v>0.173148148148148</v>
       </c>
       <c r="H106">
-        <v>15.006</v>
+        <v>15.334</v>
       </c>
       <c r="I106">
-        <v>657</v>
+        <v>893</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3520,25 +3520,25 @@
         <v>343939</v>
       </c>
       <c r="C107" s="2">
-        <v>45801</v>
+        <v>45802</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107">
-        <v>408</v>
+        <v>552</v>
       </c>
       <c r="F107">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="G107">
-        <v>0.355392156862745</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="H107">
-        <v>51.8375</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="I107">
-        <v>263</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3549,7 +3549,7 @@
         <v>343939</v>
       </c>
       <c r="C108" s="2">
-        <v>45801</v>
+        <v>45802</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
@@ -3558,16 +3558,16 @@
         <v>12</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>0.666666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H108">
-        <v>7.92</v>
+        <v>1.98</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3578,7 +3578,7 @@
         <v>343939</v>
       </c>
       <c r="C109" s="2">
-        <v>45801</v>
+        <v>45802</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -3587,497 +3587,497 @@
         <v>840</v>
       </c>
       <c r="F109">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0.176190476190476</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>12.136</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>692</v>
+        <v>840</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C110" s="2">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110">
-        <v>564</v>
+        <v>360</v>
       </c>
       <c r="F110">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="G110">
-        <v>0.287234042553192</v>
+        <v>0.141666666666667</v>
       </c>
       <c r="H110">
-        <v>58.515</v>
+        <v>18.2325</v>
       </c>
       <c r="I110">
-        <v>402</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B111">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C111" s="2">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="D111" t="s">
         <v>17</v>
       </c>
       <c r="E111">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G111">
-        <v>0.0555555555555556</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H111">
-        <v>0.99</v>
+        <v>7.92</v>
       </c>
       <c r="I111">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B112">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C112" s="2">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
       </c>
       <c r="E112">
-        <v>360</v>
+        <v>840</v>
       </c>
       <c r="F112">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="G112">
-        <v>0.08888888888888891</v>
+        <v>0.125</v>
       </c>
       <c r="H112">
-        <v>2.624</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I112">
-        <v>328</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B113">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C113" s="2">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
       </c>
       <c r="E113">
-        <v>606</v>
+        <v>360</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>0.358333333333333</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>46.1175</v>
       </c>
       <c r="I113">
-        <v>606</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C114" s="2">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
       </c>
       <c r="E114">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I114">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C115" s="2">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
       </c>
       <c r="E115">
-        <v>360</v>
+        <v>840</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>0.155952380952381</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>10.742</v>
       </c>
       <c r="I115">
-        <v>360</v>
+        <v>709</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C116" s="2">
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
       <c r="E116">
-        <v>684</v>
+        <v>396</v>
       </c>
       <c r="F116">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G116">
-        <v>0.14766081871345</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H116">
-        <v>36.6475</v>
+        <v>31.46</v>
       </c>
       <c r="I116">
-        <v>583</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C117" s="2">
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
       </c>
       <c r="E117">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I117">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C118" s="2">
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
       </c>
       <c r="E118">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F118">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="G118">
-        <v>0.0972222222222222</v>
+        <v>0.393055555555556</v>
       </c>
       <c r="H118">
-        <v>2.87</v>
+        <v>23.206</v>
       </c>
       <c r="I118">
-        <v>325</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C119" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D119" t="s">
         <v>16</v>
       </c>
       <c r="E119">
-        <v>756</v>
+        <v>414</v>
       </c>
       <c r="F119">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G119">
-        <v>0.08201058201058201</v>
+        <v>0.120772946859903</v>
       </c>
       <c r="H119">
-        <v>22.705</v>
+        <v>17.875</v>
       </c>
       <c r="I119">
-        <v>694</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C120" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
       </c>
       <c r="E120">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="I120">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C121" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
       </c>
       <c r="E121">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F121">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0.0972222222222222</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>325</v>
+        <v>720</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B122">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C122" s="2">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="D122" t="s">
         <v>16</v>
       </c>
       <c r="E122">
-        <v>828</v>
+        <v>396</v>
       </c>
       <c r="F122">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="G122">
-        <v>0.132850241545894</v>
+        <v>0.184343434343434</v>
       </c>
       <c r="H122">
-        <v>39.625</v>
+        <v>26.0975</v>
       </c>
       <c r="I122">
-        <v>718</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B123">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C123" s="2">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
       </c>
       <c r="E123">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I123">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B124">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C124" s="2">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
       </c>
       <c r="E124">
-        <v>360</v>
+        <v>840</v>
       </c>
       <c r="F124">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="G124">
-        <v>0.108333333333333</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H124">
-        <v>3.198</v>
+        <v>9.84</v>
       </c>
       <c r="I124">
-        <v>321</v>
+        <v>720</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B125">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C125" s="2">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="D125" t="s">
         <v>16</v>
       </c>
       <c r="E125">
-        <v>732</v>
+        <v>474</v>
       </c>
       <c r="F125">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G125">
-        <v>0.0204918032786885</v>
+        <v>0.151898734177215</v>
       </c>
       <c r="H125">
-        <v>5.3625</v>
+        <v>25.74</v>
       </c>
       <c r="I125">
-        <v>717</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B126">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C126" s="2">
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
       </c>
       <c r="E126">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -4089,35 +4089,644 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>343939</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45808</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>840</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
         <v>15</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>301290</v>
       </c>
-      <c r="C127" s="2">
-        <v>45801</v>
-      </c>
-      <c r="D127" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127">
+      <c r="C128" s="2">
+        <v>45802</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128">
+        <v>780</v>
+      </c>
+      <c r="F128">
+        <v>190</v>
+      </c>
+      <c r="G128">
+        <v>0.243589743589744</v>
+      </c>
+      <c r="H128">
+        <v>68.645</v>
+      </c>
+      <c r="I128">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129">
+        <v>301290</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45802</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130">
+        <v>301290</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45802</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>480</v>
+      </c>
+      <c r="F130">
+        <v>92</v>
+      </c>
+      <c r="G130">
+        <v>0.191666666666667</v>
+      </c>
+      <c r="H130">
+        <v>7.544</v>
+      </c>
+      <c r="I130">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131">
+        <v>301290</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45803</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>570</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131">
+        <v>0.00701754385964912</v>
+      </c>
+      <c r="H131">
+        <v>1.49</v>
+      </c>
+      <c r="I131">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132">
+        <v>301290</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45803</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>18</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133">
+        <v>301290</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45803</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133">
         <v>360</v>
       </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
+      <c r="F133">
+        <v>110</v>
+      </c>
+      <c r="G133">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="H133">
+        <v>9.02</v>
+      </c>
+      <c r="I133">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134">
+        <v>301290</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45804</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134">
+        <v>606</v>
+      </c>
+      <c r="F134">
+        <v>101</v>
+      </c>
+      <c r="G134">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H134">
+        <v>36.2875</v>
+      </c>
+      <c r="I134">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135">
+        <v>301290</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45804</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H135">
+        <v>2.97</v>
+      </c>
+      <c r="I135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136">
+        <v>301290</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45804</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>360</v>
+      </c>
+      <c r="F136">
+        <v>60</v>
+      </c>
+      <c r="G136">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H136">
+        <v>4.92</v>
+      </c>
+      <c r="I136">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137">
+        <v>301290</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45805</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137">
+        <v>696</v>
+      </c>
+      <c r="F137">
+        <v>149</v>
+      </c>
+      <c r="G137">
+        <v>0.214080459770115</v>
+      </c>
+      <c r="H137">
+        <v>53.9275</v>
+      </c>
+      <c r="I137">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138">
+        <v>301290</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45805</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139">
+        <v>301290</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45805</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>360</v>
+      </c>
+      <c r="F139">
+        <v>35</v>
+      </c>
+      <c r="G139">
+        <v>0.0972222222222222</v>
+      </c>
+      <c r="H139">
+        <v>2.87</v>
+      </c>
+      <c r="I139">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140">
+        <v>301290</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140">
+        <v>810</v>
+      </c>
+      <c r="F140">
+        <v>144</v>
+      </c>
+      <c r="G140">
+        <v>0.177777777777778</v>
+      </c>
+      <c r="H140">
+        <v>52.44</v>
+      </c>
+      <c r="I140">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141">
+        <v>301290</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>18</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142">
+        <v>301290</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142">
+        <v>360</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143">
+        <v>301290</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45807</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143">
+        <v>834</v>
+      </c>
+      <c r="F143">
+        <v>95</v>
+      </c>
+      <c r="G143">
+        <v>0.113908872901679</v>
+      </c>
+      <c r="H143">
+        <v>34.3225</v>
+      </c>
+      <c r="I143">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144">
+        <v>301290</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45807</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>18</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145">
+        <v>301290</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45807</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145">
+        <v>360</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146">
+        <v>301290</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45808</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146">
+        <v>756</v>
+      </c>
+      <c r="F146">
+        <v>56</v>
+      </c>
+      <c r="G146">
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="H146">
+        <v>20.26</v>
+      </c>
+      <c r="I146">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147">
+        <v>301290</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45808</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>18</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148">
+        <v>301290</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45808</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148">
+        <v>360</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
         <v>360</v>
       </c>
     </row>

--- a/data/raw/supplyit/UsageOverview_Formatted.xlsx
+++ b/data/raw/supplyit/UsageOverview_Formatted.xlsx
@@ -475,25 +475,25 @@
         <v>358529</v>
       </c>
       <c r="C2" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>798</v>
+        <v>684</v>
       </c>
       <c r="F2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="G2">
-        <v>0.191729323308271</v>
+        <v>0.119883040935673</v>
       </c>
       <c r="H2">
-        <v>54.6975</v>
+        <v>29.315</v>
       </c>
       <c r="I2">
-        <v>645</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -504,25 +504,25 @@
         <v>358529</v>
       </c>
       <c r="C3" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>0.0555555555555556</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H3">
-        <v>0.99</v>
+        <v>7.92</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -533,13 +533,13 @@
         <v>358529</v>
       </c>
       <c r="C4" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4">
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1440</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -562,25 +562,25 @@
         <v>358529</v>
       </c>
       <c r="C5" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>630</v>
+        <v>474</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.137130801687764</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>23.5375</v>
       </c>
       <c r="I5">
-        <v>630</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -591,7 +591,7 @@
         <v>358529</v>
       </c>
       <c r="C6" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -600,16 +600,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -620,25 +620,25 @@
         <v>358529</v>
       </c>
       <c r="C7" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>1440</v>
+        <v>840</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.217857142857143</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>15.006</v>
       </c>
       <c r="I7">
-        <v>1440</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -649,25 +649,25 @@
         <v>358529</v>
       </c>
       <c r="C8" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="F8">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>0.284810126582278</v>
+        <v>0.0923694779116466</v>
       </c>
       <c r="H8">
-        <v>49.1625</v>
+        <v>16.445</v>
       </c>
       <c r="I8">
-        <v>339</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -678,7 +678,7 @@
         <v>358529</v>
       </c>
       <c r="C9" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -687,16 +687,16 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H9">
-        <v>3.96</v>
+        <v>4.95</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -707,7 +707,7 @@
         <v>358529</v>
       </c>
       <c r="C10" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -716,16 +716,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.345238095238095</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>23.78</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>550</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -736,25 +736,25 @@
         <v>358529</v>
       </c>
       <c r="C11" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="F11">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>0.238683127572016</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H11">
-        <v>41.95</v>
+        <v>2.86</v>
       </c>
       <c r="I11">
-        <v>370</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -765,7 +765,7 @@
         <v>358529</v>
       </c>
       <c r="C12" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -774,16 +774,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -794,7 +794,7 @@
         <v>358529</v>
       </c>
       <c r="C13" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -803,16 +803,16 @@
         <v>840</v>
       </c>
       <c r="F13">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G13">
-        <v>0.130952380952381</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H13">
-        <v>9.02</v>
+        <v>9.84</v>
       </c>
       <c r="I13">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -823,25 +823,25 @@
         <v>358529</v>
       </c>
       <c r="C14" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14">
-        <v>492</v>
+        <v>534</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.032520325203252</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>5.72</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>476</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -852,7 +852,7 @@
         <v>358529</v>
       </c>
       <c r="C15" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -881,7 +881,7 @@
         <v>358529</v>
       </c>
       <c r="C16" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -890,16 +890,16 @@
         <v>840</v>
       </c>
       <c r="F16">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>4.018</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>791</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -910,25 +910,25 @@
         <v>358529</v>
       </c>
       <c r="C17" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>582</v>
+        <v>1698</v>
       </c>
       <c r="F17">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="G17">
-        <v>0.123711340206186</v>
+        <v>0.145465253239105</v>
       </c>
       <c r="H17">
-        <v>25.74</v>
+        <v>89.5025</v>
       </c>
       <c r="I17">
-        <v>510</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -939,22 +939,22 @@
         <v>358529</v>
       </c>
       <c r="C18" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I18">
         <v>12</v>
@@ -968,7 +968,7 @@
         <v>358529</v>
       </c>
       <c r="C19" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -977,16 +977,16 @@
         <v>1080</v>
       </c>
       <c r="F19">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="G19">
-        <v>0.194444444444444</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="H19">
-        <v>17.22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I19">
-        <v>870</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -997,25 +997,25 @@
         <v>358529</v>
       </c>
       <c r="C20" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0224089635854342</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1026,7 +1026,7 @@
         <v>358529</v>
       </c>
       <c r="C21" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1035,16 +1035,16 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1055,13 +1055,13 @@
         <v>358529</v>
       </c>
       <c r="C22" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1440</v>
+        <v>1320</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1440</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1084,25 +1084,25 @@
         <v>364322</v>
       </c>
       <c r="C23" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="F23">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="G23">
-        <v>0.07703081232493</v>
+        <v>0.339181286549708</v>
       </c>
       <c r="H23">
-        <v>19.6625</v>
+        <v>82.94</v>
       </c>
       <c r="I23">
-        <v>659</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1113,7 +1113,7 @@
         <v>364322</v>
       </c>
       <c r="C24" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1142,25 +1142,25 @@
         <v>364322</v>
       </c>
       <c r="C25" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>22.14</v>
       </c>
       <c r="I25">
-        <v>1320</v>
+        <v>930</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1171,25 +1171,25 @@
         <v>364322</v>
       </c>
       <c r="C26" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="F26">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="G26">
-        <v>0.216475095785441</v>
+        <v>0.28673835125448</v>
       </c>
       <c r="H26">
-        <v>41.0575</v>
+        <v>57.74</v>
       </c>
       <c r="I26">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1200,7 +1200,7 @@
         <v>364322</v>
       </c>
       <c r="C27" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -1209,16 +1209,16 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1229,25 +1229,25 @@
         <v>364322</v>
       </c>
       <c r="C28" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F28">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G28">
-        <v>0.0364583333333333</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="H28">
-        <v>2.87</v>
+        <v>6.56</v>
       </c>
       <c r="I28">
-        <v>925</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>364322</v>
       </c>
       <c r="C29" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F29">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="G29">
-        <v>0.172222222222222</v>
+        <v>0.0326086956521739</v>
       </c>
       <c r="H29">
-        <v>33.2475</v>
+        <v>6.435</v>
       </c>
       <c r="I29">
-        <v>447</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1287,7 +1287,7 @@
         <v>364322</v>
       </c>
       <c r="C30" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1296,16 +1296,16 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>0.25</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H30">
-        <v>2.97</v>
+        <v>1.98</v>
       </c>
       <c r="I30">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1316,7 +1316,7 @@
         <v>364322</v>
       </c>
       <c r="C31" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -1325,16 +1325,16 @@
         <v>840</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.030952380952381</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.132</v>
       </c>
       <c r="I31">
-        <v>840</v>
+        <v>814</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1345,25 +1345,25 @@
         <v>364322</v>
       </c>
       <c r="C32" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F32">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G32">
-        <v>0.129213483146067</v>
+        <v>0.147509578544061</v>
       </c>
       <c r="H32">
-        <v>24.8475</v>
+        <v>27.5275</v>
       </c>
       <c r="I32">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1374,7 +1374,7 @@
         <v>364322</v>
       </c>
       <c r="C33" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -1403,25 +1403,25 @@
         <v>364322</v>
       </c>
       <c r="C34" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F34">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="G34">
-        <v>0.0773809523809524</v>
+        <v>0.3125</v>
       </c>
       <c r="H34">
-        <v>5.33</v>
+        <v>24.6</v>
       </c>
       <c r="I34">
-        <v>775</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>364322</v>
       </c>
       <c r="C35" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G35">
-        <v>0.187265917602996</v>
+        <v>0.24113475177305</v>
       </c>
       <c r="H35">
-        <v>35.99</v>
+        <v>48.8</v>
       </c>
       <c r="I35">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1461,7 +1461,7 @@
         <v>364322</v>
       </c>
       <c r="C36" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -1470,16 +1470,16 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H36">
-        <v>3.96</v>
+        <v>6.93</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1490,7 +1490,7 @@
         <v>364322</v>
       </c>
       <c r="C37" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -1499,16 +1499,16 @@
         <v>960</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="G37">
-        <v>0.104166666666667</v>
+        <v>0.317708333333333</v>
       </c>
       <c r="H37">
-        <v>8.199999999999999</v>
+        <v>25.01</v>
       </c>
       <c r="I37">
-        <v>860</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1519,25 +1519,25 @@
         <v>364322</v>
       </c>
       <c r="C38" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>726</v>
+        <v>1573</v>
       </c>
       <c r="F38">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="G38">
-        <v>0.227272727272727</v>
+        <v>0.0235219326128417</v>
       </c>
       <c r="H38">
-        <v>58.9875</v>
+        <v>13.2275</v>
       </c>
       <c r="I38">
-        <v>561</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1548,25 +1548,25 @@
         <v>364322</v>
       </c>
       <c r="C39" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1577,7 +1577,7 @@
         <v>364322</v>
       </c>
       <c r="C40" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -1586,16 +1586,16 @@
         <v>1320</v>
       </c>
       <c r="F40">
-        <v>680</v>
+        <v>330</v>
       </c>
       <c r="G40">
-        <v>0.515151515151515</v>
+        <v>0.25</v>
       </c>
       <c r="H40">
-        <v>55.76</v>
+        <v>27.06</v>
       </c>
       <c r="I40">
-        <v>640</v>
+        <v>990</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1606,25 +1606,25 @@
         <v>364322</v>
       </c>
       <c r="C41" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>726</v>
+        <v>540</v>
       </c>
       <c r="F41">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="G41">
-        <v>0.21900826446281</v>
+        <v>0.12037037037037</v>
       </c>
       <c r="H41">
-        <v>57.0825</v>
+        <v>23.2375</v>
       </c>
       <c r="I41">
-        <v>567</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1635,25 +1635,25 @@
         <v>364322</v>
       </c>
       <c r="C42" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1664,25 +1664,25 @@
         <v>364322</v>
       </c>
       <c r="C43" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>1560</v>
+        <v>1200</v>
       </c>
       <c r="F43">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G43">
-        <v>0.224358974358974</v>
+        <v>0.025</v>
       </c>
       <c r="H43">
-        <v>28.7</v>
+        <v>2.46</v>
       </c>
       <c r="I43">
-        <v>1210</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1693,25 +1693,25 @@
         <v>357993</v>
       </c>
       <c r="C44" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44">
-        <v>744</v>
+        <v>1056</v>
       </c>
       <c r="F44">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.0725806451612903</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>19.665</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>690</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1722,7 +1722,7 @@
         <v>357993</v>
       </c>
       <c r="C45" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -1731,16 +1731,16 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1751,7 +1751,7 @@
         <v>357993</v>
       </c>
       <c r="C46" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -1780,25 +1780,25 @@
         <v>357993</v>
       </c>
       <c r="C47" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="F47">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.157801418439716</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>32.4775</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>475</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1809,7 +1809,7 @@
         <v>357993</v>
       </c>
       <c r="C48" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -1818,16 +1818,16 @@
         <v>12</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1838,7 +1838,7 @@
         <v>357993</v>
       </c>
       <c r="C49" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -1867,25 +1867,25 @@
         <v>357993</v>
       </c>
       <c r="C50" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50">
-        <v>516</v>
+        <v>600</v>
       </c>
       <c r="F50">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.203488372093023</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>37.5375</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>411</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1896,7 +1896,7 @@
         <v>357993</v>
       </c>
       <c r="C51" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -1905,16 +1905,16 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1925,7 +1925,7 @@
         <v>357993</v>
       </c>
       <c r="C52" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -1934,16 +1934,16 @@
         <v>840</v>
       </c>
       <c r="F52">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.155952380952381</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>10.742</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>709</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1954,25 +1954,25 @@
         <v>357993</v>
       </c>
       <c r="C53" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.0366300366300366</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>7.15</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>526</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1983,7 +1983,7 @@
         <v>357993</v>
       </c>
       <c r="C54" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -1992,16 +1992,16 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2012,7 +2012,7 @@
         <v>357993</v>
       </c>
       <c r="C55" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -2041,13 +2041,13 @@
         <v>357993</v>
       </c>
       <c r="C56" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56">
-        <v>594</v>
+        <v>642</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>594</v>
+        <v>642</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2070,13 +2070,13 @@
         <v>357993</v>
       </c>
       <c r="C57" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
       <c r="E57">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2099,7 +2099,7 @@
         <v>357993</v>
       </c>
       <c r="C58" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -2128,13 +2128,13 @@
         <v>357993</v>
       </c>
       <c r="C59" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59">
-        <v>762</v>
+        <v>1644</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>762</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2157,13 +2157,13 @@
         <v>357993</v>
       </c>
       <c r="C60" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2186,13 +2186,13 @@
         <v>357993</v>
       </c>
       <c r="C61" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>960</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2215,13 +2215,13 @@
         <v>357993</v>
       </c>
       <c r="C62" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
       </c>
       <c r="E62">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2244,7 +2244,7 @@
         <v>357993</v>
       </c>
       <c r="C63" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -2273,7 +2273,7 @@
         <v>357993</v>
       </c>
       <c r="C64" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -2302,25 +2302,25 @@
         <v>359042</v>
       </c>
       <c r="C65" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
       </c>
       <c r="E65">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="F65">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="G65">
-        <v>0.286516853932584</v>
+        <v>0.130824372759857</v>
       </c>
       <c r="H65">
-        <v>55.7175</v>
+        <v>26.9975</v>
       </c>
       <c r="I65">
-        <v>381</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2331,7 +2331,7 @@
         <v>359042</v>
       </c>
       <c r="C66" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -2340,16 +2340,16 @@
         <v>18</v>
       </c>
       <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="H66">
+        <v>6.93</v>
+      </c>
+      <c r="I66">
         <v>11</v>
-      </c>
-      <c r="G66">
-        <v>0.611111111111111</v>
-      </c>
-      <c r="H66">
-        <v>10.89</v>
-      </c>
-      <c r="I66">
-        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2360,7 +2360,7 @@
         <v>359042</v>
       </c>
       <c r="C67" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -2369,16 +2369,16 @@
         <v>960</v>
       </c>
       <c r="F67">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="G67">
-        <v>0.175</v>
+        <v>0.420833333333333</v>
       </c>
       <c r="H67">
-        <v>13.776</v>
+        <v>33.128</v>
       </c>
       <c r="I67">
-        <v>792</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2389,7 +2389,7 @@
         <v>359042</v>
       </c>
       <c r="C68" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -2398,16 +2398,16 @@
         <v>408</v>
       </c>
       <c r="F68">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="G68">
-        <v>0.147058823529412</v>
+        <v>0.284313725490196</v>
       </c>
       <c r="H68">
-        <v>21.57</v>
+        <v>41.83</v>
       </c>
       <c r="I68">
-        <v>348</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2418,7 +2418,7 @@
         <v>359042</v>
       </c>
       <c r="C69" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -2427,16 +2427,16 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G69">
-        <v>0.0833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H69">
-        <v>0.99</v>
+        <v>6.93</v>
       </c>
       <c r="I69">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2447,7 +2447,7 @@
         <v>359042</v>
       </c>
       <c r="C70" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -2456,16 +2456,16 @@
         <v>840</v>
       </c>
       <c r="F70">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="G70">
-        <v>0.338095238095238</v>
+        <v>0.164285714285714</v>
       </c>
       <c r="H70">
-        <v>23.288</v>
+        <v>11.316</v>
       </c>
       <c r="I70">
-        <v>556</v>
+        <v>702</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2476,25 +2476,25 @@
         <v>359042</v>
       </c>
       <c r="C71" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
       </c>
       <c r="E71">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="F71">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G71">
-        <v>0.169230769230769</v>
+        <v>0.164383561643836</v>
       </c>
       <c r="H71">
-        <v>24.135</v>
+        <v>26.28</v>
       </c>
       <c r="I71">
-        <v>324</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2505,7 +2505,7 @@
         <v>359042</v>
       </c>
       <c r="C72" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -2514,16 +2514,16 @@
         <v>12</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2534,25 +2534,25 @@
         <v>359042</v>
       </c>
       <c r="C73" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F73">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="G73">
-        <v>0.317857142857143</v>
+        <v>0.15</v>
       </c>
       <c r="H73">
-        <v>21.894</v>
+        <v>11.808</v>
       </c>
       <c r="I73">
-        <v>573</v>
+        <v>816</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2563,25 +2563,25 @@
         <v>359042</v>
       </c>
       <c r="C74" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="F74">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>0.127572016460905</v>
+        <v>0.023094688221709</v>
       </c>
       <c r="H74">
-        <v>22.165</v>
+        <v>3.755</v>
       </c>
       <c r="I74">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2592,7 +2592,7 @@
         <v>359042</v>
       </c>
       <c r="C75" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -2601,16 +2601,16 @@
         <v>18</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G75">
-        <v>0.388888888888889</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="H75">
-        <v>6.93</v>
+        <v>12.87</v>
       </c>
       <c r="I75">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2621,7 +2621,7 @@
         <v>359042</v>
       </c>
       <c r="C76" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -2630,16 +2630,16 @@
         <v>840</v>
       </c>
       <c r="F76">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G76">
-        <v>0.167857142857143</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="H76">
-        <v>11.562</v>
+        <v>18.04</v>
       </c>
       <c r="I76">
-        <v>699</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2650,25 +2650,25 @@
         <v>359042</v>
       </c>
       <c r="C77" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
       </c>
       <c r="E77">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="F77">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G77">
-        <v>0.0905349794238683</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H77">
-        <v>15.97</v>
+        <v>17.5175</v>
       </c>
       <c r="I77">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2679,7 +2679,7 @@
         <v>359042</v>
       </c>
       <c r="C78" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -2688,16 +2688,16 @@
         <v>18</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>0.111111111111111</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H78">
-        <v>1.98</v>
+        <v>9.9</v>
       </c>
       <c r="I78">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2708,25 +2708,25 @@
         <v>359042</v>
       </c>
       <c r="C79" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F79">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G79">
-        <v>0.113095238095238</v>
+        <v>0.07395833333333331</v>
       </c>
       <c r="H79">
-        <v>7.79</v>
+        <v>5.822</v>
       </c>
       <c r="I79">
-        <v>745</v>
+        <v>889</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2737,25 +2737,25 @@
         <v>359042</v>
       </c>
       <c r="C80" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
       </c>
       <c r="E80">
-        <v>558</v>
+        <v>1278</v>
       </c>
       <c r="F80">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="G80">
-        <v>0.121863799283154</v>
+        <v>0.120500782472613</v>
       </c>
       <c r="H80">
-        <v>24.37</v>
+        <v>55.055</v>
       </c>
       <c r="I80">
-        <v>490</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2766,7 +2766,7 @@
         <v>359042</v>
       </c>
       <c r="C81" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
@@ -2775,16 +2775,16 @@
         <v>18</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>11.88</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2795,25 +2795,25 @@
         <v>359042</v>
       </c>
       <c r="C82" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="F82">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.105208333333333</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>8.282</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>859</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2824,7 +2824,7 @@
         <v>359042</v>
       </c>
       <c r="C83" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -2833,16 +2833,16 @@
         <v>558</v>
       </c>
       <c r="F83">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G83">
-        <v>0.0448028673835125</v>
+        <v>0.0734767025089606</v>
       </c>
       <c r="H83">
-        <v>9.1775</v>
+        <v>15.2575</v>
       </c>
       <c r="I83">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2853,7 +2853,7 @@
         <v>359042</v>
       </c>
       <c r="C84" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
@@ -2882,7 +2882,7 @@
         <v>359042</v>
       </c>
       <c r="C85" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -2891,16 +2891,16 @@
         <v>960</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.08958333333333331</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>7.052</v>
       </c>
       <c r="I85">
-        <v>960</v>
+        <v>874</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2911,25 +2911,25 @@
         <v>363271</v>
       </c>
       <c r="C86" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="F86">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G86">
-        <v>0.155448717948718</v>
+        <v>0.171296296296296</v>
       </c>
       <c r="H86">
-        <v>34.6775</v>
+        <v>39.6825</v>
       </c>
       <c r="I86">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2940,25 +2940,25 @@
         <v>363271</v>
       </c>
       <c r="C87" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="E87">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G87">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H87">
-        <v>5.94</v>
+        <v>8.91</v>
       </c>
       <c r="I87">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2969,25 +2969,25 @@
         <v>363271</v>
       </c>
       <c r="C88" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="F88">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="G88">
-        <v>0.194444444444444</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H88">
-        <v>17.22</v>
+        <v>13.12</v>
       </c>
       <c r="I88">
-        <v>870</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2998,25 +2998,25 @@
         <v>363271</v>
       </c>
       <c r="C89" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="F89">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="G89">
-        <v>0.0972222222222222</v>
+        <v>0.447368421052632</v>
       </c>
       <c r="H89">
-        <v>15.015</v>
+        <v>73.41</v>
       </c>
       <c r="I89">
-        <v>390</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3027,7 +3027,7 @@
         <v>363271</v>
       </c>
       <c r="C90" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
@@ -3056,7 +3056,7 @@
         <v>363271</v>
       </c>
       <c r="C91" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -3065,16 +3065,16 @@
         <v>480</v>
       </c>
       <c r="F91">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G91">
-        <v>0.25</v>
+        <v>0.21875</v>
       </c>
       <c r="H91">
-        <v>9.84</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I91">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3085,25 +3085,25 @@
         <v>363271</v>
       </c>
       <c r="C92" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
       </c>
       <c r="E92">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.0231481481481481</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3.575</v>
       </c>
       <c r="I92">
-        <v>474</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3114,25 +3114,25 @@
         <v>363271</v>
       </c>
       <c r="C93" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
       </c>
       <c r="E93">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I93">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3143,25 +3143,25 @@
         <v>363271</v>
       </c>
       <c r="C94" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.18452380952381</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>12.71</v>
       </c>
       <c r="I94">
-        <v>600</v>
+        <v>685</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3172,25 +3172,25 @@
         <v>363271</v>
       </c>
       <c r="C95" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F95">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="G95">
-        <v>0.350877192982456</v>
+        <v>0.149350649350649</v>
       </c>
       <c r="H95">
-        <v>57.2</v>
+        <v>24.6675</v>
       </c>
       <c r="I95">
-        <v>296</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3201,7 +3201,7 @@
         <v>363271</v>
       </c>
       <c r="C96" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
@@ -3210,16 +3210,16 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96">
-        <v>0.166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H96">
-        <v>1.98</v>
+        <v>2.97</v>
       </c>
       <c r="I96">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3230,7 +3230,7 @@
         <v>363271</v>
       </c>
       <c r="C97" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -3239,16 +3239,16 @@
         <v>840</v>
       </c>
       <c r="F97">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="G97">
-        <v>0.297619047619048</v>
+        <v>0.05</v>
       </c>
       <c r="H97">
-        <v>20.5</v>
+        <v>3.444</v>
       </c>
       <c r="I97">
-        <v>590</v>
+        <v>798</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3259,25 +3259,25 @@
         <v>363271</v>
       </c>
       <c r="C98" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
       </c>
       <c r="E98">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="F98">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="G98">
-        <v>0.342696629213483</v>
+        <v>0.0160642570281124</v>
       </c>
       <c r="H98">
-        <v>65.9025</v>
+        <v>2.86</v>
       </c>
       <c r="I98">
-        <v>351</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3288,7 +3288,7 @@
         <v>363271</v>
       </c>
       <c r="C99" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
@@ -3297,16 +3297,16 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>0.0833333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H99">
-        <v>0.99</v>
+        <v>1.98</v>
       </c>
       <c r="I99">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3317,25 +3317,25 @@
         <v>363271</v>
       </c>
       <c r="C100" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
       </c>
       <c r="E100">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F100">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G100">
-        <v>0.166666666666667</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="H100">
-        <v>8.199999999999999</v>
+        <v>6.15</v>
       </c>
       <c r="I100">
-        <v>500</v>
+        <v>765</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3346,25 +3346,25 @@
         <v>363271</v>
       </c>
       <c r="C101" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D101" t="s">
         <v>16</v>
       </c>
       <c r="E101">
-        <v>618</v>
+        <v>1134</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>0.08641975308641971</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>35.035</v>
       </c>
       <c r="I101">
-        <v>618</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3375,7 +3375,7 @@
         <v>363271</v>
       </c>
       <c r="C102" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
@@ -3384,16 +3384,16 @@
         <v>18</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I102">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3404,7 +3404,7 @@
         <v>363271</v>
       </c>
       <c r="C103" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -3413,16 +3413,16 @@
         <v>960</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.213541666666667</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>16.81</v>
       </c>
       <c r="I103">
-        <v>960</v>
+        <v>755</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3433,25 +3433,25 @@
         <v>363271</v>
       </c>
       <c r="C104" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
       </c>
       <c r="E104">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="F104">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G104">
-        <v>0.0689102564102564</v>
+        <v>0.08843537414965991</v>
       </c>
       <c r="H104">
-        <v>15.3725</v>
+        <v>18.59</v>
       </c>
       <c r="I104">
-        <v>581</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3462,13 +3462,13 @@
         <v>363271</v>
       </c>
       <c r="C105" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
       </c>
       <c r="E105">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3491,25 +3491,25 @@
         <v>363271</v>
       </c>
       <c r="C106" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
       </c>
       <c r="E106">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="F106">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="G106">
-        <v>0.173148148148148</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="H106">
-        <v>15.334</v>
+        <v>4.1</v>
       </c>
       <c r="I106">
-        <v>893</v>
+        <v>790</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3520,25 +3520,25 @@
         <v>343939</v>
       </c>
       <c r="C107" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107">
-        <v>552</v>
+        <v>444</v>
       </c>
       <c r="F107">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="G107">
-        <v>0.355072463768116</v>
+        <v>0.0315315315315315</v>
       </c>
       <c r="H107">
-        <v>70.06999999999999</v>
+        <v>5.005</v>
       </c>
       <c r="I107">
-        <v>356</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3549,25 +3549,25 @@
         <v>343939</v>
       </c>
       <c r="C108" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
       </c>
       <c r="E108">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G108">
-        <v>0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H108">
-        <v>1.98</v>
+        <v>15.84</v>
       </c>
       <c r="I108">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3578,7 +3578,7 @@
         <v>343939</v>
       </c>
       <c r="C109" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -3587,16 +3587,16 @@
         <v>840</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>0.00238095238095238</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="I109">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3607,25 +3607,25 @@
         <v>343939</v>
       </c>
       <c r="C110" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F110">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>0.141666666666667</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>18.2325</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>309</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3636,7 +3636,7 @@
         <v>343939</v>
       </c>
       <c r="C111" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D111" t="s">
         <v>17</v>
@@ -3665,25 +3665,25 @@
         <v>343939</v>
       </c>
       <c r="C112" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
       </c>
       <c r="E112">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="F112">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G112">
-        <v>0.125</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H112">
-        <v>8.609999999999999</v>
+        <v>6.56</v>
       </c>
       <c r="I112">
-        <v>735</v>
+        <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3694,25 +3694,25 @@
         <v>343939</v>
       </c>
       <c r="C113" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
       </c>
       <c r="E113">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F113">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="G113">
-        <v>0.358333333333333</v>
+        <v>0.087431693989071</v>
       </c>
       <c r="H113">
-        <v>46.1175</v>
+        <v>11.44</v>
       </c>
       <c r="I113">
-        <v>231</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3723,7 +3723,7 @@
         <v>343939</v>
       </c>
       <c r="C114" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -3732,16 +3732,16 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>0.583333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H114">
-        <v>6.93</v>
+        <v>1.98</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3752,25 +3752,25 @@
         <v>343939</v>
       </c>
       <c r="C115" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
       </c>
       <c r="E115">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="F115">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="G115">
-        <v>0.155952380952381</v>
+        <v>0.09</v>
       </c>
       <c r="H115">
-        <v>10.742</v>
+        <v>4.428</v>
       </c>
       <c r="I115">
-        <v>709</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3781,25 +3781,25 @@
         <v>343939</v>
       </c>
       <c r="C116" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
       <c r="E116">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="F116">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>31.46</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3810,7 +3810,7 @@
         <v>343939</v>
       </c>
       <c r="C117" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -3819,16 +3819,16 @@
         <v>12</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H117">
-        <v>1.98</v>
+        <v>0.99</v>
       </c>
       <c r="I117">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3839,25 +3839,25 @@
         <v>343939</v>
       </c>
       <c r="C118" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
       </c>
       <c r="E118">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="F118">
-        <v>283</v>
+        <v>8</v>
       </c>
       <c r="G118">
-        <v>0.393055555555556</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="H118">
-        <v>23.206</v>
+        <v>0.656</v>
       </c>
       <c r="I118">
-        <v>437</v>
+        <v>952</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3868,25 +3868,25 @@
         <v>343939</v>
       </c>
       <c r="C119" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D119" t="s">
         <v>16</v>
       </c>
       <c r="E119">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="F119">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G119">
-        <v>0.120772946859903</v>
+        <v>0.043010752688172</v>
       </c>
       <c r="H119">
-        <v>17.875</v>
+        <v>5.72</v>
       </c>
       <c r="I119">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3897,7 +3897,7 @@
         <v>343939</v>
       </c>
       <c r="C120" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
@@ -3906,16 +3906,16 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G120">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H120">
-        <v>7.92</v>
+        <v>5.94</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3926,25 +3926,25 @@
         <v>343939</v>
       </c>
       <c r="C121" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
       </c>
       <c r="E121">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="I121">
-        <v>720</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3955,25 +3955,25 @@
         <v>343939</v>
       </c>
       <c r="C122" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D122" t="s">
         <v>16</v>
       </c>
       <c r="E122">
-        <v>396</v>
+        <v>864</v>
       </c>
       <c r="F122">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="G122">
-        <v>0.184343434343434</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H122">
-        <v>26.0975</v>
+        <v>3.2175</v>
       </c>
       <c r="I122">
-        <v>323</v>
+        <v>855</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3984,7 +3984,7 @@
         <v>343939</v>
       </c>
       <c r="C123" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
@@ -3993,16 +3993,16 @@
         <v>12</v>
       </c>
       <c r="F123">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G123">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H123">
-        <v>5.94</v>
+        <v>8.91</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4013,25 +4013,25 @@
         <v>343939</v>
       </c>
       <c r="C124" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
       </c>
       <c r="E124">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="F124">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="G124">
-        <v>0.142857142857143</v>
+        <v>0.368055555555556</v>
       </c>
       <c r="H124">
-        <v>9.84</v>
+        <v>43.46</v>
       </c>
       <c r="I124">
-        <v>720</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4042,25 +4042,25 @@
         <v>343939</v>
       </c>
       <c r="C125" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D125" t="s">
         <v>16</v>
       </c>
       <c r="E125">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F125">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G125">
-        <v>0.151898734177215</v>
+        <v>0.282894736842105</v>
       </c>
       <c r="H125">
-        <v>25.74</v>
+        <v>46.1175</v>
       </c>
       <c r="I125">
-        <v>402</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4071,7 +4071,7 @@
         <v>343939</v>
       </c>
       <c r="C126" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
@@ -4080,16 +4080,16 @@
         <v>12</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="I126">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4100,25 +4100,25 @@
         <v>343939</v>
       </c>
       <c r="C127" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
       </c>
       <c r="E127">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>0.130208333333333</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="I127">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4129,25 +4129,25 @@
         <v>301290</v>
       </c>
       <c r="C128" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D128" t="s">
         <v>16</v>
       </c>
       <c r="E128">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="F128">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="G128">
-        <v>0.243589743589744</v>
+        <v>0.123655913978495</v>
       </c>
       <c r="H128">
-        <v>68.645</v>
+        <v>33.37</v>
       </c>
       <c r="I128">
-        <v>590</v>
+        <v>652</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4158,7 +4158,7 @@
         <v>301290</v>
       </c>
       <c r="C129" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
@@ -4167,16 +4167,16 @@
         <v>18</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I129">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4187,25 +4187,25 @@
         <v>301290</v>
       </c>
       <c r="C130" s="2">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="D130" t="s">
         <v>18</v>
       </c>
       <c r="E130">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="F130">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.191666666666667</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>7.544</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>388</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4216,25 +4216,25 @@
         <v>301290</v>
       </c>
       <c r="C131" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
       </c>
       <c r="E131">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="G131">
-        <v>0.00701754385964912</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="H131">
-        <v>1.49</v>
+        <v>46.36</v>
       </c>
       <c r="I131">
-        <v>566</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4245,7 +4245,7 @@
         <v>301290</v>
       </c>
       <c r="C132" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D132" t="s">
         <v>17</v>
@@ -4274,7 +4274,7 @@
         <v>301290</v>
       </c>
       <c r="C133" s="2">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
@@ -4283,16 +4283,16 @@
         <v>360</v>
       </c>
       <c r="F133">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G133">
-        <v>0.305555555555556</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H133">
-        <v>9.02</v>
+        <v>6.15</v>
       </c>
       <c r="I133">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4303,25 +4303,25 @@
         <v>301290</v>
       </c>
       <c r="C134" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D134" t="s">
         <v>16</v>
       </c>
       <c r="E134">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="F134">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G134">
-        <v>0.166666666666667</v>
+        <v>0.161812297734628</v>
       </c>
       <c r="H134">
-        <v>36.2875</v>
+        <v>35.75</v>
       </c>
       <c r="I134">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4332,7 +4332,7 @@
         <v>301290</v>
       </c>
       <c r="C135" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D135" t="s">
         <v>17</v>
@@ -4341,16 +4341,16 @@
         <v>18</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4361,7 +4361,7 @@
         <v>301290</v>
       </c>
       <c r="C136" s="2">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
@@ -4370,16 +4370,16 @@
         <v>360</v>
       </c>
       <c r="F136">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4390,25 +4390,25 @@
         <v>301290</v>
       </c>
       <c r="C137" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D137" t="s">
         <v>16</v>
       </c>
       <c r="E137">
-        <v>696</v>
+        <v>648</v>
       </c>
       <c r="F137">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="G137">
-        <v>0.214080459770115</v>
+        <v>0.134259259259259</v>
       </c>
       <c r="H137">
-        <v>53.9275</v>
+        <v>31.2225</v>
       </c>
       <c r="I137">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4419,7 +4419,7 @@
         <v>301290</v>
       </c>
       <c r="C138" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D138" t="s">
         <v>17</v>
@@ -4448,7 +4448,7 @@
         <v>301290</v>
       </c>
       <c r="C139" s="2">
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -4457,16 +4457,16 @@
         <v>360</v>
       </c>
       <c r="F139">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G139">
-        <v>0.0972222222222222</v>
+        <v>0.07777777777777781</v>
       </c>
       <c r="H139">
-        <v>2.87</v>
+        <v>2.296</v>
       </c>
       <c r="I139">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4477,25 +4477,25 @@
         <v>301290</v>
       </c>
       <c r="C140" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
       </c>
       <c r="E140">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F140">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="G140">
-        <v>0.177777777777778</v>
+        <v>0.281400966183575</v>
       </c>
       <c r="H140">
-        <v>52.44</v>
+        <v>84.0775</v>
       </c>
       <c r="I140">
-        <v>666</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4506,7 +4506,7 @@
         <v>301290</v>
       </c>
       <c r="C141" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
@@ -4535,7 +4535,7 @@
         <v>301290</v>
       </c>
       <c r="C142" s="2">
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
@@ -4564,25 +4564,25 @@
         <v>301290</v>
       </c>
       <c r="C143" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D143" t="s">
         <v>16</v>
       </c>
       <c r="E143">
-        <v>834</v>
+        <v>1614</v>
       </c>
       <c r="F143">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="G143">
-        <v>0.113908872901679</v>
+        <v>0.340768277571252</v>
       </c>
       <c r="H143">
-        <v>34.3225</v>
+        <v>196.805</v>
       </c>
       <c r="I143">
-        <v>739</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4593,25 +4593,25 @@
         <v>301290</v>
       </c>
       <c r="C144" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D144" t="s">
         <v>17</v>
       </c>
       <c r="E144">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="I144">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4622,25 +4622,25 @@
         <v>301290</v>
       </c>
       <c r="C145" s="2">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
       </c>
       <c r="E145">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.179166666666667</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>10.578</v>
       </c>
       <c r="I145">
-        <v>360</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4651,7 +4651,7 @@
         <v>301290</v>
       </c>
       <c r="C146" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D146" t="s">
         <v>16</v>
@@ -4660,16 +4660,16 @@
         <v>756</v>
       </c>
       <c r="F146">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="G146">
-        <v>0.0740740740740741</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="H146">
-        <v>20.26</v>
+        <v>33.6075</v>
       </c>
       <c r="I146">
-        <v>700</v>
+        <v>663</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4680,7 +4680,7 @@
         <v>301290</v>
       </c>
       <c r="C147" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
@@ -4689,16 +4689,16 @@
         <v>18</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I147">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4709,7 +4709,7 @@
         <v>301290</v>
       </c>
       <c r="C148" s="2">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="D148" t="s">
         <v>18</v>
@@ -4718,16 +4718,16 @@
         <v>360</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>0.105555555555556</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3.116</v>
       </c>
       <c r="I148">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/supplyit/UsageOverview_Formatted.xlsx
+++ b/data/raw/supplyit/UsageOverview_Formatted.xlsx
@@ -475,25 +475,25 @@
         <v>358529</v>
       </c>
       <c r="C2" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>684</v>
+        <v>630</v>
       </c>
       <c r="F2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="G2">
-        <v>0.119883040935673</v>
+        <v>0.249206349206349</v>
       </c>
       <c r="H2">
-        <v>29.315</v>
+        <v>56.6075</v>
       </c>
       <c r="I2">
-        <v>602</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -504,25 +504,25 @@
         <v>358529</v>
       </c>
       <c r="C3" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0.333333333333333</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H3">
-        <v>7.92</v>
+        <v>4.95</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -533,25 +533,25 @@
         <v>358529</v>
       </c>
       <c r="C4" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.132575757575758</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14.35</v>
       </c>
       <c r="I4">
-        <v>960</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -562,25 +562,25 @@
         <v>358529</v>
       </c>
       <c r="C5" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F5">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>0.137130801687764</v>
+        <v>0.0596707818930041</v>
       </c>
       <c r="H5">
-        <v>23.5375</v>
+        <v>10.4275</v>
       </c>
       <c r="I5">
-        <v>409</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -591,7 +591,7 @@
         <v>358529</v>
       </c>
       <c r="C6" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -600,16 +600,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0.333333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H6">
-        <v>3.96</v>
+        <v>1.98</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -620,7 +620,7 @@
         <v>358529</v>
       </c>
       <c r="C7" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -629,16 +629,16 @@
         <v>840</v>
       </c>
       <c r="F7">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>0.217857142857143</v>
+        <v>0.00476190476190476</v>
       </c>
       <c r="H7">
-        <v>15.006</v>
+        <v>0.328</v>
       </c>
       <c r="I7">
-        <v>657</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -649,25 +649,25 @@
         <v>358529</v>
       </c>
       <c r="C8" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F8">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>0.0923694779116466</v>
+        <v>0.119918699186992</v>
       </c>
       <c r="H8">
-        <v>16.445</v>
+        <v>21.3325</v>
       </c>
       <c r="I8">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -678,7 +678,7 @@
         <v>358529</v>
       </c>
       <c r="C9" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -687,16 +687,16 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -707,7 +707,7 @@
         <v>358529</v>
       </c>
       <c r="C10" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -716,16 +716,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I10">
-        <v>840</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -736,25 +736,25 @@
         <v>358529</v>
       </c>
       <c r="C11" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="G11">
-        <v>0.0158730158730159</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H11">
-        <v>2.86</v>
+        <v>45.405</v>
       </c>
       <c r="I11">
-        <v>496</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -765,7 +765,7 @@
         <v>358529</v>
       </c>
       <c r="C12" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -774,16 +774,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H12">
-        <v>5.94</v>
+        <v>2.97</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -794,7 +794,7 @@
         <v>358529</v>
       </c>
       <c r="C13" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -803,16 +803,16 @@
         <v>840</v>
       </c>
       <c r="F13">
-        <v>120</v>
+        <v>375</v>
       </c>
       <c r="G13">
-        <v>0.142857142857143</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="H13">
-        <v>9.84</v>
+        <v>30.75</v>
       </c>
       <c r="I13">
-        <v>720</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -823,25 +823,25 @@
         <v>358529</v>
       </c>
       <c r="C14" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.246527777777778</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>51.545</v>
       </c>
       <c r="I14">
-        <v>534</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -852,7 +852,7 @@
         <v>358529</v>
       </c>
       <c r="C15" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -861,16 +861,16 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -881,7 +881,7 @@
         <v>358529</v>
       </c>
       <c r="C16" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -890,16 +890,16 @@
         <v>840</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.00238095238095238</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="I16">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -910,25 +910,25 @@
         <v>358529</v>
       </c>
       <c r="C17" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>1698</v>
+        <v>600</v>
       </c>
       <c r="F17">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="G17">
-        <v>0.145465253239105</v>
+        <v>0.118333333333333</v>
       </c>
       <c r="H17">
-        <v>89.5025</v>
+        <v>25.9225</v>
       </c>
       <c r="I17">
-        <v>1451</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -939,25 +939,25 @@
         <v>358529</v>
       </c>
       <c r="C18" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>0.333333333333333</v>
       </c>
       <c r="H18">
-        <v>5.94</v>
+        <v>3.96</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -968,7 +968,7 @@
         <v>358529</v>
       </c>
       <c r="C19" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -997,25 +997,25 @@
         <v>358529</v>
       </c>
       <c r="C20" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.253846153846154</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>71.745</v>
       </c>
       <c r="I20">
-        <v>690</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1026,7 +1026,7 @@
         <v>358529</v>
       </c>
       <c r="C21" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1035,16 +1035,16 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I21">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1055,25 +1055,25 @@
         <v>358529</v>
       </c>
       <c r="C22" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1320</v>
+        <v>1440</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.315972222222222</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>37.31</v>
       </c>
       <c r="I22">
-        <v>1320</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1084,25 +1084,25 @@
         <v>364322</v>
       </c>
       <c r="C23" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23">
-        <v>684</v>
+        <v>582</v>
       </c>
       <c r="F23">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="G23">
-        <v>0.339181286549708</v>
+        <v>0.297250859106529</v>
       </c>
       <c r="H23">
-        <v>82.94</v>
+        <v>61.8475</v>
       </c>
       <c r="I23">
-        <v>452</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1113,25 +1113,25 @@
         <v>364322</v>
       </c>
       <c r="C24" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>0.166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H24">
-        <v>1.98</v>
+        <v>2.97</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1142,25 +1142,25 @@
         <v>364322</v>
       </c>
       <c r="C25" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="F25">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G25">
-        <v>0.225</v>
+        <v>0.101851851851852</v>
       </c>
       <c r="H25">
-        <v>22.14</v>
+        <v>9.02</v>
       </c>
       <c r="I25">
-        <v>930</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1171,25 +1171,25 @@
         <v>364322</v>
       </c>
       <c r="C26" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26">
-        <v>558</v>
+        <v>450</v>
       </c>
       <c r="F26">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="G26">
-        <v>0.28673835125448</v>
+        <v>0.06666666666666669</v>
       </c>
       <c r="H26">
-        <v>57.74</v>
+        <v>10.725</v>
       </c>
       <c r="I26">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1200,7 +1200,7 @@
         <v>364322</v>
       </c>
       <c r="C27" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -1209,16 +1209,16 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1229,7 +1229,7 @@
         <v>364322</v>
       </c>
       <c r="C28" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1238,16 +1238,16 @@
         <v>840</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G28">
-        <v>0.09523809523809521</v>
+        <v>0.06547619047619049</v>
       </c>
       <c r="H28">
-        <v>6.56</v>
+        <v>4.51</v>
       </c>
       <c r="I28">
-        <v>760</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>364322</v>
       </c>
       <c r="C29" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29">
-        <v>552</v>
+        <v>444</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G29">
-        <v>0.0326086956521739</v>
+        <v>0.132882882882883</v>
       </c>
       <c r="H29">
-        <v>6.435</v>
+        <v>21.0925</v>
       </c>
       <c r="I29">
-        <v>534</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1287,7 +1287,7 @@
         <v>364322</v>
       </c>
       <c r="C30" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1296,16 +1296,16 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1316,7 +1316,7 @@
         <v>364322</v>
       </c>
       <c r="C31" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -1325,16 +1325,16 @@
         <v>840</v>
       </c>
       <c r="F31">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>0.030952380952381</v>
+        <v>0.0404761904761905</v>
       </c>
       <c r="H31">
-        <v>2.132</v>
+        <v>2.788</v>
       </c>
       <c r="I31">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1345,25 +1345,25 @@
         <v>364322</v>
       </c>
       <c r="C32" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="F32">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="G32">
-        <v>0.147509578544061</v>
+        <v>0.06707317073170729</v>
       </c>
       <c r="H32">
-        <v>27.5275</v>
+        <v>11.7975</v>
       </c>
       <c r="I32">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1374,13 +1374,13 @@
         <v>364322</v>
       </c>
       <c r="C33" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1403,25 +1403,25 @@
         <v>364322</v>
       </c>
       <c r="C34" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F34">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="G34">
-        <v>0.3125</v>
+        <v>0.06785714285714289</v>
       </c>
       <c r="H34">
-        <v>24.6</v>
+        <v>4.674</v>
       </c>
       <c r="I34">
-        <v>660</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>364322</v>
       </c>
       <c r="C35" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
-        <v>564</v>
+        <v>438</v>
       </c>
       <c r="F35">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G35">
-        <v>0.24113475177305</v>
+        <v>0.235159817351598</v>
       </c>
       <c r="H35">
-        <v>48.8</v>
+        <v>37.1225</v>
       </c>
       <c r="I35">
-        <v>428</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1461,25 +1461,25 @@
         <v>364322</v>
       </c>
       <c r="C36" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1490,25 +1490,25 @@
         <v>364322</v>
       </c>
       <c r="C37" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F37">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.317708333333333</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>25.01</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>655</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1519,25 +1519,25 @@
         <v>364322</v>
       </c>
       <c r="C38" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>1573</v>
+        <v>582</v>
       </c>
       <c r="F38">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G38">
-        <v>0.0235219326128417</v>
+        <v>0.132302405498282</v>
       </c>
       <c r="H38">
-        <v>13.2275</v>
+        <v>27.5275</v>
       </c>
       <c r="I38">
-        <v>1536</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1548,25 +1548,25 @@
         <v>364322</v>
       </c>
       <c r="C39" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>0.291666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H39">
-        <v>6.93</v>
+        <v>1.98</v>
       </c>
       <c r="I39">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>364322</v>
       </c>
       <c r="C40" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="F40">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="G40">
-        <v>0.25</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H40">
-        <v>27.06</v>
+        <v>13.12</v>
       </c>
       <c r="I40">
-        <v>990</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1606,25 +1606,25 @@
         <v>364322</v>
       </c>
       <c r="C41" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="F41">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>0.12037037037037</v>
+        <v>0.025089605734767</v>
       </c>
       <c r="H41">
-        <v>23.2375</v>
+        <v>5.005</v>
       </c>
       <c r="I41">
-        <v>475</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1635,25 +1635,25 @@
         <v>364322</v>
       </c>
       <c r="C42" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1664,7 +1664,7 @@
         <v>364322</v>
       </c>
       <c r="C43" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -1673,16 +1673,16 @@
         <v>1200</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1170</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1693,25 +1693,25 @@
         <v>357993</v>
       </c>
       <c r="C44" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44">
-        <v>1056</v>
+        <v>1032</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>45.76</v>
       </c>
       <c r="I44">
-        <v>1056</v>
+        <v>904</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1722,7 +1722,7 @@
         <v>357993</v>
       </c>
       <c r="C45" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -1731,16 +1731,16 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I45">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1751,7 +1751,7 @@
         <v>357993</v>
       </c>
       <c r="C46" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -1760,16 +1760,16 @@
         <v>960</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.0677083333333333</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="I46">
-        <v>960</v>
+        <v>895</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1780,7 +1780,7 @@
         <v>357993</v>
       </c>
       <c r="C47" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
@@ -1789,16 +1789,16 @@
         <v>588</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.326530612244898</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="I47">
-        <v>588</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1809,7 +1809,7 @@
         <v>357993</v>
       </c>
       <c r="C48" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -1818,16 +1818,16 @@
         <v>12</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1838,7 +1838,7 @@
         <v>357993</v>
       </c>
       <c r="C49" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -1847,16 +1847,16 @@
         <v>840</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>18.04</v>
       </c>
       <c r="I49">
-        <v>840</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1867,25 +1867,25 @@
         <v>357993</v>
       </c>
       <c r="C50" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>23.12</v>
       </c>
       <c r="I50">
-        <v>600</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1896,7 +1896,7 @@
         <v>357993</v>
       </c>
       <c r="C51" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -1905,16 +1905,16 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1925,7 +1925,7 @@
         <v>357993</v>
       </c>
       <c r="C52" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -1934,16 +1934,16 @@
         <v>840</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>29.52</v>
       </c>
       <c r="I52">
-        <v>840</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1954,7 +1954,7 @@
         <v>357993</v>
       </c>
       <c r="C53" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -1963,16 +1963,16 @@
         <v>618</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.182847896440129</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>40.5175</v>
       </c>
       <c r="I53">
-        <v>618</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1983,7 +1983,7 @@
         <v>357993</v>
       </c>
       <c r="C54" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -1992,16 +1992,16 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I54">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2012,7 +2012,7 @@
         <v>357993</v>
       </c>
       <c r="C55" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -2021,16 +2021,16 @@
         <v>840</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>14.76</v>
       </c>
       <c r="I55">
-        <v>840</v>
+        <v>660</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2041,7 +2041,7 @@
         <v>357993</v>
       </c>
       <c r="C56" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
@@ -2050,16 +2050,16 @@
         <v>642</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.161993769470405</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>37.18</v>
       </c>
       <c r="I56">
-        <v>642</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2070,7 +2070,7 @@
         <v>357993</v>
       </c>
       <c r="C57" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -2079,16 +2079,16 @@
         <v>18</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I57">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2099,7 +2099,7 @@
         <v>357993</v>
       </c>
       <c r="C58" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -2108,16 +2108,16 @@
         <v>840</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>5.74</v>
       </c>
       <c r="I58">
-        <v>840</v>
+        <v>770</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2128,25 +2128,25 @@
         <v>357993</v>
       </c>
       <c r="C59" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59">
-        <v>1644</v>
+        <v>786</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.185750636132316</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>52.495</v>
       </c>
       <c r="I59">
-        <v>1644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2157,25 +2157,25 @@
         <v>357993</v>
       </c>
       <c r="C60" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>10.89</v>
       </c>
       <c r="I60">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2186,25 +2186,25 @@
         <v>357993</v>
       </c>
       <c r="C61" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61">
-        <v>1320</v>
+        <v>960</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.0260416666666667</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I61">
-        <v>1320</v>
+        <v>935</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2215,7 +2215,7 @@
         <v>357993</v>
       </c>
       <c r="C62" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -2224,16 +2224,16 @@
         <v>798</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.0363408521303258</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>10.3675</v>
       </c>
       <c r="I62">
-        <v>798</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2244,7 +2244,7 @@
         <v>357993</v>
       </c>
       <c r="C63" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -2273,7 +2273,7 @@
         <v>357993</v>
       </c>
       <c r="C64" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -2282,16 +2282,16 @@
         <v>1200</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.0275</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2.706</v>
       </c>
       <c r="I64">
-        <v>1200</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2302,7 +2302,7 @@
         <v>359042</v>
       </c>
       <c r="C65" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -2311,16 +2311,16 @@
         <v>558</v>
       </c>
       <c r="F65">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G65">
-        <v>0.130824372759857</v>
+        <v>0.152329749103943</v>
       </c>
       <c r="H65">
-        <v>26.9975</v>
+        <v>30.6875</v>
       </c>
       <c r="I65">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2331,7 +2331,7 @@
         <v>359042</v>
       </c>
       <c r="C66" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -2340,16 +2340,16 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G66">
-        <v>0.388888888888889</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H66">
-        <v>6.93</v>
+        <v>7.92</v>
       </c>
       <c r="I66">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2360,7 +2360,7 @@
         <v>359042</v>
       </c>
       <c r="C67" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -2369,16 +2369,16 @@
         <v>960</v>
       </c>
       <c r="F67">
-        <v>404</v>
+        <v>194</v>
       </c>
       <c r="G67">
-        <v>0.420833333333333</v>
+        <v>0.202083333333333</v>
       </c>
       <c r="H67">
-        <v>33.128</v>
+        <v>15.908</v>
       </c>
       <c r="I67">
-        <v>556</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2389,25 +2389,25 @@
         <v>359042</v>
       </c>
       <c r="C68" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
       </c>
       <c r="E68">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="F68">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G68">
-        <v>0.284313725490196</v>
+        <v>0.317351598173516</v>
       </c>
       <c r="H68">
-        <v>41.83</v>
+        <v>50.2325</v>
       </c>
       <c r="I68">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2418,7 +2418,7 @@
         <v>359042</v>
       </c>
       <c r="C69" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -2427,16 +2427,16 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69">
-        <v>0.583333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H69">
-        <v>6.93</v>
+        <v>7.92</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2447,25 +2447,25 @@
         <v>359042</v>
       </c>
       <c r="C70" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F70">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="G70">
-        <v>0.164285714285714</v>
+        <v>0.370833333333333</v>
       </c>
       <c r="H70">
-        <v>11.316</v>
+        <v>29.192</v>
       </c>
       <c r="I70">
-        <v>702</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2476,7 +2476,7 @@
         <v>359042</v>
       </c>
       <c r="C71" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -2485,16 +2485,16 @@
         <v>438</v>
       </c>
       <c r="F71">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G71">
-        <v>0.164383561643836</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="H71">
-        <v>26.28</v>
+        <v>19.905</v>
       </c>
       <c r="I71">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2505,7 +2505,7 @@
         <v>359042</v>
       </c>
       <c r="C72" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -2514,16 +2514,16 @@
         <v>12</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2534,7 +2534,7 @@
         <v>359042</v>
       </c>
       <c r="C73" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2543,16 +2543,16 @@
         <v>960</v>
       </c>
       <c r="F73">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="G73">
-        <v>0.15</v>
+        <v>0.0552083333333333</v>
       </c>
       <c r="H73">
-        <v>11.808</v>
+        <v>4.346</v>
       </c>
       <c r="I73">
-        <v>816</v>
+        <v>907</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2563,25 +2563,25 @@
         <v>359042</v>
       </c>
       <c r="C74" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G74">
-        <v>0.023094688221709</v>
+        <v>0.117521367521368</v>
       </c>
       <c r="H74">
-        <v>3.755</v>
+        <v>20.1425</v>
       </c>
       <c r="I74">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2592,7 +2592,7 @@
         <v>359042</v>
       </c>
       <c r="C75" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -2621,7 +2621,7 @@
         <v>359042</v>
       </c>
       <c r="C76" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -2630,16 +2630,16 @@
         <v>840</v>
       </c>
       <c r="F76">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="G76">
-        <v>0.261904761904762</v>
+        <v>0.229761904761905</v>
       </c>
       <c r="H76">
-        <v>18.04</v>
+        <v>15.826</v>
       </c>
       <c r="I76">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2650,25 +2650,25 @@
         <v>359042</v>
       </c>
       <c r="C77" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
       </c>
       <c r="E77">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="F77">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="G77">
-        <v>0.0972222222222222</v>
+        <v>0.270325203252033</v>
       </c>
       <c r="H77">
-        <v>17.5175</v>
+        <v>47.5475</v>
       </c>
       <c r="I77">
-        <v>455</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2679,25 +2679,25 @@
         <v>359042</v>
       </c>
       <c r="C78" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
       </c>
       <c r="E78">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0.555555555555556</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H78">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2708,25 +2708,25 @@
         <v>359042</v>
       </c>
       <c r="C79" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="F79">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G79">
-        <v>0.07395833333333331</v>
+        <v>0.0766666666666667</v>
       </c>
       <c r="H79">
-        <v>5.822</v>
+        <v>3.772</v>
       </c>
       <c r="I79">
-        <v>889</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2737,25 +2737,25 @@
         <v>359042</v>
       </c>
       <c r="C80" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
       </c>
       <c r="E80">
-        <v>1278</v>
+        <v>558</v>
       </c>
       <c r="F80">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.120500782472613</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>55.055</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1124</v>
+        <v>558</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2766,7 +2766,7 @@
         <v>359042</v>
       </c>
       <c r="C81" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
@@ -2775,16 +2775,16 @@
         <v>18</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I81">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2795,25 +2795,25 @@
         <v>359042</v>
       </c>
       <c r="C82" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="I82">
-        <v>720</v>
+        <v>956</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2824,7 +2824,7 @@
         <v>359042</v>
       </c>
       <c r="C83" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -2833,16 +2833,16 @@
         <v>558</v>
       </c>
       <c r="F83">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="G83">
-        <v>0.0734767025089606</v>
+        <v>0.209677419354839</v>
       </c>
       <c r="H83">
-        <v>15.2575</v>
+        <v>42.5475</v>
       </c>
       <c r="I83">
-        <v>517</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2853,7 +2853,7 @@
         <v>359042</v>
       </c>
       <c r="C84" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
@@ -2862,16 +2862,16 @@
         <v>18</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.166666666666667</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H84">
-        <v>2.97</v>
+        <v>0.99</v>
       </c>
       <c r="I84">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2882,7 +2882,7 @@
         <v>359042</v>
       </c>
       <c r="C85" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -2891,16 +2891,16 @@
         <v>960</v>
       </c>
       <c r="F85">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="G85">
-        <v>0.08958333333333331</v>
+        <v>0.139583333333333</v>
       </c>
       <c r="H85">
-        <v>7.052</v>
+        <v>10.988</v>
       </c>
       <c r="I85">
-        <v>874</v>
+        <v>826</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2911,25 +2911,25 @@
         <v>363271</v>
       </c>
       <c r="C86" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="F86">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G86">
-        <v>0.171296296296296</v>
+        <v>0.149038461538462</v>
       </c>
       <c r="H86">
-        <v>39.6825</v>
+        <v>33.2475</v>
       </c>
       <c r="I86">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2940,25 +2940,25 @@
         <v>363271</v>
       </c>
       <c r="C87" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="E87">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2969,25 +2969,25 @@
         <v>363271</v>
       </c>
       <c r="C88" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F88">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="G88">
-        <v>0.166666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="H88">
-        <v>13.12</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I88">
-        <v>800</v>
+        <v>735</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2998,25 +2998,25 @@
         <v>363271</v>
       </c>
       <c r="C89" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="F89">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="G89">
-        <v>0.447368421052632</v>
+        <v>0.562189054726368</v>
       </c>
       <c r="H89">
-        <v>73.41</v>
+        <v>81.27500000000001</v>
       </c>
       <c r="I89">
-        <v>252</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3027,7 +3027,7 @@
         <v>363271</v>
       </c>
       <c r="C90" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
@@ -3036,16 +3036,16 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3056,25 +3056,25 @@
         <v>363271</v>
       </c>
       <c r="C91" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
       </c>
       <c r="E91">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="F91">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.21875</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>8.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>375</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3085,25 +3085,25 @@
         <v>363271</v>
       </c>
       <c r="C92" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
       </c>
       <c r="E92">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G92">
-        <v>0.0231481481481481</v>
+        <v>0.195945945945946</v>
       </c>
       <c r="H92">
-        <v>3.575</v>
+        <v>31.1025</v>
       </c>
       <c r="I92">
-        <v>422</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3114,7 +3114,7 @@
         <v>363271</v>
       </c>
       <c r="C93" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -3123,16 +3123,16 @@
         <v>12</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H93">
-        <v>3.96</v>
+        <v>0.99</v>
       </c>
       <c r="I93">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3143,25 +3143,25 @@
         <v>363271</v>
       </c>
       <c r="C94" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F94">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="G94">
-        <v>0.18452380952381</v>
+        <v>0.413888888888889</v>
       </c>
       <c r="H94">
-        <v>12.71</v>
+        <v>24.436</v>
       </c>
       <c r="I94">
-        <v>685</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3172,25 +3172,25 @@
         <v>363271</v>
       </c>
       <c r="C95" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="F95">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G95">
-        <v>0.149350649350649</v>
+        <v>0.195011337868481</v>
       </c>
       <c r="H95">
-        <v>24.6675</v>
+        <v>30.745</v>
       </c>
       <c r="I95">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3201,7 +3201,7 @@
         <v>363271</v>
       </c>
       <c r="C96" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
@@ -3210,16 +3210,16 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G96">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H96">
-        <v>2.97</v>
+        <v>5.94</v>
       </c>
       <c r="I96">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3230,7 +3230,7 @@
         <v>363271</v>
       </c>
       <c r="C97" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -3239,16 +3239,16 @@
         <v>840</v>
       </c>
       <c r="F97">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G97">
-        <v>0.05</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="H97">
-        <v>3.444</v>
+        <v>6.15</v>
       </c>
       <c r="I97">
-        <v>798</v>
+        <v>765</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3259,25 +3259,25 @@
         <v>363271</v>
       </c>
       <c r="C98" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
       </c>
       <c r="E98">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="G98">
-        <v>0.0160642570281124</v>
+        <v>0.254166666666667</v>
       </c>
       <c r="H98">
-        <v>2.86</v>
+        <v>43.615</v>
       </c>
       <c r="I98">
-        <v>490</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3288,7 +3288,7 @@
         <v>363271</v>
       </c>
       <c r="C99" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
@@ -3297,16 +3297,16 @@
         <v>12</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G99">
-        <v>0.166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H99">
-        <v>1.98</v>
+        <v>5.94</v>
       </c>
       <c r="I99">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3317,7 +3317,7 @@
         <v>363271</v>
       </c>
       <c r="C100" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -3326,16 +3326,16 @@
         <v>840</v>
       </c>
       <c r="F100">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G100">
-        <v>0.0892857142857143</v>
+        <v>0.148809523809524</v>
       </c>
       <c r="H100">
-        <v>6.15</v>
+        <v>10.25</v>
       </c>
       <c r="I100">
-        <v>765</v>
+        <v>715</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3346,25 +3346,25 @@
         <v>363271</v>
       </c>
       <c r="C101" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D101" t="s">
         <v>16</v>
       </c>
       <c r="E101">
-        <v>1134</v>
+        <v>534</v>
       </c>
       <c r="F101">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="G101">
-        <v>0.08641975308641971</v>
+        <v>0.279026217228464</v>
       </c>
       <c r="H101">
-        <v>35.035</v>
+        <v>53.7475</v>
       </c>
       <c r="I101">
-        <v>1036</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3375,25 +3375,25 @@
         <v>363271</v>
       </c>
       <c r="C102" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="E102">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G102">
-        <v>0.111111111111111</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H102">
-        <v>1.98</v>
+        <v>3.96</v>
       </c>
       <c r="I102">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3404,25 +3404,25 @@
         <v>363271</v>
       </c>
       <c r="C103" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
       </c>
       <c r="E103">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F103">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="G103">
-        <v>0.213541666666667</v>
+        <v>0.279761904761905</v>
       </c>
       <c r="H103">
-        <v>16.81</v>
+        <v>19.27</v>
       </c>
       <c r="I103">
-        <v>755</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3433,25 +3433,25 @@
         <v>363271</v>
       </c>
       <c r="C104" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
       </c>
       <c r="E104">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F104">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="G104">
-        <v>0.08843537414965991</v>
+        <v>0.247422680412371</v>
       </c>
       <c r="H104">
-        <v>18.59</v>
+        <v>52.32</v>
       </c>
       <c r="I104">
-        <v>536</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3462,25 +3462,25 @@
         <v>363271</v>
       </c>
       <c r="C105" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>13.86</v>
       </c>
       <c r="I105">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3491,25 +3491,25 @@
         <v>363271</v>
       </c>
       <c r="C106" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
       </c>
       <c r="E106">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G106">
-        <v>0.0595238095238095</v>
+        <v>0.152777777777778</v>
       </c>
       <c r="H106">
-        <v>4.1</v>
+        <v>9.02</v>
       </c>
       <c r="I106">
-        <v>790</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3520,25 +3520,25 @@
         <v>343939</v>
       </c>
       <c r="C107" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F107">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G107">
-        <v>0.0315315315315315</v>
+        <v>0.368888888888889</v>
       </c>
       <c r="H107">
-        <v>5.005</v>
+        <v>59.345</v>
       </c>
       <c r="I107">
-        <v>430</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3549,25 +3549,25 @@
         <v>343939</v>
       </c>
       <c r="C108" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
       </c>
       <c r="E108">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>0.666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H108">
-        <v>15.84</v>
+        <v>2.97</v>
       </c>
       <c r="I108">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3578,7 +3578,7 @@
         <v>343939</v>
       </c>
       <c r="C109" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -3587,16 +3587,16 @@
         <v>840</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="G109">
-        <v>0.00238095238095238</v>
+        <v>0.0845238095238095</v>
       </c>
       <c r="H109">
-        <v>0.164</v>
+        <v>5.822</v>
       </c>
       <c r="I109">
-        <v>838</v>
+        <v>769</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3607,25 +3607,25 @@
         <v>343939</v>
       </c>
       <c r="C110" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>0.28448275862069</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>35.3925</v>
       </c>
       <c r="I110">
-        <v>366</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3636,7 +3636,7 @@
         <v>343939</v>
       </c>
       <c r="C111" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D111" t="s">
         <v>17</v>
@@ -3645,16 +3645,16 @@
         <v>12</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G111">
-        <v>0.666666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H111">
-        <v>7.92</v>
+        <v>4.95</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3665,7 +3665,7 @@
         <v>343939</v>
       </c>
       <c r="C112" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -3674,16 +3674,16 @@
         <v>600</v>
       </c>
       <c r="F112">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G112">
-        <v>0.133333333333333</v>
+        <v>0.126666666666667</v>
       </c>
       <c r="H112">
-        <v>6.56</v>
+        <v>6.232</v>
       </c>
       <c r="I112">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3694,25 +3694,25 @@
         <v>343939</v>
       </c>
       <c r="C113" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
       </c>
       <c r="E113">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F113">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G113">
-        <v>0.087431693989071</v>
+        <v>0.322916666666667</v>
       </c>
       <c r="H113">
-        <v>11.44</v>
+        <v>44.33</v>
       </c>
       <c r="I113">
-        <v>334</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3723,7 +3723,7 @@
         <v>343939</v>
       </c>
       <c r="C114" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -3732,16 +3732,16 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G114">
-        <v>0.166666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H114">
-        <v>1.98</v>
+        <v>6.93</v>
       </c>
       <c r="I114">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3752,25 +3752,25 @@
         <v>343939</v>
       </c>
       <c r="C115" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
       </c>
       <c r="E115">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F115">
-        <v>54</v>
+        <v>489</v>
       </c>
       <c r="G115">
-        <v>0.09</v>
+        <v>0.582142857142857</v>
       </c>
       <c r="H115">
-        <v>4.428</v>
+        <v>40.098</v>
       </c>
       <c r="I115">
-        <v>546</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3781,25 +3781,25 @@
         <v>343939</v>
       </c>
       <c r="C116" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
       <c r="E116">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>0.188095238095238</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>28.2425</v>
       </c>
       <c r="I116">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3810,7 +3810,7 @@
         <v>343939</v>
       </c>
       <c r="C117" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -3819,16 +3819,16 @@
         <v>12</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G117">
-        <v>0.0833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H117">
-        <v>0.99</v>
+        <v>7.92</v>
       </c>
       <c r="I117">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3839,25 +3839,25 @@
         <v>343939</v>
       </c>
       <c r="C118" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
       </c>
       <c r="E118">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="F118">
-        <v>8</v>
+        <v>305</v>
       </c>
       <c r="G118">
-        <v>0.00833333333333333</v>
+        <v>0.363095238095238</v>
       </c>
       <c r="H118">
-        <v>0.656</v>
+        <v>25.01</v>
       </c>
       <c r="I118">
-        <v>952</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3868,25 +3868,25 @@
         <v>343939</v>
       </c>
       <c r="C119" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D119" t="s">
         <v>16</v>
       </c>
       <c r="E119">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="F119">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="G119">
-        <v>0.043010752688172</v>
+        <v>0.227053140096618</v>
       </c>
       <c r="H119">
-        <v>5.72</v>
+        <v>33.605</v>
       </c>
       <c r="I119">
-        <v>356</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3897,7 +3897,7 @@
         <v>343939</v>
       </c>
       <c r="C120" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
@@ -3906,16 +3906,16 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>0.5</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H120">
-        <v>5.94</v>
+        <v>4.95</v>
       </c>
       <c r="I120">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3926,25 +3926,25 @@
         <v>343939</v>
       </c>
       <c r="C121" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
       </c>
       <c r="E121">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F121">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G121">
-        <v>0.208333333333333</v>
+        <v>0.167857142857143</v>
       </c>
       <c r="H121">
-        <v>10.25</v>
+        <v>11.562</v>
       </c>
       <c r="I121">
-        <v>475</v>
+        <v>699</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3955,25 +3955,25 @@
         <v>343939</v>
       </c>
       <c r="C122" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D122" t="s">
         <v>16</v>
       </c>
       <c r="E122">
-        <v>864</v>
+        <v>498</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="G122">
-        <v>0.0104166666666667</v>
+        <v>0.3714859437751</v>
       </c>
       <c r="H122">
-        <v>3.2175</v>
+        <v>66.1375</v>
       </c>
       <c r="I122">
-        <v>855</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3984,7 +3984,7 @@
         <v>343939</v>
       </c>
       <c r="C123" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
@@ -3993,16 +3993,16 @@
         <v>12</v>
       </c>
       <c r="F123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G123">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H123">
-        <v>8.91</v>
+        <v>9.9</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4013,25 +4013,25 @@
         <v>343939</v>
       </c>
       <c r="C124" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
       </c>
       <c r="E124">
-        <v>1440</v>
+        <v>840</v>
       </c>
       <c r="F124">
-        <v>530</v>
+        <v>13</v>
       </c>
       <c r="G124">
-        <v>0.368055555555556</v>
+        <v>0.0154761904761905</v>
       </c>
       <c r="H124">
-        <v>43.46</v>
+        <v>1.066</v>
       </c>
       <c r="I124">
-        <v>910</v>
+        <v>827</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4042,25 +4042,25 @@
         <v>343939</v>
       </c>
       <c r="C125" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D125" t="s">
         <v>16</v>
       </c>
       <c r="E125">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="F125">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="G125">
-        <v>0.282894736842105</v>
+        <v>0.323293172690763</v>
       </c>
       <c r="H125">
-        <v>46.1175</v>
+        <v>57.5575</v>
       </c>
       <c r="I125">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4071,7 +4071,7 @@
         <v>343939</v>
       </c>
       <c r="C126" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
@@ -4080,16 +4080,16 @@
         <v>12</v>
       </c>
       <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H126">
+        <v>3.96</v>
+      </c>
+      <c r="I126">
         <v>8</v>
-      </c>
-      <c r="G126">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H126">
-        <v>7.92</v>
-      </c>
-      <c r="I126">
-        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4100,25 +4100,25 @@
         <v>343939</v>
       </c>
       <c r="C127" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
       </c>
       <c r="E127">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="F127">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="G127">
-        <v>0.130208333333333</v>
+        <v>0.0549019607843137</v>
       </c>
       <c r="H127">
-        <v>10.25</v>
+        <v>4.592</v>
       </c>
       <c r="I127">
-        <v>835</v>
+        <v>964</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4129,25 +4129,25 @@
         <v>301290</v>
       </c>
       <c r="C128" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D128" t="s">
         <v>16</v>
       </c>
       <c r="E128">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="F128">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="G128">
-        <v>0.123655913978495</v>
+        <v>0.282152230971129</v>
       </c>
       <c r="H128">
-        <v>33.37</v>
+        <v>77.46250000000001</v>
       </c>
       <c r="I128">
-        <v>652</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4158,25 +4158,25 @@
         <v>301290</v>
       </c>
       <c r="C129" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="E129">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4187,7 +4187,7 @@
         <v>301290</v>
       </c>
       <c r="C130" s="2">
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="D130" t="s">
         <v>18</v>
@@ -4196,16 +4196,16 @@
         <v>360</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.219444444444444</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>6.478</v>
       </c>
       <c r="I130">
-        <v>360</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4216,25 +4216,25 @@
         <v>301290</v>
       </c>
       <c r="C131" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
       </c>
       <c r="E131">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="F131">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G131">
-        <v>0.217687074829932</v>
+        <v>0.25</v>
       </c>
       <c r="H131">
-        <v>46.36</v>
+        <v>51.72</v>
       </c>
       <c r="I131">
-        <v>460</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4245,7 +4245,7 @@
         <v>301290</v>
       </c>
       <c r="C132" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D132" t="s">
         <v>17</v>
@@ -4254,16 +4254,16 @@
         <v>18</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I132">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4274,7 +4274,7 @@
         <v>301290</v>
       </c>
       <c r="C133" s="2">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
@@ -4283,16 +4283,16 @@
         <v>360</v>
       </c>
       <c r="F133">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="G133">
-        <v>0.208333333333333</v>
+        <v>0.283333333333333</v>
       </c>
       <c r="H133">
-        <v>6.15</v>
+        <v>8.364000000000001</v>
       </c>
       <c r="I133">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4303,25 +4303,25 @@
         <v>301290</v>
       </c>
       <c r="C134" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D134" t="s">
         <v>16</v>
       </c>
       <c r="E134">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="F134">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G134">
-        <v>0.161812297734628</v>
+        <v>0.112211221122112</v>
       </c>
       <c r="H134">
-        <v>35.75</v>
+        <v>24.31</v>
       </c>
       <c r="I134">
-        <v>518</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4332,7 +4332,7 @@
         <v>301290</v>
       </c>
       <c r="C135" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D135" t="s">
         <v>17</v>
@@ -4341,16 +4341,16 @@
         <v>18</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I135">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4361,7 +4361,7 @@
         <v>301290</v>
       </c>
       <c r="C136" s="2">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
@@ -4370,16 +4370,16 @@
         <v>360</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>0.408333333333333</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>12.054</v>
       </c>
       <c r="I136">
-        <v>360</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4390,25 +4390,25 @@
         <v>301290</v>
       </c>
       <c r="C137" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D137" t="s">
         <v>16</v>
       </c>
       <c r="E137">
-        <v>648</v>
+        <v>702</v>
       </c>
       <c r="F137">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="G137">
-        <v>0.134259259259259</v>
+        <v>0.313390313390313</v>
       </c>
       <c r="H137">
-        <v>31.2225</v>
+        <v>79.67</v>
       </c>
       <c r="I137">
-        <v>561</v>
+        <v>482</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4419,7 +4419,7 @@
         <v>301290</v>
       </c>
       <c r="C138" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D138" t="s">
         <v>17</v>
@@ -4428,16 +4428,16 @@
         <v>18</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I138">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4448,7 +4448,7 @@
         <v>301290</v>
       </c>
       <c r="C139" s="2">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -4457,16 +4457,16 @@
         <v>360</v>
       </c>
       <c r="F139">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G139">
-        <v>0.07777777777777781</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="H139">
-        <v>2.296</v>
+        <v>2.87</v>
       </c>
       <c r="I139">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4477,25 +4477,25 @@
         <v>301290</v>
       </c>
       <c r="C140" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
       </c>
       <c r="E140">
-        <v>828</v>
+        <v>756</v>
       </c>
       <c r="F140">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G140">
-        <v>0.281400966183575</v>
+        <v>0.288359788359788</v>
       </c>
       <c r="H140">
-        <v>84.0775</v>
+        <v>77.935</v>
       </c>
       <c r="I140">
-        <v>595</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4506,7 +4506,7 @@
         <v>301290</v>
       </c>
       <c r="C141" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
@@ -4515,16 +4515,16 @@
         <v>18</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I141">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4535,7 +4535,7 @@
         <v>301290</v>
       </c>
       <c r="C142" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
@@ -4544,16 +4544,16 @@
         <v>360</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I142">
-        <v>360</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4564,25 +4564,25 @@
         <v>301290</v>
       </c>
       <c r="C143" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D143" t="s">
         <v>16</v>
       </c>
       <c r="E143">
-        <v>1614</v>
+        <v>798</v>
       </c>
       <c r="F143">
-        <v>550</v>
+        <v>298</v>
       </c>
       <c r="G143">
-        <v>0.340768277571252</v>
+        <v>0.3734335839599</v>
       </c>
       <c r="H143">
-        <v>196.805</v>
+        <v>107.855</v>
       </c>
       <c r="I143">
-        <v>1064</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4593,25 +4593,25 @@
         <v>301290</v>
       </c>
       <c r="C144" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D144" t="s">
         <v>17</v>
       </c>
       <c r="E144">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F144">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4622,25 +4622,25 @@
         <v>301290</v>
       </c>
       <c r="C145" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
       </c>
       <c r="E145">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="F145">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="G145">
-        <v>0.179166666666667</v>
+        <v>0.108333333333333</v>
       </c>
       <c r="H145">
-        <v>10.578</v>
+        <v>3.198</v>
       </c>
       <c r="I145">
-        <v>591</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4651,25 +4651,25 @@
         <v>301290</v>
       </c>
       <c r="C146" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D146" t="s">
         <v>16</v>
       </c>
       <c r="E146">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="F146">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="G146">
-        <v>0.123015873015873</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H146">
-        <v>33.6075</v>
+        <v>46.4775</v>
       </c>
       <c r="I146">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4680,7 +4680,7 @@
         <v>301290</v>
       </c>
       <c r="C147" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
@@ -4689,16 +4689,16 @@
         <v>18</v>
       </c>
       <c r="F147">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4709,25 +4709,25 @@
         <v>301290</v>
       </c>
       <c r="C148" s="2">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="D148" t="s">
         <v>18</v>
       </c>
       <c r="E148">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="F148">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="G148">
-        <v>0.105555555555556</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="H148">
-        <v>3.116</v>
+        <v>15.252</v>
       </c>
       <c r="I148">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/supplyit/UsageOverview_Formatted.xlsx
+++ b/data/raw/supplyit/UsageOverview_Formatted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="19">
   <si>
     <t>Location</t>
   </si>
@@ -432,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,25 +475,25 @@
         <v>358529</v>
       </c>
       <c r="C2" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>630</v>
+        <v>684</v>
       </c>
       <c r="F2">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.249206349206349</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>56.6075</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>473</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -504,7 +504,7 @@
         <v>358529</v>
       </c>
       <c r="C3" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -513,16 +513,16 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0.277777777777778</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H3">
-        <v>4.95</v>
+        <v>3.96</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -533,7 +533,7 @@
         <v>358529</v>
       </c>
       <c r="C4" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -542,16 +542,16 @@
         <v>1320</v>
       </c>
       <c r="F4">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.132575757575758</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1145</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -562,7 +562,7 @@
         <v>358529</v>
       </c>
       <c r="C5" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -571,16 +571,16 @@
         <v>486</v>
       </c>
       <c r="F5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0596707818930041</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>10.4275</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -591,7 +591,7 @@
         <v>358529</v>
       </c>
       <c r="C6" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -600,16 +600,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -620,7 +620,7 @@
         <v>358529</v>
       </c>
       <c r="C7" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -629,16 +629,16 @@
         <v>840</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -649,25 +649,25 @@
         <v>358529</v>
       </c>
       <c r="C8" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="F8">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>0.119918699186992</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H8">
-        <v>21.3325</v>
+        <v>9.295</v>
       </c>
       <c r="I8">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -678,7 +678,7 @@
         <v>358529</v>
       </c>
       <c r="C9" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -707,7 +707,7 @@
         <v>358529</v>
       </c>
       <c r="C10" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -716,16 +716,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G10">
-        <v>0.119047619047619</v>
+        <v>0.123809523809524</v>
       </c>
       <c r="H10">
-        <v>8.199999999999999</v>
+        <v>8.528</v>
       </c>
       <c r="I10">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -736,25 +736,25 @@
         <v>358529</v>
       </c>
       <c r="C11" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>546</v>
+        <v>432</v>
       </c>
       <c r="F11">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.230769230769231</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>45.405</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -765,25 +765,25 @@
         <v>358529</v>
       </c>
       <c r="C12" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -794,25 +794,25 @@
         <v>358529</v>
       </c>
       <c r="C13" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>840</v>
+        <v>570</v>
       </c>
       <c r="F13">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.446428571428571</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>30.75</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>465</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -823,25 +823,25 @@
         <v>358529</v>
       </c>
       <c r="C14" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>576</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.246527777777778</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>51.545</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>434</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -852,25 +852,25 @@
         <v>358529</v>
       </c>
       <c r="C15" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -881,25 +881,25 @@
         <v>358529</v>
       </c>
       <c r="C16" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <v>840</v>
+        <v>642</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>0.00238095238095238</v>
+        <v>0.107476635514019</v>
       </c>
       <c r="H16">
-        <v>0.164</v>
+        <v>25.6275</v>
       </c>
       <c r="I16">
-        <v>838</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -910,25 +910,25 @@
         <v>358529</v>
       </c>
       <c r="C17" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>600</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.118333333333333</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>25.9225</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>529</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -939,25 +939,25 @@
         <v>358529</v>
       </c>
       <c r="C18" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="G18">
-        <v>0.333333333333333</v>
+        <v>0.250833333333333</v>
       </c>
       <c r="H18">
-        <v>3.96</v>
+        <v>24.682</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -968,25 +968,25 @@
         <v>358529</v>
       </c>
       <c r="C19" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>1080</v>
+        <v>684</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G19">
-        <v>0.0925925925925926</v>
+        <v>0.162280701754386</v>
       </c>
       <c r="H19">
-        <v>8.199999999999999</v>
+        <v>40.6425</v>
       </c>
       <c r="I19">
-        <v>980</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -997,25 +997,25 @@
         <v>358529</v>
       </c>
       <c r="C20" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>780</v>
+        <v>18</v>
       </c>
       <c r="F20">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>0.253846153846154</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H20">
-        <v>71.745</v>
+        <v>7.92</v>
       </c>
       <c r="I20">
-        <v>582</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1026,54 +1026,54 @@
         <v>358529</v>
       </c>
       <c r="C21" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>1440</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>496</v>
       </c>
       <c r="G21">
-        <v>0.166666666666667</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="H21">
-        <v>2.97</v>
+        <v>40.672</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>358529</v>
+        <v>364322</v>
       </c>
       <c r="C22" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>1440</v>
+        <v>594</v>
       </c>
       <c r="F22">
-        <v>455</v>
+        <v>43</v>
       </c>
       <c r="G22">
-        <v>0.315972222222222</v>
+        <v>0.07239057239057239</v>
       </c>
       <c r="H22">
-        <v>37.31</v>
+        <v>15.3725</v>
       </c>
       <c r="I22">
-        <v>985</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1084,25 +1084,25 @@
         <v>364322</v>
       </c>
       <c r="C23" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>582</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.297250859106529</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>61.8475</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>409</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1113,25 +1113,25 @@
         <v>364322</v>
       </c>
       <c r="C24" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>1440</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="H24">
-        <v>2.97</v>
+        <v>0.984</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1142,25 +1142,25 @@
         <v>364322</v>
       </c>
       <c r="C25" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>1080</v>
+        <v>474</v>
       </c>
       <c r="F25">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G25">
-        <v>0.101851851851852</v>
+        <v>0.248945147679325</v>
       </c>
       <c r="H25">
-        <v>9.02</v>
+        <v>42.185</v>
       </c>
       <c r="I25">
-        <v>970</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1171,25 +1171,25 @@
         <v>364322</v>
       </c>
       <c r="C26" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>0.06666666666666669</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H26">
-        <v>10.725</v>
+        <v>3.96</v>
       </c>
       <c r="I26">
-        <v>420</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1200,25 +1200,25 @@
         <v>364322</v>
       </c>
       <c r="C27" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>840</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1229,25 +1229,25 @@
         <v>364322</v>
       </c>
       <c r="C28" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>840</v>
+        <v>432</v>
       </c>
       <c r="F28">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G28">
-        <v>0.06547619047619049</v>
+        <v>0.159722222222222</v>
       </c>
       <c r="H28">
-        <v>4.51</v>
+        <v>24.6675</v>
       </c>
       <c r="I28">
-        <v>785</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>364322</v>
       </c>
       <c r="C29" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>0.132882882882883</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H29">
-        <v>21.0925</v>
+        <v>1.98</v>
       </c>
       <c r="I29">
-        <v>385</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1287,25 +1287,25 @@
         <v>364322</v>
       </c>
       <c r="C30" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.094047619047619</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>6.478</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1316,25 +1316,25 @@
         <v>364322</v>
       </c>
       <c r="C31" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>840</v>
+        <v>474</v>
       </c>
       <c r="F31">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G31">
-        <v>0.0404761904761905</v>
+        <v>0.149789029535865</v>
       </c>
       <c r="H31">
-        <v>2.788</v>
+        <v>25.4425</v>
       </c>
       <c r="I31">
-        <v>806</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1345,25 +1345,25 @@
         <v>364322</v>
       </c>
       <c r="C32" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.06707317073170729</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>11.7975</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>459</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1374,25 +1374,25 @@
         <v>364322</v>
       </c>
       <c r="C33" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>840</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.06547619047619049</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>785</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1403,25 +1403,25 @@
         <v>364322</v>
       </c>
       <c r="C34" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>840</v>
+        <v>438</v>
       </c>
       <c r="F34">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="G34">
-        <v>0.06785714285714289</v>
+        <v>0.255707762557078</v>
       </c>
       <c r="H34">
-        <v>4.674</v>
+        <v>40.04</v>
       </c>
       <c r="I34">
-        <v>783</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>364322</v>
       </c>
       <c r="C35" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35">
-        <v>438</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.235159817351598</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>37.1225</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>335</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1461,25 +1461,25 @@
         <v>364322</v>
       </c>
       <c r="C36" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>840</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>15.99</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1490,25 +1490,25 @@
         <v>364322</v>
       </c>
       <c r="C37" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>840</v>
+        <v>534</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.08052434456928841</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>15.3725</v>
       </c>
       <c r="I37">
-        <v>840</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1519,25 +1519,25 @@
         <v>364322</v>
       </c>
       <c r="C38" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>582</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.132302405498282</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>27.5275</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>505</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1548,25 +1548,25 @@
         <v>364322</v>
       </c>
       <c r="C39" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>1200</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>364322</v>
       </c>
       <c r="C40" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>1200</v>
+        <v>552</v>
       </c>
       <c r="F40">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="G40">
-        <v>0.133333333333333</v>
+        <v>0.0307971014492754</v>
       </c>
       <c r="H40">
-        <v>13.12</v>
+        <v>6.0775</v>
       </c>
       <c r="I40">
-        <v>1040</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1606,25 +1606,25 @@
         <v>364322</v>
       </c>
       <c r="C41" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41">
-        <v>558</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.025089605734767</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>5.005</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>544</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1635,54 +1635,54 @@
         <v>364322</v>
       </c>
       <c r="C42" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>1320</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G42">
-        <v>0.25</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H42">
-        <v>2.97</v>
+        <v>1.804</v>
       </c>
       <c r="I42">
-        <v>9</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>364322</v>
+        <v>357993</v>
       </c>
       <c r="C43" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>1200</v>
+        <v>1008</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.08531746031746031</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>30.925</v>
       </c>
       <c r="I43">
-        <v>1200</v>
+        <v>922</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1693,25 +1693,25 @@
         <v>357993</v>
       </c>
       <c r="C44" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>1032</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.124031007751938</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>45.76</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>904</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1722,25 +1722,25 @@
         <v>357993</v>
       </c>
       <c r="C45" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>960</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1751,25 +1751,25 @@
         <v>357993</v>
       </c>
       <c r="C46" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>960</v>
+        <v>510</v>
       </c>
       <c r="F46">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G46">
-        <v>0.0677083333333333</v>
+        <v>0.0549019607843137</v>
       </c>
       <c r="H46">
-        <v>5.33</v>
+        <v>10.01</v>
       </c>
       <c r="I46">
-        <v>895</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1780,25 +1780,25 @@
         <v>357993</v>
       </c>
       <c r="C47" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47">
-        <v>588</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.326530612244898</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>69.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>396</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1809,25 +1809,25 @@
         <v>357993</v>
       </c>
       <c r="C48" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>0.5</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H48">
-        <v>5.94</v>
+        <v>2.46</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>810</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1838,25 +1838,25 @@
         <v>357993</v>
       </c>
       <c r="C49" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>840</v>
+        <v>534</v>
       </c>
       <c r="F49">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>0.261904761904762</v>
+        <v>0.0374531835205993</v>
       </c>
       <c r="H49">
-        <v>18.04</v>
+        <v>7.15</v>
       </c>
       <c r="I49">
-        <v>620</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1867,25 +1867,25 @@
         <v>357993</v>
       </c>
       <c r="C50" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>588</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.108843537414966</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>23.12</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>524</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1896,25 +1896,25 @@
         <v>357993</v>
       </c>
       <c r="C51" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1925,25 +1925,25 @@
         <v>357993</v>
       </c>
       <c r="C52" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>840</v>
+        <v>570</v>
       </c>
       <c r="F52">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G52">
-        <v>0.428571428571429</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H52">
-        <v>29.52</v>
+        <v>21.45</v>
       </c>
       <c r="I52">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1954,25 +1954,25 @@
         <v>357993</v>
       </c>
       <c r="C53" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>618</v>
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>0.182847896440129</v>
+        <v>0.25</v>
       </c>
       <c r="H53">
-        <v>40.5175</v>
+        <v>2.97</v>
       </c>
       <c r="I53">
-        <v>505</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1983,25 +1983,25 @@
         <v>357993</v>
       </c>
       <c r="C54" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>7</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2012,25 +2012,25 @@
         <v>357993</v>
       </c>
       <c r="C55" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>840</v>
+        <v>606</v>
       </c>
       <c r="F55">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G55">
-        <v>0.214285714285714</v>
+        <v>0.0940594059405941</v>
       </c>
       <c r="H55">
-        <v>14.76</v>
+        <v>20.3775</v>
       </c>
       <c r="I55">
-        <v>660</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2041,25 +2041,25 @@
         <v>357993</v>
       </c>
       <c r="C56" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>642</v>
+        <v>18</v>
       </c>
       <c r="F56">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>0.161993769470405</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H56">
-        <v>37.18</v>
+        <v>9.9</v>
       </c>
       <c r="I56">
-        <v>538</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2070,25 +2070,25 @@
         <v>357993</v>
       </c>
       <c r="C57" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>840</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.277777777777778</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>13</v>
+        <v>840</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2099,25 +2099,25 @@
         <v>357993</v>
       </c>
       <c r="C58" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>840</v>
+        <v>726</v>
       </c>
       <c r="F58">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G58">
-        <v>0.0833333333333333</v>
+        <v>0.119834710743802</v>
       </c>
       <c r="H58">
-        <v>5.74</v>
+        <v>31.7025</v>
       </c>
       <c r="I58">
-        <v>770</v>
+        <v>639</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2128,25 +2128,25 @@
         <v>357993</v>
       </c>
       <c r="C59" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E59">
-        <v>786</v>
+        <v>18</v>
       </c>
       <c r="F59">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>0.185750636132316</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H59">
-        <v>52.495</v>
+        <v>1.98</v>
       </c>
       <c r="I59">
-        <v>640</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2157,25 +2157,25 @@
         <v>357993</v>
       </c>
       <c r="C60" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>1200</v>
       </c>
       <c r="F60">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G60">
-        <v>0.611111111111111</v>
+        <v>0.0391666666666667</v>
       </c>
       <c r="H60">
-        <v>10.89</v>
+        <v>3.854</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2186,25 +2186,25 @@
         <v>357993</v>
       </c>
       <c r="C61" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>960</v>
+        <v>786</v>
       </c>
       <c r="F61">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="G61">
-        <v>0.0260416666666667</v>
+        <v>0.132315521628499</v>
       </c>
       <c r="H61">
-        <v>2.05</v>
+        <v>37.18</v>
       </c>
       <c r="I61">
-        <v>935</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2215,25 +2215,25 @@
         <v>357993</v>
       </c>
       <c r="C62" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>798</v>
+        <v>18</v>
       </c>
       <c r="F62">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.0363408521303258</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>10.3675</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>769</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2244,13 +2244,13 @@
         <v>357993</v>
       </c>
       <c r="C63" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>18</v>
+        <v>1200</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2262,36 +2262,36 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>18</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64">
-        <v>357993</v>
+        <v>359042</v>
       </c>
       <c r="C64" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>1200</v>
+        <v>558</v>
       </c>
       <c r="F64">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G64">
-        <v>0.0275</v>
+        <v>0.021505376344086</v>
       </c>
       <c r="H64">
-        <v>2.706</v>
+        <v>4.29</v>
       </c>
       <c r="I64">
-        <v>1167</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2302,25 +2302,25 @@
         <v>359042</v>
       </c>
       <c r="C65" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F65">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>0.152329749103943</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H65">
-        <v>30.6875</v>
+        <v>4.95</v>
       </c>
       <c r="I65">
-        <v>473</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2331,25 +2331,25 @@
         <v>359042</v>
       </c>
       <c r="C66" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>960</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.444444444444444</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>960</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2360,25 +2360,25 @@
         <v>359042</v>
       </c>
       <c r="C67" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>960</v>
+        <v>414</v>
       </c>
       <c r="F67">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="G67">
-        <v>0.202083333333333</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H67">
-        <v>15.908</v>
+        <v>32.89</v>
       </c>
       <c r="I67">
-        <v>766</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2389,25 +2389,25 @@
         <v>359042</v>
       </c>
       <c r="C68" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="F68">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>0.317351598173516</v>
+        <v>0.5</v>
       </c>
       <c r="H68">
-        <v>50.2325</v>
+        <v>5.94</v>
       </c>
       <c r="I68">
-        <v>299</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2418,25 +2418,25 @@
         <v>359042</v>
       </c>
       <c r="C69" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="G69">
-        <v>0.666666666666667</v>
+        <v>0.339583333333333</v>
       </c>
       <c r="H69">
-        <v>7.92</v>
+        <v>26.732</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2447,25 +2447,25 @@
         <v>359042</v>
       </c>
       <c r="C70" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>960</v>
+        <v>432</v>
       </c>
       <c r="F70">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="G70">
-        <v>0.370833333333333</v>
+        <v>0.261574074074074</v>
       </c>
       <c r="H70">
-        <v>29.192</v>
+        <v>41.2375</v>
       </c>
       <c r="I70">
-        <v>604</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2476,25 +2476,25 @@
         <v>359042</v>
       </c>
       <c r="C71" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E71">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="F71">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="G71">
-        <v>0.123287671232877</v>
+        <v>0.25</v>
       </c>
       <c r="H71">
-        <v>19.905</v>
+        <v>2.97</v>
       </c>
       <c r="I71">
-        <v>384</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2505,25 +2505,25 @@
         <v>359042</v>
       </c>
       <c r="C72" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="G72">
-        <v>0.166666666666667</v>
+        <v>0.241666666666667</v>
       </c>
       <c r="H72">
-        <v>1.98</v>
+        <v>19.024</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>728</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2534,25 +2534,25 @@
         <v>359042</v>
       </c>
       <c r="C73" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>960</v>
+        <v>450</v>
       </c>
       <c r="F73">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G73">
-        <v>0.0552083333333333</v>
+        <v>0.0977777777777778</v>
       </c>
       <c r="H73">
-        <v>4.346</v>
+        <v>16.15</v>
       </c>
       <c r="I73">
-        <v>907</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2563,25 +2563,25 @@
         <v>359042</v>
       </c>
       <c r="C74" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>468</v>
+        <v>18</v>
       </c>
       <c r="F74">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G74">
-        <v>0.117521367521368</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H74">
-        <v>20.1425</v>
+        <v>7.92</v>
       </c>
       <c r="I74">
-        <v>413</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2592,25 +2592,25 @@
         <v>359042</v>
       </c>
       <c r="C75" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>18</v>
+        <v>840</v>
       </c>
       <c r="F75">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="G75">
-        <v>0.722222222222222</v>
+        <v>0.21547619047619</v>
       </c>
       <c r="H75">
-        <v>12.87</v>
+        <v>14.842</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2621,25 +2621,25 @@
         <v>359042</v>
       </c>
       <c r="C76" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E76">
-        <v>840</v>
+        <v>450</v>
       </c>
       <c r="F76">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="G76">
-        <v>0.229761904761905</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H76">
-        <v>15.826</v>
+        <v>54.225</v>
       </c>
       <c r="I76">
-        <v>647</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2650,25 +2650,25 @@
         <v>359042</v>
       </c>
       <c r="C77" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>492</v>
+        <v>18</v>
       </c>
       <c r="F77">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="G77">
-        <v>0.270325203252033</v>
+        <v>0.5</v>
       </c>
       <c r="H77">
-        <v>47.5475</v>
+        <v>8.91</v>
       </c>
       <c r="I77">
-        <v>359</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2679,25 +2679,25 @@
         <v>359042</v>
       </c>
       <c r="C78" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="G78">
-        <v>0.0833333333333333</v>
+        <v>0.270238095238095</v>
       </c>
       <c r="H78">
-        <v>0.99</v>
+        <v>18.614</v>
       </c>
       <c r="I78">
-        <v>11</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2708,25 +2708,25 @@
         <v>359042</v>
       </c>
       <c r="C79" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="F79">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="G79">
-        <v>0.0766666666666667</v>
+        <v>0.218553459119497</v>
       </c>
       <c r="H79">
-        <v>3.772</v>
+        <v>50.3525</v>
       </c>
       <c r="I79">
-        <v>554</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2737,25 +2737,25 @@
         <v>359042</v>
       </c>
       <c r="C80" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E80">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I80">
-        <v>558</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2766,25 +2766,25 @@
         <v>359042</v>
       </c>
       <c r="C81" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>18</v>
+        <v>840</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G81">
-        <v>0.166666666666667</v>
+        <v>0.151190476190476</v>
       </c>
       <c r="H81">
-        <v>2.97</v>
+        <v>10.414</v>
       </c>
       <c r="I81">
-        <v>15</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2795,25 +2795,25 @@
         <v>359042</v>
       </c>
       <c r="C82" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>960</v>
+        <v>558</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="G82">
-        <v>0.00416666666666667</v>
+        <v>0.288530465949821</v>
       </c>
       <c r="H82">
-        <v>0.328</v>
+        <v>58.5775</v>
       </c>
       <c r="I82">
-        <v>956</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2824,25 +2824,25 @@
         <v>359042</v>
       </c>
       <c r="C83" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F83">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="G83">
-        <v>0.209677419354839</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H83">
-        <v>42.5475</v>
+        <v>6.93</v>
       </c>
       <c r="I83">
-        <v>441</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2853,54 +2853,54 @@
         <v>359042</v>
       </c>
       <c r="C84" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>960</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G84">
-        <v>0.0555555555555556</v>
+        <v>0.04375</v>
       </c>
       <c r="H84">
-        <v>0.99</v>
+        <v>3.444</v>
       </c>
       <c r="I84">
-        <v>17</v>
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>359042</v>
+        <v>363271</v>
       </c>
       <c r="C85" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E85">
-        <v>960</v>
+        <v>594</v>
       </c>
       <c r="F85">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G85">
-        <v>0.139583333333333</v>
+        <v>0.215488215488215</v>
       </c>
       <c r="H85">
-        <v>10.988</v>
+        <v>46</v>
       </c>
       <c r="I85">
-        <v>826</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2911,25 +2911,25 @@
         <v>363271</v>
       </c>
       <c r="C86" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>624</v>
+        <v>12</v>
       </c>
       <c r="F86">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0.149038461538462</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H86">
-        <v>33.2475</v>
+        <v>0.99</v>
       </c>
       <c r="I86">
-        <v>531</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2940,25 +2940,25 @@
         <v>363271</v>
       </c>
       <c r="C87" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.270833333333333</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="I87">
-        <v>12</v>
+        <v>700</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2969,25 +2969,25 @@
         <v>363271</v>
       </c>
       <c r="C88" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E88">
-        <v>840</v>
+        <v>396</v>
       </c>
       <c r="F88">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="G88">
-        <v>0.125</v>
+        <v>0.174242424242424</v>
       </c>
       <c r="H88">
-        <v>8.609999999999999</v>
+        <v>24.6675</v>
       </c>
       <c r="I88">
-        <v>735</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2998,25 +2998,25 @@
         <v>363271</v>
       </c>
       <c r="C89" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E89">
-        <v>402</v>
+        <v>12</v>
       </c>
       <c r="F89">
-        <v>226</v>
+        <v>4</v>
       </c>
       <c r="G89">
-        <v>0.562189054726368</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H89">
-        <v>81.27500000000001</v>
+        <v>3.96</v>
       </c>
       <c r="I89">
-        <v>176</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3027,25 +3027,25 @@
         <v>363271</v>
       </c>
       <c r="C90" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.0902777777777778</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3056,25 +3056,25 @@
         <v>363271</v>
       </c>
       <c r="C91" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>720</v>
+        <v>426</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.115023474178404</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>17.5175</v>
       </c>
       <c r="I91">
-        <v>720</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3085,25 +3085,25 @@
         <v>363271</v>
       </c>
       <c r="C92" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>444</v>
+        <v>12</v>
       </c>
       <c r="F92">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.195945945945946</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>31.1025</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>357</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3114,25 +3114,25 @@
         <v>363271</v>
       </c>
       <c r="C93" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>540</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G93">
-        <v>0.0833333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H93">
-        <v>0.99</v>
+        <v>7.38</v>
       </c>
       <c r="I93">
-        <v>11</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3143,25 +3143,25 @@
         <v>363271</v>
       </c>
       <c r="C94" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E94">
-        <v>720</v>
+        <v>438</v>
       </c>
       <c r="F94">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0.413888888888889</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>24.436</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3172,25 +3172,25 @@
         <v>363271</v>
       </c>
       <c r="C95" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>441</v>
+        <v>12</v>
       </c>
       <c r="F95">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.195011337868481</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>30.745</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>355</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3201,25 +3201,25 @@
         <v>363271</v>
       </c>
       <c r="C96" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>6</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3230,25 +3230,25 @@
         <v>363271</v>
       </c>
       <c r="C97" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E97">
-        <v>840</v>
+        <v>492</v>
       </c>
       <c r="F97">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="G97">
-        <v>0.0892857142857143</v>
+        <v>0.42479674796748</v>
       </c>
       <c r="H97">
-        <v>6.15</v>
+        <v>74.7175</v>
       </c>
       <c r="I97">
-        <v>765</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3259,25 +3259,25 @@
         <v>363271</v>
       </c>
       <c r="C98" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E98">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="F98">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="G98">
-        <v>0.254166666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H98">
-        <v>43.615</v>
+        <v>3.96</v>
       </c>
       <c r="I98">
-        <v>358</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3288,25 +3288,25 @@
         <v>363271</v>
       </c>
       <c r="C99" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E99">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="G99">
-        <v>0.5</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="H99">
-        <v>5.94</v>
+        <v>25.42</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3317,25 +3317,25 @@
         <v>363271</v>
       </c>
       <c r="C100" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E100">
-        <v>840</v>
+        <v>534</v>
       </c>
       <c r="F100">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="G100">
-        <v>0.148809523809524</v>
+        <v>0.295880149812734</v>
       </c>
       <c r="H100">
-        <v>10.25</v>
+        <v>56.485</v>
       </c>
       <c r="I100">
-        <v>715</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3346,25 +3346,25 @@
         <v>363271</v>
       </c>
       <c r="C101" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E101">
-        <v>534</v>
+        <v>12</v>
       </c>
       <c r="F101">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="G101">
-        <v>0.279026217228464</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H101">
-        <v>53.7475</v>
+        <v>6.93</v>
       </c>
       <c r="I101">
-        <v>385</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3375,25 +3375,25 @@
         <v>363271</v>
       </c>
       <c r="C102" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="G102">
-        <v>0.333333333333333</v>
+        <v>0.227777777777778</v>
       </c>
       <c r="H102">
-        <v>3.96</v>
+        <v>16.81</v>
       </c>
       <c r="I102">
-        <v>8</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3404,25 +3404,25 @@
         <v>363271</v>
       </c>
       <c r="C103" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E103">
-        <v>840</v>
+        <v>522</v>
       </c>
       <c r="F103">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.279761904761905</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>19.27</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>605</v>
+        <v>522</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3433,25 +3433,25 @@
         <v>363271</v>
       </c>
       <c r="C104" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E104">
-        <v>582</v>
+        <v>12</v>
       </c>
       <c r="F104">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>0.247422680412371</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>52.32</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3462,54 +3462,54 @@
         <v>363271</v>
       </c>
       <c r="C105" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E105">
-        <v>24</v>
+        <v>960</v>
       </c>
       <c r="F105">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>13.86</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>10</v>
+        <v>960</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B106">
-        <v>363271</v>
+        <v>343939</v>
       </c>
       <c r="C106" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E106">
-        <v>720</v>
+        <v>408</v>
       </c>
       <c r="F106">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="G106">
-        <v>0.152777777777778</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="H106">
-        <v>9.02</v>
+        <v>9.6525</v>
       </c>
       <c r="I106">
-        <v>610</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3520,25 +3520,25 @@
         <v>343939</v>
       </c>
       <c r="C107" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="F107">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>0.368888888888889</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>59.345</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>284</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3549,25 +3549,25 @@
         <v>343939</v>
       </c>
       <c r="C108" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E108">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G108">
-        <v>0.25</v>
+        <v>0.0791666666666667</v>
       </c>
       <c r="H108">
-        <v>2.97</v>
+        <v>4.674</v>
       </c>
       <c r="I108">
-        <v>9</v>
+        <v>663</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3578,25 +3578,25 @@
         <v>343939</v>
       </c>
       <c r="C109" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E109">
-        <v>840</v>
+        <v>336</v>
       </c>
       <c r="F109">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="G109">
-        <v>0.0845238095238095</v>
+        <v>0.529761904761905</v>
       </c>
       <c r="H109">
-        <v>5.822</v>
+        <v>63.635</v>
       </c>
       <c r="I109">
-        <v>769</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3607,25 +3607,25 @@
         <v>343939</v>
       </c>
       <c r="C110" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E110">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="F110">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G110">
-        <v>0.28448275862069</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H110">
-        <v>35.3925</v>
+        <v>9.9</v>
       </c>
       <c r="I110">
-        <v>249</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3636,25 +3636,25 @@
         <v>343939</v>
       </c>
       <c r="C111" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E111">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="G111">
-        <v>0.416666666666667</v>
+        <v>0.29</v>
       </c>
       <c r="H111">
-        <v>4.95</v>
+        <v>14.268</v>
       </c>
       <c r="I111">
-        <v>7</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3665,25 +3665,25 @@
         <v>343939</v>
       </c>
       <c r="C112" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E112">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="F112">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G112">
-        <v>0.126666666666667</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H112">
-        <v>6.232</v>
+        <v>17.16</v>
       </c>
       <c r="I112">
-        <v>524</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3694,25 +3694,25 @@
         <v>343939</v>
       </c>
       <c r="C113" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E113">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="F113">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="G113">
-        <v>0.322916666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H113">
-        <v>44.33</v>
+        <v>2.97</v>
       </c>
       <c r="I113">
-        <v>260</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3723,25 +3723,25 @@
         <v>343939</v>
       </c>
       <c r="C114" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>660</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>324</v>
       </c>
       <c r="G114">
-        <v>0.583333333333333</v>
+        <v>0.490909090909091</v>
       </c>
       <c r="H114">
-        <v>6.93</v>
+        <v>26.568</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3752,25 +3752,25 @@
         <v>343939</v>
       </c>
       <c r="C115" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E115">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="F115">
-        <v>489</v>
+        <v>197</v>
       </c>
       <c r="G115">
-        <v>0.582142857142857</v>
+        <v>0.469047619047619</v>
       </c>
       <c r="H115">
-        <v>40.098</v>
+        <v>70.42749999999999</v>
       </c>
       <c r="I115">
-        <v>351</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3781,25 +3781,25 @@
         <v>343939</v>
       </c>
       <c r="C116" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E116">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="F116">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>0.188095238095238</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H116">
-        <v>28.2425</v>
+        <v>1.98</v>
       </c>
       <c r="I116">
-        <v>341</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3810,25 +3810,25 @@
         <v>343939</v>
       </c>
       <c r="C117" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E117">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="F117">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="G117">
-        <v>0.666666666666667</v>
+        <v>0.172222222222222</v>
       </c>
       <c r="H117">
-        <v>7.92</v>
+        <v>10.168</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3839,25 +3839,25 @@
         <v>343939</v>
       </c>
       <c r="C118" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E118">
-        <v>840</v>
+        <v>396</v>
       </c>
       <c r="F118">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="G118">
-        <v>0.363095238095238</v>
+        <v>0.502525252525252</v>
       </c>
       <c r="H118">
-        <v>25.01</v>
+        <v>71.1425</v>
       </c>
       <c r="I118">
-        <v>535</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3868,25 +3868,25 @@
         <v>343939</v>
       </c>
       <c r="C119" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E119">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="F119">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="G119">
-        <v>0.227053140096618</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H119">
-        <v>33.605</v>
+        <v>7.92</v>
       </c>
       <c r="I119">
-        <v>320</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3897,25 +3897,25 @@
         <v>343939</v>
       </c>
       <c r="C120" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E120">
-        <v>12</v>
+        <v>780</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="G120">
-        <v>0.416666666666667</v>
+        <v>0.194871794871795</v>
       </c>
       <c r="H120">
-        <v>4.95</v>
+        <v>12.464</v>
       </c>
       <c r="I120">
-        <v>7</v>
+        <v>628</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3926,25 +3926,25 @@
         <v>343939</v>
       </c>
       <c r="C121" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>840</v>
+        <v>444</v>
       </c>
       <c r="F121">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="G121">
-        <v>0.167857142857143</v>
+        <v>0.207207207207207</v>
       </c>
       <c r="H121">
-        <v>11.562</v>
+        <v>32.89</v>
       </c>
       <c r="I121">
-        <v>699</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3955,25 +3955,25 @@
         <v>343939</v>
       </c>
       <c r="C122" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E122">
-        <v>498</v>
+        <v>12</v>
       </c>
       <c r="F122">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="G122">
-        <v>0.3714859437751</v>
+        <v>0.75</v>
       </c>
       <c r="H122">
-        <v>66.1375</v>
+        <v>8.91</v>
       </c>
       <c r="I122">
-        <v>313</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3984,25 +3984,25 @@
         <v>343939</v>
       </c>
       <c r="C123" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>780</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G123">
-        <v>0.833333333333333</v>
+        <v>0.193589743589744</v>
       </c>
       <c r="H123">
-        <v>9.9</v>
+        <v>12.382</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4013,25 +4013,25 @@
         <v>343939</v>
       </c>
       <c r="C124" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E124">
-        <v>840</v>
+        <v>372</v>
       </c>
       <c r="F124">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G124">
-        <v>0.0154761904761905</v>
+        <v>0.239247311827957</v>
       </c>
       <c r="H124">
-        <v>1.066</v>
+        <v>31.8175</v>
       </c>
       <c r="I124">
-        <v>827</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4042,25 +4042,25 @@
         <v>343939</v>
       </c>
       <c r="C125" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E125">
-        <v>498</v>
+        <v>12</v>
       </c>
       <c r="F125">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="G125">
-        <v>0.323293172690763</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H125">
-        <v>57.5575</v>
+        <v>7.92</v>
       </c>
       <c r="I125">
-        <v>337</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4071,54 +4071,54 @@
         <v>343939</v>
       </c>
       <c r="C126" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="F126">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="G126">
-        <v>0.333333333333333</v>
+        <v>0.207777777777778</v>
       </c>
       <c r="H126">
-        <v>3.96</v>
+        <v>15.334</v>
       </c>
       <c r="I126">
-        <v>8</v>
+        <v>713</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B127">
-        <v>343939</v>
+        <v>301290</v>
       </c>
       <c r="C127" s="2">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E127">
-        <v>1020</v>
+        <v>708</v>
       </c>
       <c r="F127">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G127">
-        <v>0.0549019607843137</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H127">
-        <v>4.592</v>
+        <v>21.5125</v>
       </c>
       <c r="I127">
-        <v>964</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4129,25 +4129,25 @@
         <v>301290</v>
       </c>
       <c r="C128" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E128">
-        <v>762</v>
+        <v>12</v>
       </c>
       <c r="F128">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="G128">
-        <v>0.282152230971129</v>
+        <v>0.25</v>
       </c>
       <c r="H128">
-        <v>77.46250000000001</v>
+        <v>2.97</v>
       </c>
       <c r="I128">
-        <v>547</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4158,13 +4158,13 @@
         <v>301290</v>
       </c>
       <c r="C129" s="2">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E129">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>12</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4187,25 +4187,25 @@
         <v>301290</v>
       </c>
       <c r="C130" s="2">
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E130">
-        <v>360</v>
+        <v>546</v>
       </c>
       <c r="F130">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="G130">
-        <v>0.219444444444444</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="H130">
-        <v>6.478</v>
+        <v>51.3025</v>
       </c>
       <c r="I130">
-        <v>281</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4216,25 +4216,25 @@
         <v>301290</v>
       </c>
       <c r="C131" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E131">
-        <v>576</v>
+        <v>18</v>
       </c>
       <c r="F131">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G131">
-        <v>0.25</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="H131">
-        <v>51.72</v>
+        <v>10.89</v>
       </c>
       <c r="I131">
-        <v>432</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4245,25 +4245,25 @@
         <v>301290</v>
       </c>
       <c r="C132" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E132">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="F132">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="G132">
-        <v>0.333333333333333</v>
+        <v>0.454166666666667</v>
       </c>
       <c r="H132">
-        <v>5.94</v>
+        <v>17.876</v>
       </c>
       <c r="I132">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4274,25 +4274,25 @@
         <v>301290</v>
       </c>
       <c r="C133" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E133">
-        <v>360</v>
+        <v>648</v>
       </c>
       <c r="F133">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G133">
-        <v>0.283333333333333</v>
+        <v>0.126543209876543</v>
       </c>
       <c r="H133">
-        <v>8.364000000000001</v>
+        <v>29.615</v>
       </c>
       <c r="I133">
-        <v>258</v>
+        <v>566</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4303,25 +4303,25 @@
         <v>301290</v>
       </c>
       <c r="C134" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E134">
-        <v>606</v>
+        <v>18</v>
       </c>
       <c r="F134">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>0.112211221122112</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>538</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4332,25 +4332,25 @@
         <v>301290</v>
       </c>
       <c r="C135" s="2">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E135">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4361,25 +4361,25 @@
         <v>301290</v>
       </c>
       <c r="C136" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E136">
-        <v>360</v>
+        <v>618</v>
       </c>
       <c r="F136">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="G136">
-        <v>0.408333333333333</v>
+        <v>0.273462783171521</v>
       </c>
       <c r="H136">
-        <v>12.054</v>
+        <v>60.7175</v>
       </c>
       <c r="I136">
-        <v>213</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4390,25 +4390,25 @@
         <v>301290</v>
       </c>
       <c r="C137" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E137">
-        <v>702</v>
+        <v>18</v>
       </c>
       <c r="F137">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="G137">
-        <v>0.313390313390313</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H137">
-        <v>79.67</v>
+        <v>3.96</v>
       </c>
       <c r="I137">
-        <v>482</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4419,25 +4419,25 @@
         <v>301290</v>
       </c>
       <c r="C138" s="2">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E138">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="G138">
-        <v>0.0555555555555556</v>
+        <v>0.319047619047619</v>
       </c>
       <c r="H138">
-        <v>0.99</v>
+        <v>10.988</v>
       </c>
       <c r="I138">
-        <v>17</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4448,25 +4448,25 @@
         <v>301290</v>
       </c>
       <c r="C139" s="2">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E139">
-        <v>360</v>
+        <v>744</v>
       </c>
       <c r="F139">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G139">
-        <v>0.0972222222222222</v>
+        <v>0.0510752688172043</v>
       </c>
       <c r="H139">
-        <v>2.87</v>
+        <v>13.585</v>
       </c>
       <c r="I139">
-        <v>325</v>
+        <v>706</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4477,25 +4477,25 @@
         <v>301290</v>
       </c>
       <c r="C140" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E140">
-        <v>756</v>
+        <v>18</v>
       </c>
       <c r="F140">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>0.288359788359788</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>77.935</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>538</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4506,25 +4506,25 @@
         <v>301290</v>
       </c>
       <c r="C141" s="2">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E141">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="G141">
-        <v>0.222222222222222</v>
+        <v>0.278571428571429</v>
       </c>
       <c r="H141">
-        <v>3.96</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="I141">
-        <v>14</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4535,25 +4535,25 @@
         <v>301290</v>
       </c>
       <c r="C142" s="2">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E142">
-        <v>360</v>
+        <v>762</v>
       </c>
       <c r="F142">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="G142">
-        <v>0.208333333333333</v>
+        <v>0.194225721784777</v>
       </c>
       <c r="H142">
-        <v>6.15</v>
+        <v>53.09</v>
       </c>
       <c r="I142">
-        <v>285</v>
+        <v>614</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4564,25 +4564,25 @@
         <v>301290</v>
       </c>
       <c r="C143" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E143">
-        <v>798</v>
+        <v>18</v>
       </c>
       <c r="F143">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="G143">
-        <v>0.3734335839599</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H143">
-        <v>107.855</v>
+        <v>1.98</v>
       </c>
       <c r="I143">
-        <v>500</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4593,25 +4593,25 @@
         <v>301290</v>
       </c>
       <c r="C144" s="2">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E144">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2.952</v>
       </c>
       <c r="I144">
-        <v>18</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4622,25 +4622,25 @@
         <v>301290</v>
       </c>
       <c r="C145" s="2">
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E145">
-        <v>360</v>
+        <v>798</v>
       </c>
       <c r="F145">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="G145">
-        <v>0.108333333333333</v>
+        <v>0.18922305764411</v>
       </c>
       <c r="H145">
-        <v>3.198</v>
+        <v>54.8225</v>
       </c>
       <c r="I145">
-        <v>321</v>
+        <v>647</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4651,25 +4651,25 @@
         <v>301290</v>
       </c>
       <c r="C146" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E146">
-        <v>774</v>
+        <v>18</v>
       </c>
       <c r="F146">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>46.4775</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>645</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4680,54 +4680,25 @@
         <v>301290</v>
       </c>
       <c r="C147" s="2">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E147">
-        <v>18</v>
+        <v>540</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>6.642</v>
       </c>
       <c r="I147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148">
-        <v>301290</v>
-      </c>
-      <c r="C148" s="2">
-        <v>45822</v>
-      </c>
-      <c r="D148" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148">
-        <v>540</v>
-      </c>
-      <c r="F148">
-        <v>186</v>
-      </c>
-      <c r="G148">
-        <v>0.344444444444444</v>
-      </c>
-      <c r="H148">
-        <v>15.252</v>
-      </c>
-      <c r="I148">
-        <v>354</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/supplyit/UsageOverview_Formatted.xlsx
+++ b/data/raw/supplyit/UsageOverview_Formatted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="19">
   <si>
     <t>Location</t>
   </si>
@@ -432,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,25 +475,25 @@
         <v>358529</v>
       </c>
       <c r="C2" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.18452380952381</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>44.63</v>
       </c>
       <c r="I2">
-        <v>684</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -504,7 +504,7 @@
         <v>358529</v>
       </c>
       <c r="C3" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -513,16 +513,16 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>0.222222222222222</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H3">
-        <v>3.96</v>
+        <v>5.94</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -533,7 +533,7 @@
         <v>358529</v>
       </c>
       <c r="C4" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -542,16 +542,16 @@
         <v>1320</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0575757575757576</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.232</v>
       </c>
       <c r="I4">
-        <v>1320</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -562,25 +562,25 @@
         <v>358529</v>
       </c>
       <c r="C5" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>33.075</v>
       </c>
       <c r="I5">
-        <v>486</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -591,7 +591,7 @@
         <v>358529</v>
       </c>
       <c r="C6" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -600,16 +600,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -620,7 +620,7 @@
         <v>358529</v>
       </c>
       <c r="C7" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -629,16 +629,16 @@
         <v>840</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.104761904761905</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.216</v>
       </c>
       <c r="I7">
-        <v>840</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -649,25 +649,25 @@
         <v>358529</v>
       </c>
       <c r="C8" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>0.0555555555555556</v>
+        <v>0.12962962962963</v>
       </c>
       <c r="H8">
-        <v>9.295</v>
+        <v>20.26</v>
       </c>
       <c r="I8">
-        <v>442</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -678,7 +678,7 @@
         <v>358529</v>
       </c>
       <c r="C9" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -687,16 +687,16 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -707,7 +707,7 @@
         <v>358529</v>
       </c>
       <c r="C10" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -716,16 +716,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G10">
-        <v>0.123809523809524</v>
+        <v>0.102380952380952</v>
       </c>
       <c r="H10">
-        <v>8.528</v>
+        <v>7.052</v>
       </c>
       <c r="I10">
-        <v>736</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -736,25 +736,25 @@
         <v>358529</v>
       </c>
       <c r="C11" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.104417670682731</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>19.07</v>
       </c>
       <c r="I11">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -765,25 +765,25 @@
         <v>358529</v>
       </c>
       <c r="C12" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="I12">
-        <v>840</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -794,13 +794,13 @@
         <v>358529</v>
       </c>
       <c r="C13" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>570</v>
+        <v>840</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>570</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -823,25 +823,25 @@
         <v>358529</v>
       </c>
       <c r="C14" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0700757575757576</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.8275</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -852,25 +852,25 @@
         <v>358529</v>
       </c>
       <c r="C15" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>840</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="I15">
-        <v>840</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -881,25 +881,25 @@
         <v>358529</v>
       </c>
       <c r="C16" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="F16">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.107476635514019</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>25.6275</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>573</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -910,25 +910,25 @@
         <v>358529</v>
       </c>
       <c r="C17" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>594</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.00336700336700337</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.835</v>
       </c>
       <c r="I17">
-        <v>18</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -939,25 +939,25 @@
         <v>358529</v>
       </c>
       <c r="C18" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.250833333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H18">
-        <v>24.682</v>
+        <v>0.99</v>
       </c>
       <c r="I18">
-        <v>899</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -968,25 +968,25 @@
         <v>358529</v>
       </c>
       <c r="C19" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>684</v>
+        <v>1560</v>
       </c>
       <c r="F19">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.162280701754386</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>40.6425</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>573</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -997,25 +997,25 @@
         <v>358529</v>
       </c>
       <c r="C20" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>660</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="G20">
-        <v>0.444444444444444</v>
+        <v>0.118181818181818</v>
       </c>
       <c r="H20">
-        <v>7.92</v>
+        <v>28.605</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1026,54 +1026,54 @@
         <v>358529</v>
       </c>
       <c r="C21" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>1440</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.344444444444444</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>40.672</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>944</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C22" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>594</v>
+        <v>1800</v>
       </c>
       <c r="F22">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="G22">
-        <v>0.07239057239057239</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H22">
-        <v>15.3725</v>
+        <v>12.3</v>
       </c>
       <c r="I22">
-        <v>551</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1084,25 +1084,25 @@
         <v>364322</v>
       </c>
       <c r="C23" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.096078431372549</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>17.5175</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1113,25 +1113,25 @@
         <v>364322</v>
       </c>
       <c r="C24" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
-        <v>1440</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.984</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1428</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1142,25 +1142,25 @@
         <v>364322</v>
       </c>
       <c r="C25" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>474</v>
+        <v>1260</v>
       </c>
       <c r="F25">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="G25">
-        <v>0.248945147679325</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H25">
-        <v>42.185</v>
+        <v>17.22</v>
       </c>
       <c r="I25">
-        <v>356</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1171,25 +1171,25 @@
         <v>364322</v>
       </c>
       <c r="C26" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="G26">
-        <v>0.666666666666667</v>
+        <v>0.177248677248677</v>
       </c>
       <c r="H26">
-        <v>3.96</v>
+        <v>23.9525</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1200,25 +1200,25 @@
         <v>364322</v>
       </c>
       <c r="C27" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>840</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="I27">
-        <v>840</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1229,25 +1229,25 @@
         <v>364322</v>
       </c>
       <c r="C28" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>432</v>
+        <v>780</v>
       </c>
       <c r="F28">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="G28">
-        <v>0.159722222222222</v>
+        <v>0.262820512820513</v>
       </c>
       <c r="H28">
-        <v>24.6675</v>
+        <v>16.81</v>
       </c>
       <c r="I28">
-        <v>363</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>364322</v>
       </c>
       <c r="C29" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="G29">
-        <v>0.333333333333333</v>
+        <v>0.339662447257384</v>
       </c>
       <c r="H29">
-        <v>1.98</v>
+        <v>57.5575</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1287,25 +1287,25 @@
         <v>364322</v>
       </c>
       <c r="C30" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.094047619047619</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>6.478</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>761</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1316,25 +1316,25 @@
         <v>364322</v>
       </c>
       <c r="C31" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>474</v>
+        <v>840</v>
       </c>
       <c r="F31">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>0.149789029535865</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="H31">
-        <v>25.4425</v>
+        <v>3.28</v>
       </c>
       <c r="I31">
-        <v>403</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1345,25 +1345,25 @@
         <v>364322</v>
       </c>
       <c r="C32" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>468</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.273504273504274</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>45.76</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1374,25 +1374,25 @@
         <v>364322</v>
       </c>
       <c r="C33" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>840</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>0.06547619047619049</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H33">
-        <v>4.51</v>
+        <v>5.94</v>
       </c>
       <c r="I33">
-        <v>785</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1403,25 +1403,25 @@
         <v>364322</v>
       </c>
       <c r="C34" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E34">
-        <v>438</v>
+        <v>840</v>
       </c>
       <c r="F34">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="G34">
-        <v>0.255707762557078</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="H34">
-        <v>40.04</v>
+        <v>22.14</v>
       </c>
       <c r="I34">
-        <v>326</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>364322</v>
       </c>
       <c r="C35" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>450</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.188888888888889</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>30.6875</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1461,25 +1461,25 @@
         <v>364322</v>
       </c>
       <c r="C36" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>840</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.232142857142857</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>15.99</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1490,25 +1490,25 @@
         <v>364322</v>
       </c>
       <c r="C37" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E37">
-        <v>534</v>
+        <v>840</v>
       </c>
       <c r="F37">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.08052434456928841</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>15.3725</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>491</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1519,25 +1519,25 @@
         <v>364322</v>
       </c>
       <c r="C38" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>594</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0757575757575758</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>16.0875</v>
       </c>
       <c r="I38">
-        <v>6</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1548,13 +1548,13 @@
         <v>364322</v>
       </c>
       <c r="C39" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>1200</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>364322</v>
       </c>
       <c r="C40" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E40">
-        <v>552</v>
+        <v>1440</v>
       </c>
       <c r="F40">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.0307971014492754</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>6.0775</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>535</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1606,25 +1606,25 @@
         <v>364322</v>
       </c>
       <c r="C41" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>606</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>36.1075</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1635,54 +1635,54 @@
         <v>364322</v>
       </c>
       <c r="C42" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>1320</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1.804</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1298</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C43" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>1008</v>
+        <v>1440</v>
       </c>
       <c r="F43">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="G43">
-        <v>0.08531746031746031</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H43">
-        <v>30.925</v>
+        <v>9.84</v>
       </c>
       <c r="I43">
-        <v>922</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1693,25 +1693,25 @@
         <v>357993</v>
       </c>
       <c r="C44" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>666</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.159159159159159</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>38.075</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1722,25 +1722,25 @@
         <v>357993</v>
       </c>
       <c r="C45" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I45">
-        <v>960</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1751,25 +1751,25 @@
         <v>357993</v>
       </c>
       <c r="C46" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>510</v>
+        <v>1200</v>
       </c>
       <c r="F46">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G46">
-        <v>0.0549019607843137</v>
+        <v>0.226666666666667</v>
       </c>
       <c r="H46">
-        <v>10.01</v>
+        <v>22.304</v>
       </c>
       <c r="I46">
-        <v>482</v>
+        <v>928</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1780,25 +1780,25 @@
         <v>357993</v>
       </c>
       <c r="C47" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.0871212121212121</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>16.445</v>
       </c>
       <c r="I47">
-        <v>12</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1809,25 +1809,25 @@
         <v>357993</v>
       </c>
       <c r="C48" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.0357142857142857</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>810</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1838,25 +1838,25 @@
         <v>357993</v>
       </c>
       <c r="C49" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E49">
-        <v>534</v>
+        <v>840</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.0374531835205993</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>7.15</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>514</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1867,25 +1867,25 @@
         <v>357993</v>
       </c>
       <c r="C50" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>546</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.133699633699634</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>26.3375</v>
       </c>
       <c r="I50">
-        <v>12</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1896,25 +1896,25 @@
         <v>357993</v>
       </c>
       <c r="C51" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I51">
-        <v>840</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1925,25 +1925,25 @@
         <v>357993</v>
       </c>
       <c r="C52" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>570</v>
+        <v>840</v>
       </c>
       <c r="F52">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.105263157894737</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>21.45</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>510</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1954,25 +1954,25 @@
         <v>357993</v>
       </c>
       <c r="C53" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>576</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G53">
-        <v>0.25</v>
+        <v>0.0225694444444444</v>
       </c>
       <c r="H53">
-        <v>2.97</v>
+        <v>4.7075</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1983,13 +1983,13 @@
         <v>357993</v>
       </c>
       <c r="C54" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>600</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2012,25 +2012,25 @@
         <v>357993</v>
       </c>
       <c r="C55" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>606</v>
+        <v>840</v>
       </c>
       <c r="F55">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G55">
-        <v>0.0940594059405941</v>
+        <v>0.025</v>
       </c>
       <c r="H55">
-        <v>20.3775</v>
+        <v>1.722</v>
       </c>
       <c r="I55">
-        <v>549</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2041,25 +2041,25 @@
         <v>357993</v>
       </c>
       <c r="C56" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G56">
-        <v>0.555555555555556</v>
+        <v>0.0478723404255319</v>
       </c>
       <c r="H56">
-        <v>9.9</v>
+        <v>9.6525</v>
       </c>
       <c r="I56">
-        <v>8</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2070,13 +2070,13 @@
         <v>357993</v>
       </c>
       <c r="C57" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>840</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2099,25 +2099,25 @@
         <v>357993</v>
       </c>
       <c r="C58" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58">
-        <v>726</v>
+        <v>1200</v>
       </c>
       <c r="F58">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.119834710743802</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>31.7025</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>639</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2128,25 +2128,25 @@
         <v>357993</v>
       </c>
       <c r="C59" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>18</v>
+        <v>774</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="G59">
-        <v>0.111111111111111</v>
+        <v>0.116279069767442</v>
       </c>
       <c r="H59">
-        <v>1.98</v>
+        <v>32.515</v>
       </c>
       <c r="I59">
-        <v>16</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2157,25 +2157,25 @@
         <v>357993</v>
       </c>
       <c r="C60" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>1200</v>
+        <v>18</v>
       </c>
       <c r="F60">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.0391666666666667</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>3.854</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2186,25 +2186,25 @@
         <v>357993</v>
       </c>
       <c r="C61" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>786</v>
+        <v>1320</v>
       </c>
       <c r="F61">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0.132315521628499</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>37.18</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>682</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2215,25 +2215,25 @@
         <v>357993</v>
       </c>
       <c r="C62" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>792</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>11.7975</v>
       </c>
       <c r="I62">
-        <v>18</v>
+        <v>759</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2244,13 +2244,13 @@
         <v>357993</v>
       </c>
       <c r="C63" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63">
-        <v>1200</v>
+        <v>18</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2262,36 +2262,36 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1200</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>359042</v>
+        <v>357993</v>
       </c>
       <c r="C64" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E64">
-        <v>558</v>
+        <v>1320</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.021505376344086</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>4.29</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>546</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2302,25 +2302,25 @@
         <v>359042</v>
       </c>
       <c r="C65" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="G65">
-        <v>0.277777777777778</v>
+        <v>0.271276595744681</v>
       </c>
       <c r="H65">
-        <v>4.95</v>
+        <v>55.7775</v>
       </c>
       <c r="I65">
-        <v>13</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2331,25 +2331,25 @@
         <v>359042</v>
       </c>
       <c r="C66" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>960</v>
+        <v>18</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I66">
-        <v>960</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2360,25 +2360,25 @@
         <v>359042</v>
       </c>
       <c r="C67" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E67">
-        <v>414</v>
+        <v>960</v>
       </c>
       <c r="F67">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="G67">
-        <v>0.222222222222222</v>
+        <v>0.26875</v>
       </c>
       <c r="H67">
-        <v>32.89</v>
+        <v>21.156</v>
       </c>
       <c r="I67">
-        <v>322</v>
+        <v>702</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2389,25 +2389,25 @@
         <v>359042</v>
       </c>
       <c r="C68" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="G68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H68">
-        <v>5.94</v>
+        <v>36.825</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2418,25 +2418,25 @@
         <v>359042</v>
       </c>
       <c r="C69" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>326</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>0.339583333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H69">
-        <v>26.732</v>
+        <v>1.98</v>
       </c>
       <c r="I69">
-        <v>634</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2447,25 +2447,25 @@
         <v>359042</v>
       </c>
       <c r="C70" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E70">
-        <v>432</v>
+        <v>720</v>
       </c>
       <c r="F70">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="G70">
-        <v>0.261574074074074</v>
+        <v>0.244444444444444</v>
       </c>
       <c r="H70">
-        <v>41.2375</v>
+        <v>14.432</v>
       </c>
       <c r="I70">
-        <v>319</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2476,25 +2476,25 @@
         <v>359042</v>
       </c>
       <c r="C71" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="G71">
-        <v>0.25</v>
+        <v>0.303482587064677</v>
       </c>
       <c r="H71">
-        <v>2.97</v>
+        <v>44.275</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2505,25 +2505,25 @@
         <v>359042</v>
       </c>
       <c r="C72" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>232</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>0.241666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H72">
-        <v>19.024</v>
+        <v>3.96</v>
       </c>
       <c r="I72">
-        <v>728</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2534,25 +2534,25 @@
         <v>359042</v>
       </c>
       <c r="C73" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E73">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="F73">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G73">
-        <v>0.0977777777777778</v>
+        <v>0.07777777777777781</v>
       </c>
       <c r="H73">
-        <v>16.15</v>
+        <v>4.592</v>
       </c>
       <c r="I73">
-        <v>406</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2563,25 +2563,25 @@
         <v>359042</v>
       </c>
       <c r="C74" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>18</v>
+        <v>432</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="G74">
-        <v>0.444444444444444</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="H74">
-        <v>7.92</v>
+        <v>43.56</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2592,25 +2592,25 @@
         <v>359042</v>
       </c>
       <c r="C75" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75">
-        <v>840</v>
+        <v>18</v>
       </c>
       <c r="F75">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="G75">
-        <v>0.21547619047619</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H75">
-        <v>14.842</v>
+        <v>11.88</v>
       </c>
       <c r="I75">
-        <v>659</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2621,25 +2621,25 @@
         <v>359042</v>
       </c>
       <c r="C76" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E76">
-        <v>450</v>
+        <v>840</v>
       </c>
       <c r="F76">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="G76">
-        <v>0.333333333333333</v>
+        <v>0.289285714285714</v>
       </c>
       <c r="H76">
-        <v>54.225</v>
+        <v>19.926</v>
       </c>
       <c r="I76">
-        <v>300</v>
+        <v>597</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2650,25 +2650,25 @@
         <v>359042</v>
       </c>
       <c r="C77" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>18</v>
+        <v>426</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="G77">
-        <v>0.5</v>
+        <v>0.161971830985915</v>
       </c>
       <c r="H77">
-        <v>8.91</v>
+        <v>25.0275</v>
       </c>
       <c r="I77">
-        <v>9</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2679,25 +2679,25 @@
         <v>359042</v>
       </c>
       <c r="C78" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>840</v>
+        <v>18</v>
       </c>
       <c r="F78">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="G78">
-        <v>0.270238095238095</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H78">
-        <v>18.614</v>
+        <v>7.92</v>
       </c>
       <c r="I78">
-        <v>613</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2708,25 +2708,25 @@
         <v>359042</v>
       </c>
       <c r="C79" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E79">
-        <v>636</v>
+        <v>840</v>
       </c>
       <c r="F79">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.218553459119497</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>50.3525</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>497</v>
+        <v>840</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2737,25 +2737,25 @@
         <v>359042</v>
       </c>
       <c r="C80" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G80">
-        <v>0.222222222222222</v>
+        <v>0.0268817204301075</v>
       </c>
       <c r="H80">
-        <v>3.96</v>
+        <v>5.3625</v>
       </c>
       <c r="I80">
-        <v>14</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2766,25 +2766,25 @@
         <v>359042</v>
       </c>
       <c r="C81" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>840</v>
+        <v>24</v>
       </c>
       <c r="F81">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>0.151190476190476</v>
+        <v>0.5</v>
       </c>
       <c r="H81">
-        <v>10.414</v>
+        <v>11.88</v>
       </c>
       <c r="I81">
-        <v>713</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2795,25 +2795,25 @@
         <v>359042</v>
       </c>
       <c r="C82" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>558</v>
+        <v>960</v>
       </c>
       <c r="F82">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="G82">
-        <v>0.288530465949821</v>
+        <v>0.101041666666667</v>
       </c>
       <c r="H82">
-        <v>58.5775</v>
+        <v>7.954</v>
       </c>
       <c r="I82">
-        <v>397</v>
+        <v>863</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2824,25 +2824,25 @@
         <v>359042</v>
       </c>
       <c r="C83" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83">
-        <v>18</v>
+        <v>546</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G83">
-        <v>0.388888888888889</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="H83">
-        <v>6.93</v>
+        <v>5.72</v>
       </c>
       <c r="I83">
-        <v>11</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2853,54 +2853,54 @@
         <v>359042</v>
       </c>
       <c r="C84" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
-        <v>960</v>
+        <v>24</v>
       </c>
       <c r="F84">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G84">
-        <v>0.04375</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H84">
-        <v>3.444</v>
+        <v>6.93</v>
       </c>
       <c r="I84">
-        <v>918</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85">
-        <v>363271</v>
+        <v>359042</v>
       </c>
       <c r="C85" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>594</v>
+        <v>960</v>
       </c>
       <c r="F85">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0.215488215488215</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="H85">
-        <v>46</v>
+        <v>0.082</v>
       </c>
       <c r="I85">
-        <v>466</v>
+        <v>959</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2911,25 +2911,25 @@
         <v>363271</v>
       </c>
       <c r="C86" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86">
-        <v>12</v>
+        <v>516</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="G86">
-        <v>0.0833333333333333</v>
+        <v>0.182170542635659</v>
       </c>
       <c r="H86">
-        <v>0.99</v>
+        <v>34.325</v>
       </c>
       <c r="I86">
-        <v>11</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2940,25 +2940,25 @@
         <v>363271</v>
       </c>
       <c r="C87" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87">
-        <v>960</v>
+        <v>15</v>
       </c>
       <c r="F87">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="G87">
-        <v>0.270833333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H87">
-        <v>21.32</v>
+        <v>7.92</v>
       </c>
       <c r="I87">
-        <v>700</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2969,25 +2969,25 @@
         <v>363271</v>
       </c>
       <c r="C88" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>396</v>
+        <v>840</v>
       </c>
       <c r="F88">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G88">
-        <v>0.174242424242424</v>
+        <v>0.09880952380952381</v>
       </c>
       <c r="H88">
-        <v>24.6675</v>
+        <v>6.806</v>
       </c>
       <c r="I88">
-        <v>327</v>
+        <v>757</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2998,25 +2998,25 @@
         <v>363271</v>
       </c>
       <c r="C89" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="G89">
-        <v>0.333333333333333</v>
+        <v>0.204225352112676</v>
       </c>
       <c r="H89">
-        <v>3.96</v>
+        <v>31.1025</v>
       </c>
       <c r="I89">
-        <v>8</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3027,25 +3027,25 @@
         <v>363271</v>
       </c>
       <c r="C90" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90">
-        <v>720</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.0902777777777778</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>5.33</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>655</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3056,25 +3056,25 @@
         <v>363271</v>
       </c>
       <c r="C91" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E91">
-        <v>426</v>
+        <v>720</v>
       </c>
       <c r="F91">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="G91">
-        <v>0.115023474178404</v>
+        <v>0.236111111111111</v>
       </c>
       <c r="H91">
-        <v>17.5175</v>
+        <v>13.94</v>
       </c>
       <c r="I91">
-        <v>377</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3085,25 +3085,25 @@
         <v>363271</v>
       </c>
       <c r="C92" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.362222222222222</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>59.1125</v>
       </c>
       <c r="I92">
-        <v>12</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3114,25 +3114,25 @@
         <v>363271</v>
       </c>
       <c r="C93" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93">
-        <v>540</v>
+        <v>14</v>
       </c>
       <c r="F93">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="G93">
-        <v>0.166666666666667</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="H93">
-        <v>7.38</v>
+        <v>5.94</v>
       </c>
       <c r="I93">
-        <v>450</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3143,25 +3143,25 @@
         <v>363271</v>
       </c>
       <c r="C94" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E94">
-        <v>438</v>
+        <v>840</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>14.35</v>
       </c>
       <c r="I94">
-        <v>438</v>
+        <v>665</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3172,25 +3172,25 @@
         <v>363271</v>
       </c>
       <c r="C95" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.197619047619048</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>30.1525</v>
       </c>
       <c r="I95">
-        <v>12</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3201,25 +3201,25 @@
         <v>363271</v>
       </c>
       <c r="C96" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96">
-        <v>900</v>
+        <v>13</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I96">
-        <v>900</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3230,25 +3230,25 @@
         <v>363271</v>
       </c>
       <c r="C97" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E97">
-        <v>492</v>
+        <v>720</v>
       </c>
       <c r="F97">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="G97">
-        <v>0.42479674796748</v>
+        <v>0.244444444444444</v>
       </c>
       <c r="H97">
-        <v>74.7175</v>
+        <v>14.432</v>
       </c>
       <c r="I97">
-        <v>283</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3259,25 +3259,25 @@
         <v>363271</v>
       </c>
       <c r="C98" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="G98">
-        <v>0.333333333333333</v>
+        <v>0.204954954954955</v>
       </c>
       <c r="H98">
-        <v>3.96</v>
+        <v>32.7125</v>
       </c>
       <c r="I98">
-        <v>8</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3288,25 +3288,25 @@
         <v>363271</v>
       </c>
       <c r="C99" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99">
-        <v>900</v>
+        <v>14</v>
       </c>
       <c r="F99">
-        <v>310</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>0.344444444444444</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="H99">
-        <v>25.42</v>
+        <v>2.97</v>
       </c>
       <c r="I99">
-        <v>590</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3317,25 +3317,25 @@
         <v>363271</v>
       </c>
       <c r="C100" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E100">
-        <v>534</v>
+        <v>1200</v>
       </c>
       <c r="F100">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="G100">
-        <v>0.295880149812734</v>
+        <v>0.0583333333333333</v>
       </c>
       <c r="H100">
-        <v>56.485</v>
+        <v>5.74</v>
       </c>
       <c r="I100">
-        <v>376</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3346,25 +3346,25 @@
         <v>363271</v>
       </c>
       <c r="C101" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G101">
-        <v>0.583333333333333</v>
+        <v>0.177489177489178</v>
       </c>
       <c r="H101">
-        <v>6.93</v>
+        <v>29.315</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3375,25 +3375,25 @@
         <v>363271</v>
       </c>
       <c r="C102" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="F102">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>0.227777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H102">
-        <v>16.81</v>
+        <v>1.98</v>
       </c>
       <c r="I102">
-        <v>695</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3404,25 +3404,25 @@
         <v>363271</v>
       </c>
       <c r="C103" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E103">
-        <v>522</v>
+        <v>1020</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.0225490196078431</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1.886</v>
       </c>
       <c r="I103">
-        <v>522</v>
+        <v>997</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3433,25 +3433,25 @@
         <v>363271</v>
       </c>
       <c r="C104" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104">
-        <v>12</v>
+        <v>546</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.399267399267399</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>78.465</v>
       </c>
       <c r="I104">
-        <v>12</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3462,54 +3462,54 @@
         <v>363271</v>
       </c>
       <c r="C105" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E105">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I105">
-        <v>960</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106">
-        <v>343939</v>
+        <v>363271</v>
       </c>
       <c r="C106" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E106">
-        <v>408</v>
+        <v>960</v>
       </c>
       <c r="F106">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0.06617647058823529</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>9.6525</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>381</v>
+        <v>960</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3520,25 +3520,25 @@
         <v>343939</v>
       </c>
       <c r="C107" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.438725490196078</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>64.1425</v>
       </c>
       <c r="I107">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3549,25 +3549,25 @@
         <v>343939</v>
       </c>
       <c r="C108" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>720</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="G108">
-        <v>0.0791666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H108">
-        <v>4.674</v>
+        <v>4.95</v>
       </c>
       <c r="I108">
-        <v>663</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3578,25 +3578,25 @@
         <v>343939</v>
       </c>
       <c r="C109" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E109">
-        <v>336</v>
+        <v>780</v>
       </c>
       <c r="F109">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="G109">
-        <v>0.529761904761905</v>
+        <v>0.0807692307692308</v>
       </c>
       <c r="H109">
-        <v>63.635</v>
+        <v>5.166</v>
       </c>
       <c r="I109">
-        <v>158</v>
+        <v>717</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3607,25 +3607,25 @@
         <v>343939</v>
       </c>
       <c r="C110" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G110">
-        <v>0.833333333333333</v>
+        <v>0.258064516129032</v>
       </c>
       <c r="H110">
-        <v>9.9</v>
+        <v>31.46</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3636,25 +3636,25 @@
         <v>343939</v>
       </c>
       <c r="C111" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E111">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="F111">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>0.29</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H111">
-        <v>14.268</v>
+        <v>9.9</v>
       </c>
       <c r="I111">
-        <v>426</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3665,25 +3665,25 @@
         <v>343939</v>
       </c>
       <c r="C112" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E112">
-        <v>354</v>
+        <v>600</v>
       </c>
       <c r="F112">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="G112">
-        <v>0.135593220338983</v>
+        <v>0.226666666666667</v>
       </c>
       <c r="H112">
-        <v>17.16</v>
+        <v>11.152</v>
       </c>
       <c r="I112">
-        <v>306</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3694,25 +3694,25 @@
         <v>343939</v>
       </c>
       <c r="C113" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="G113">
-        <v>0.25</v>
+        <v>0.462365591397849</v>
       </c>
       <c r="H113">
-        <v>2.97</v>
+        <v>61.94</v>
       </c>
       <c r="I113">
-        <v>9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3723,25 +3723,25 @@
         <v>343939</v>
       </c>
       <c r="C114" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114">
-        <v>660</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>0.490909090909091</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H114">
-        <v>26.568</v>
+        <v>7.92</v>
       </c>
       <c r="I114">
-        <v>336</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3752,25 +3752,25 @@
         <v>343939</v>
       </c>
       <c r="C115" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E115">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="F115">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="G115">
-        <v>0.469047619047619</v>
+        <v>0.118518518518519</v>
       </c>
       <c r="H115">
-        <v>70.42749999999999</v>
+        <v>5.248</v>
       </c>
       <c r="I115">
-        <v>223</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3781,25 +3781,25 @@
         <v>343939</v>
       </c>
       <c r="C116" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E116">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G116">
-        <v>0.166666666666667</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="H116">
-        <v>1.98</v>
+        <v>25.025</v>
       </c>
       <c r="I116">
-        <v>10</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3810,25 +3810,25 @@
         <v>343939</v>
       </c>
       <c r="C117" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E117">
-        <v>720</v>
+        <v>12</v>
       </c>
       <c r="F117">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="G117">
-        <v>0.172222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="H117">
-        <v>10.168</v>
+        <v>8.91</v>
       </c>
       <c r="I117">
-        <v>596</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3839,25 +3839,25 @@
         <v>343939</v>
       </c>
       <c r="C118" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E118">
-        <v>396</v>
+        <v>720</v>
       </c>
       <c r="F118">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="G118">
-        <v>0.502525252525252</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="H118">
-        <v>71.1425</v>
+        <v>20.336</v>
       </c>
       <c r="I118">
-        <v>197</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3868,25 +3868,25 @@
         <v>343939</v>
       </c>
       <c r="C119" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="F119">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="G119">
-        <v>0.666666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H119">
-        <v>7.92</v>
+        <v>57.2</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3897,25 +3897,25 @@
         <v>343939</v>
       </c>
       <c r="C120" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E120">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="F120">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>0.194871794871795</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H120">
-        <v>12.464</v>
+        <v>4.95</v>
       </c>
       <c r="I120">
-        <v>628</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3926,25 +3926,25 @@
         <v>343939</v>
       </c>
       <c r="C121" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E121">
-        <v>444</v>
+        <v>1260</v>
       </c>
       <c r="F121">
-        <v>92</v>
+        <v>498</v>
       </c>
       <c r="G121">
-        <v>0.207207207207207</v>
+        <v>0.395238095238095</v>
       </c>
       <c r="H121">
-        <v>32.89</v>
+        <v>40.836</v>
       </c>
       <c r="I121">
-        <v>352</v>
+        <v>762</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3955,25 +3955,25 @@
         <v>343939</v>
       </c>
       <c r="C122" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E122">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G122">
-        <v>0.75</v>
+        <v>0.218905472636816</v>
       </c>
       <c r="H122">
-        <v>8.91</v>
+        <v>31.46</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3984,25 +3984,25 @@
         <v>343939</v>
       </c>
       <c r="C123" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E123">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="F123">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="G123">
-        <v>0.193589743589744</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H123">
-        <v>12.382</v>
+        <v>3.96</v>
       </c>
       <c r="I123">
-        <v>629</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4013,25 +4013,25 @@
         <v>343939</v>
       </c>
       <c r="C124" s="2">
-        <v>45829</v>
+        <v>45835</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E124">
-        <v>372</v>
+        <v>1020</v>
       </c>
       <c r="F124">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G124">
-        <v>0.239247311827957</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H124">
-        <v>31.8175</v>
+        <v>3.28</v>
       </c>
       <c r="I124">
-        <v>283</v>
+        <v>980</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4042,25 +4042,25 @@
         <v>343939</v>
       </c>
       <c r="C125" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E125">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="F125">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G125">
-        <v>0.666666666666667</v>
+        <v>0.06944444444444441</v>
       </c>
       <c r="H125">
-        <v>7.92</v>
+        <v>10.725</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4071,54 +4071,54 @@
         <v>343939</v>
       </c>
       <c r="C126" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E126">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="F126">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>0.207777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H126">
-        <v>15.334</v>
+        <v>1.98</v>
       </c>
       <c r="I126">
-        <v>713</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B127">
-        <v>301290</v>
+        <v>343939</v>
       </c>
       <c r="C127" s="2">
-        <v>45823</v>
+        <v>45836</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E127">
-        <v>708</v>
+        <v>1080</v>
       </c>
       <c r="F127">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G127">
-        <v>0.0833333333333333</v>
+        <v>0.0268518518518519</v>
       </c>
       <c r="H127">
-        <v>21.5125</v>
+        <v>2.378</v>
       </c>
       <c r="I127">
-        <v>649</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4129,25 +4129,25 @@
         <v>301290</v>
       </c>
       <c r="C128" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128">
-        <v>12</v>
+        <v>726</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="G128">
-        <v>0.25</v>
+        <v>0.316804407713499</v>
       </c>
       <c r="H128">
-        <v>2.97</v>
+        <v>83.66500000000001</v>
       </c>
       <c r="I128">
-        <v>9</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4158,25 +4158,25 @@
         <v>301290</v>
       </c>
       <c r="C129" s="2">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E129">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I129">
-        <v>480</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4187,25 +4187,25 @@
         <v>301290</v>
       </c>
       <c r="C130" s="2">
-        <v>45824</v>
+        <v>45830</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E130">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F130">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G130">
-        <v>0.261904761904762</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="H130">
-        <v>51.3025</v>
+        <v>12.71</v>
       </c>
       <c r="I130">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4216,25 +4216,25 @@
         <v>301290</v>
       </c>
       <c r="C131" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E131">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="F131">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="G131">
-        <v>0.611111111111111</v>
+        <v>0.23936170212766</v>
       </c>
       <c r="H131">
-        <v>10.89</v>
+        <v>48.7325</v>
       </c>
       <c r="I131">
-        <v>7</v>
+        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4245,25 +4245,25 @@
         <v>301290</v>
       </c>
       <c r="C132" s="2">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="F132">
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="G132">
-        <v>0.454166666666667</v>
+        <v>0.125</v>
       </c>
       <c r="H132">
-        <v>17.876</v>
+        <v>1.98</v>
       </c>
       <c r="I132">
-        <v>262</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4274,25 +4274,25 @@
         <v>301290</v>
       </c>
       <c r="C133" s="2">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E133">
-        <v>648</v>
+        <v>420</v>
       </c>
       <c r="F133">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="G133">
-        <v>0.126543209876543</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="H133">
-        <v>29.615</v>
+        <v>13.53</v>
       </c>
       <c r="I133">
-        <v>566</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4303,25 +4303,25 @@
         <v>301290</v>
       </c>
       <c r="C134" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E134">
-        <v>18</v>
+        <v>660</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>0.292424242424242</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>69.5975</v>
       </c>
       <c r="I134">
-        <v>18</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4332,25 +4332,25 @@
         <v>301290</v>
       </c>
       <c r="C135" s="2">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E135">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I135">
-        <v>420</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4361,25 +4361,25 @@
         <v>301290</v>
       </c>
       <c r="C136" s="2">
-        <v>45826</v>
+        <v>45832</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E136">
-        <v>618</v>
+        <v>420</v>
       </c>
       <c r="F136">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="G136">
-        <v>0.273462783171521</v>
+        <v>0.430952380952381</v>
       </c>
       <c r="H136">
-        <v>60.7175</v>
+        <v>14.842</v>
       </c>
       <c r="I136">
-        <v>449</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4390,25 +4390,25 @@
         <v>301290</v>
       </c>
       <c r="C137" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E137">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="G137">
-        <v>0.222222222222222</v>
+        <v>0.21</v>
       </c>
       <c r="H137">
-        <v>3.96</v>
+        <v>45.825</v>
       </c>
       <c r="I137">
-        <v>14</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4419,25 +4419,25 @@
         <v>301290</v>
       </c>
       <c r="C138" s="2">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="G138">
-        <v>0.319047619047619</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H138">
-        <v>10.988</v>
+        <v>6.93</v>
       </c>
       <c r="I138">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4448,25 +4448,25 @@
         <v>301290</v>
       </c>
       <c r="C139" s="2">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E139">
-        <v>744</v>
+        <v>420</v>
       </c>
       <c r="F139">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G139">
-        <v>0.0510752688172043</v>
+        <v>0.138095238095238</v>
       </c>
       <c r="H139">
-        <v>13.585</v>
+        <v>4.756</v>
       </c>
       <c r="I139">
-        <v>706</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4477,25 +4477,25 @@
         <v>301290</v>
       </c>
       <c r="C140" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E140">
-        <v>18</v>
+        <v>714</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.224089635854342</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="I140">
-        <v>18</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4506,25 +4506,25 @@
         <v>301290</v>
       </c>
       <c r="C141" s="2">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="F141">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>0.278571428571429</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H141">
-        <v>9.593999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="I141">
-        <v>303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4535,25 +4535,25 @@
         <v>301290</v>
       </c>
       <c r="C142" s="2">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="D142" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>762</v>
+        <v>420</v>
       </c>
       <c r="F142">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="G142">
-        <v>0.194225721784777</v>
+        <v>0.0880952380952381</v>
       </c>
       <c r="H142">
-        <v>53.09</v>
+        <v>3.034</v>
       </c>
       <c r="I142">
-        <v>614</v>
+        <v>383</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4564,25 +4564,25 @@
         <v>301290</v>
       </c>
       <c r="C143" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E143">
-        <v>18</v>
+        <v>696</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="G143">
-        <v>0.111111111111111</v>
+        <v>0.209770114942529</v>
       </c>
       <c r="H143">
-        <v>1.98</v>
+        <v>52.195</v>
       </c>
       <c r="I143">
-        <v>16</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4593,25 +4593,25 @@
         <v>301290</v>
       </c>
       <c r="C144" s="2">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="D144" t="s">
         <v>18</v>
       </c>
       <c r="E144">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="F144">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G144">
-        <v>0.0857142857142857</v>
+        <v>0.09074074074074071</v>
       </c>
       <c r="H144">
-        <v>2.952</v>
+        <v>4.018</v>
       </c>
       <c r="I144">
-        <v>384</v>
+        <v>491</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4622,25 +4622,25 @@
         <v>301290</v>
       </c>
       <c r="C145" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D145" t="s">
         <v>16</v>
       </c>
       <c r="E145">
-        <v>798</v>
+        <v>732</v>
       </c>
       <c r="F145">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G145">
-        <v>0.18922305764411</v>
+        <v>0.198087431693989</v>
       </c>
       <c r="H145">
-        <v>54.8225</v>
+        <v>52.2375</v>
       </c>
       <c r="I145">
-        <v>647</v>
+        <v>587</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4651,54 +4651,25 @@
         <v>301290</v>
       </c>
       <c r="C146" s="2">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E146">
-        <v>18</v>
+        <v>540</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>5.904</v>
       </c>
       <c r="I146">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147">
-        <v>301290</v>
-      </c>
-      <c r="C147" s="2">
-        <v>45829</v>
-      </c>
-      <c r="D147" t="s">
-        <v>18</v>
-      </c>
-      <c r="E147">
-        <v>540</v>
-      </c>
-      <c r="F147">
-        <v>81</v>
-      </c>
-      <c r="G147">
-        <v>0.15</v>
-      </c>
-      <c r="H147">
-        <v>6.642</v>
-      </c>
-      <c r="I147">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/supplyit/UsageOverview_Formatted.xlsx
+++ b/data/raw/supplyit/UsageOverview_Formatted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="19">
   <si>
     <t>Location</t>
   </si>
@@ -432,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,25 +475,25 @@
         <v>358529</v>
       </c>
       <c r="C2" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>672</v>
+        <v>618</v>
       </c>
       <c r="F2">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>0.18452380952381</v>
+        <v>0.105177993527508</v>
       </c>
       <c r="H2">
-        <v>44.63</v>
+        <v>23.2375</v>
       </c>
       <c r="I2">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -504,7 +504,7 @@
         <v>358529</v>
       </c>
       <c r="C3" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -513,16 +513,16 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -533,25 +533,25 @@
         <v>358529</v>
       </c>
       <c r="C4" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="F4">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>0.0575757575757576</v>
+        <v>0.01</v>
       </c>
       <c r="H4">
-        <v>6.232</v>
+        <v>0.984</v>
       </c>
       <c r="I4">
-        <v>1244</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -562,25 +562,25 @@
         <v>358529</v>
       </c>
       <c r="C5" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G5">
-        <v>0.189873417721519</v>
+        <v>0.245614035087719</v>
       </c>
       <c r="H5">
-        <v>33.075</v>
+        <v>40.76</v>
       </c>
       <c r="I5">
-        <v>384</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -591,25 +591,25 @@
         <v>358529</v>
       </c>
       <c r="C6" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>0.333333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="H6">
-        <v>3.96</v>
+        <v>10.89</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -620,25 +620,25 @@
         <v>358529</v>
       </c>
       <c r="C7" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>840</v>
+        <v>360</v>
       </c>
       <c r="F7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.104761904761905</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.216</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>752</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -649,25 +649,25 @@
         <v>358529</v>
       </c>
       <c r="C8" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F8">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.12962962962963</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>20.26</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>376</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -678,7 +678,7 @@
         <v>358529</v>
       </c>
       <c r="C9" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -687,16 +687,16 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -707,7 +707,7 @@
         <v>358529</v>
       </c>
       <c r="C10" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -716,16 +716,16 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.102380952380952</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>7.052</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>754</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -736,25 +736,25 @@
         <v>358529</v>
       </c>
       <c r="C11" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>0.104417670682731</v>
+        <v>0.117886178861789</v>
       </c>
       <c r="H11">
-        <v>19.07</v>
+        <v>20.795</v>
       </c>
       <c r="I11">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -765,7 +765,7 @@
         <v>358529</v>
       </c>
       <c r="C12" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -774,16 +774,16 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -794,7 +794,7 @@
         <v>358529</v>
       </c>
       <c r="C13" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -823,25 +823,25 @@
         <v>358529</v>
       </c>
       <c r="C14" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="F14">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0700757575757576</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>13.8275</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -852,25 +852,25 @@
         <v>358529</v>
       </c>
       <c r="C15" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -881,13 +881,13 @@
         <v>358529</v>
       </c>
       <c r="C16" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>720</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -910,25 +910,25 @@
         <v>358529</v>
       </c>
       <c r="C17" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>0.00336700336700337</v>
+        <v>0.0931899641577061</v>
       </c>
       <c r="H17">
-        <v>0.835</v>
+        <v>18.59</v>
       </c>
       <c r="I17">
-        <v>592</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -939,25 +939,25 @@
         <v>358529</v>
       </c>
       <c r="C18" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -968,13 +968,13 @@
         <v>358529</v>
       </c>
       <c r="C19" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1560</v>
+        <v>840</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1560</v>
+        <v>840</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -997,25 +997,25 @@
         <v>358529</v>
       </c>
       <c r="C20" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="F20">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="G20">
-        <v>0.118181818181818</v>
+        <v>0.224919093851133</v>
       </c>
       <c r="H20">
-        <v>28.605</v>
+        <v>49.6925</v>
       </c>
       <c r="I20">
-        <v>582</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1026,25 +1026,25 @@
         <v>358529</v>
       </c>
       <c r="C21" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="I21">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1055,239 +1055,239 @@
         <v>358529</v>
       </c>
       <c r="C22" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1800</v>
+        <v>1320</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G22">
-        <v>0.0833333333333333</v>
+        <v>0.378787878787879</v>
       </c>
       <c r="H22">
-        <v>12.3</v>
+        <v>41</v>
       </c>
       <c r="I22">
-        <v>1650</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C23" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="F23">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="G23">
-        <v>0.096078431372549</v>
+        <v>0.188172043010753</v>
       </c>
       <c r="H23">
-        <v>17.5175</v>
+        <v>37.5375</v>
       </c>
       <c r="I23">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>358529</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="H24">
+        <v>7.92</v>
+      </c>
+      <c r="I24">
         <v>10</v>
-      </c>
-      <c r="B24">
-        <v>364322</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45830</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>12</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C25" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1260</v>
+        <v>1440</v>
       </c>
       <c r="F25">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="G25">
-        <v>0.166666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H25">
-        <v>17.22</v>
+        <v>49.2</v>
       </c>
       <c r="I25">
-        <v>1050</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C26" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="F26">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="G26">
-        <v>0.177248677248677</v>
+        <v>0.346491228070175</v>
       </c>
       <c r="H26">
-        <v>23.9525</v>
+        <v>57.205</v>
       </c>
       <c r="I26">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>358529</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.98</v>
+      </c>
+      <c r="I27">
         <v>10</v>
-      </c>
-      <c r="B27">
-        <v>364322</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45831</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27">
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="H27">
-        <v>7.92</v>
-      </c>
-      <c r="I27">
-        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C28" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="F28">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.262820512820513</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>16.81</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>575</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C29" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="F29">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="G29">
-        <v>0.339662447257384</v>
+        <v>0.251173708920188</v>
       </c>
       <c r="H29">
-        <v>57.5575</v>
+        <v>39.5125</v>
       </c>
       <c r="I29">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C30" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1296,27 +1296,27 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C31" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -1325,178 +1325,178 @@
         <v>840</v>
       </c>
       <c r="F31">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.0476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>800</v>
+        <v>840</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C32" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="F32">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="G32">
-        <v>0.273504273504274</v>
+        <v>0.0516431924882629</v>
       </c>
       <c r="H32">
-        <v>45.76</v>
+        <v>8.315</v>
       </c>
       <c r="I32">
-        <v>340</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C33" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0.25</v>
+      </c>
+      <c r="H33">
+        <v>2.97</v>
+      </c>
+      <c r="I33">
         <v>9</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H33">
-        <v>5.94</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C34" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="F34">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="G34">
-        <v>0.321428571428571</v>
+        <v>0.103846153846154</v>
       </c>
       <c r="H34">
-        <v>22.14</v>
+        <v>6.642</v>
       </c>
       <c r="I34">
-        <v>570</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C35" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="F35">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G35">
-        <v>0.188888888888889</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="H35">
-        <v>30.6875</v>
+        <v>26.1</v>
       </c>
       <c r="I35">
-        <v>365</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C36" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C37" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1508,82 +1508,82 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>840</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C38" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="F38">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="G38">
-        <v>0.0757575757575758</v>
+        <v>0.268976897689769</v>
       </c>
       <c r="H38">
-        <v>16.0875</v>
+        <v>59.4425</v>
       </c>
       <c r="I38">
-        <v>549</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C39" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C40" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1595,76 +1595,76 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1440</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C41" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="F41">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>0.166666666666667</v>
+        <v>0.0102040816326531</v>
       </c>
       <c r="H41">
-        <v>36.1075</v>
+        <v>2.145</v>
       </c>
       <c r="I41">
-        <v>505</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C42" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>364322</v>
+        <v>358529</v>
       </c>
       <c r="C43" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -1673,149 +1673,149 @@
         <v>1440</v>
       </c>
       <c r="F43">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1320</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C44" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44">
-        <v>666</v>
+        <v>552</v>
       </c>
       <c r="F44">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G44">
-        <v>0.159159159159159</v>
+        <v>0.219202898550725</v>
       </c>
       <c r="H44">
-        <v>38.075</v>
+        <v>43.2575</v>
       </c>
       <c r="I44">
-        <v>560</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C45" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H45">
-        <v>2.97</v>
+        <v>5.94</v>
       </c>
       <c r="I45">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C46" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c r="F46">
-        <v>272</v>
+        <v>159</v>
       </c>
       <c r="G46">
-        <v>0.226666666666667</v>
+        <v>0.110416666666667</v>
       </c>
       <c r="H46">
-        <v>22.304</v>
+        <v>13.038</v>
       </c>
       <c r="I46">
-        <v>928</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C47" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47">
-        <v>528</v>
+        <v>432</v>
       </c>
       <c r="F47">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G47">
-        <v>0.0871212121212121</v>
+        <v>0.293981481481481</v>
       </c>
       <c r="H47">
-        <v>16.445</v>
+        <v>45.7625</v>
       </c>
       <c r="I47">
-        <v>482</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C48" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1827,169 +1827,169 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C49" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="I49">
-        <v>840</v>
+        <v>665</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C50" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50">
-        <v>546</v>
+        <v>444</v>
       </c>
       <c r="F50">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G50">
-        <v>0.133699633699634</v>
+        <v>0.11036036036036</v>
       </c>
       <c r="H50">
-        <v>26.3375</v>
+        <v>17.5175</v>
       </c>
       <c r="I50">
-        <v>473</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C51" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>0.25</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H51">
-        <v>2.97</v>
+        <v>4.95</v>
       </c>
       <c r="I51">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C52" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.0558823529411765</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4.674</v>
       </c>
       <c r="I52">
-        <v>840</v>
+        <v>963</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C53" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53">
-        <v>576</v>
+        <v>450</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G53">
-        <v>0.0225694444444444</v>
+        <v>0.108888888888889</v>
       </c>
       <c r="H53">
-        <v>4.7075</v>
+        <v>17.5175</v>
       </c>
       <c r="I53">
-        <v>563</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C54" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2001,18 +2001,18 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C55" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -2021,62 +2021,62 @@
         <v>840</v>
       </c>
       <c r="F55">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1.722</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C56" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56">
-        <v>564</v>
+        <v>462</v>
       </c>
       <c r="F56">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G56">
-        <v>0.0478723404255319</v>
+        <v>0.038961038961039</v>
       </c>
       <c r="H56">
-        <v>9.6525</v>
+        <v>6.435</v>
       </c>
       <c r="I56">
-        <v>537</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C57" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
       <c r="E57">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2088,82 +2088,82 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C58" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.0757575757575758</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I58">
-        <v>1200</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C59" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59">
-        <v>774</v>
+        <v>486</v>
       </c>
       <c r="F59">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G59">
-        <v>0.116279069767442</v>
+        <v>0.065843621399177</v>
       </c>
       <c r="H59">
-        <v>32.515</v>
+        <v>11.44</v>
       </c>
       <c r="I59">
-        <v>684</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C60" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2175,82 +2175,82 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C61" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61">
-        <v>1320</v>
+        <v>1440</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.0347222222222222</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I61">
-        <v>1320</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C62" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
       </c>
       <c r="E62">
-        <v>792</v>
+        <v>558</v>
       </c>
       <c r="F62">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G62">
-        <v>0.0416666666666667</v>
+        <v>0.120071684587814</v>
       </c>
       <c r="H62">
-        <v>11.7975</v>
+        <v>23.9525</v>
       </c>
       <c r="I62">
-        <v>759</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C63" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="E63">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2262,772 +2262,772 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>357993</v>
+        <v>364322</v>
       </c>
       <c r="C64" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64">
-        <v>1320</v>
+        <v>1380</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>22.14</v>
       </c>
       <c r="I64">
-        <v>1320</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C65" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
       </c>
       <c r="E65">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F65">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G65">
-        <v>0.271276595744681</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="H65">
-        <v>55.7775</v>
+        <v>35.75</v>
       </c>
       <c r="I65">
-        <v>411</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C66" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>0.0555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H66">
-        <v>0.99</v>
+        <v>2.97</v>
       </c>
       <c r="I66">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C67" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="F67">
-        <v>258</v>
+        <v>610</v>
       </c>
       <c r="G67">
-        <v>0.26875</v>
+        <v>0.462121212121212</v>
       </c>
       <c r="H67">
-        <v>21.156</v>
+        <v>50.02</v>
       </c>
       <c r="I67">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C68" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
       </c>
       <c r="E68">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="F68">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G68">
-        <v>0.25</v>
+        <v>0.2018779342723</v>
       </c>
       <c r="H68">
-        <v>36.825</v>
+        <v>30.745</v>
       </c>
       <c r="I68">
-        <v>306</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C69" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C70" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F70">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.244444444444444</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>14.432</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>544</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C71" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
       </c>
       <c r="E71">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F71">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G71">
-        <v>0.303482587064677</v>
+        <v>0.295454545454545</v>
       </c>
       <c r="H71">
-        <v>44.275</v>
+        <v>42.2775</v>
       </c>
       <c r="I71">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C72" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G72">
         <v>0.333333333333333</v>
       </c>
       <c r="H72">
-        <v>3.96</v>
+        <v>1.98</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C73" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="F73">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G73">
-        <v>0.07777777777777781</v>
+        <v>0.0625</v>
       </c>
       <c r="H73">
-        <v>4.592</v>
+        <v>4.92</v>
       </c>
       <c r="I73">
-        <v>664</v>
+        <v>900</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C74" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74">
-        <v>432</v>
+        <v>348</v>
       </c>
       <c r="F74">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="G74">
-        <v>0.277777777777778</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H74">
-        <v>43.56</v>
+        <v>4.29</v>
       </c>
       <c r="I74">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C75" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
       </c>
       <c r="E75">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H75">
-        <v>11.88</v>
+        <v>2.97</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C76" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
       </c>
       <c r="E76">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F76">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.289285714285714</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>19.926</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>597</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C77" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
       </c>
       <c r="E77">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F77">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G77">
-        <v>0.161971830985915</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="H77">
-        <v>25.0275</v>
+        <v>26.8125</v>
       </c>
       <c r="I77">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C78" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
       </c>
       <c r="E78">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0.444444444444444</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H78">
-        <v>7.92</v>
+        <v>0.99</v>
       </c>
       <c r="I78">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C79" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>22.55</v>
       </c>
       <c r="I79">
-        <v>840</v>
+        <v>925</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B80">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C80" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
       </c>
       <c r="E80">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="F80">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G80">
-        <v>0.0268817204301075</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H80">
-        <v>5.3625</v>
+        <v>25.74</v>
       </c>
       <c r="I80">
-        <v>543</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C81" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
       </c>
       <c r="E81">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>11.88</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B82">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C82" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82">
-        <v>960</v>
+        <v>1560</v>
       </c>
       <c r="F82">
-        <v>97</v>
+        <v>470</v>
       </c>
       <c r="G82">
-        <v>0.101041666666667</v>
+        <v>0.301282051282051</v>
       </c>
       <c r="H82">
-        <v>7.954</v>
+        <v>38.54</v>
       </c>
       <c r="I82">
-        <v>863</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C83" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
       </c>
       <c r="E83">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="F83">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G83">
-        <v>0.0293040293040293</v>
+        <v>0.09108527131782949</v>
       </c>
       <c r="H83">
-        <v>5.72</v>
+        <v>16.8025</v>
       </c>
       <c r="I83">
-        <v>530</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C84" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
       </c>
       <c r="E84">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.291666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H84">
-        <v>6.93</v>
+        <v>0.99</v>
       </c>
       <c r="I84">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>359042</v>
+        <v>364322</v>
       </c>
       <c r="C85" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
       </c>
       <c r="E85">
-        <v>960</v>
+        <v>1440</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0.00104166666666667</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>959</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C86" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86">
-        <v>516</v>
+        <v>714</v>
       </c>
       <c r="F86">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="G86">
-        <v>0.182170542635659</v>
+        <v>0.222689075630252</v>
       </c>
       <c r="H86">
-        <v>34.325</v>
+        <v>57.0225</v>
       </c>
       <c r="I86">
-        <v>422</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B87">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C87" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.533333333333333</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B88">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C88" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88">
-        <v>840</v>
+        <v>1320</v>
       </c>
       <c r="F88">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G88">
-        <v>0.09880952380952381</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H88">
-        <v>6.806</v>
+        <v>2.46</v>
       </c>
       <c r="I88">
-        <v>757</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B89">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C89" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89">
-        <v>426</v>
+        <v>522</v>
       </c>
       <c r="F89">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G89">
-        <v>0.204225352112676</v>
+        <v>0.130268199233716</v>
       </c>
       <c r="H89">
-        <v>31.1025</v>
+        <v>24.55</v>
       </c>
       <c r="I89">
-        <v>339</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C90" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
@@ -3036,100 +3036,100 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B91">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C91" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
       </c>
       <c r="E91">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F91">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G91">
-        <v>0.236111111111111</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="H91">
-        <v>13.94</v>
+        <v>4.1</v>
       </c>
       <c r="I91">
-        <v>550</v>
+        <v>790</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B92">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C92" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
       </c>
       <c r="E92">
-        <v>450</v>
+        <v>558</v>
       </c>
       <c r="F92">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="G92">
-        <v>0.362222222222222</v>
+        <v>0.0878136200716846</v>
       </c>
       <c r="H92">
-        <v>59.1125</v>
+        <v>17.5775</v>
       </c>
       <c r="I92">
-        <v>287</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B93">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C93" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
       </c>
       <c r="E93">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>0.428571428571429</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H93">
-        <v>5.94</v>
+        <v>3.96</v>
       </c>
       <c r="I93">
         <v>8</v>
@@ -3137,13 +3137,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C94" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -3152,172 +3152,172 @@
         <v>840</v>
       </c>
       <c r="F94">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0.208333333333333</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>665</v>
+        <v>840</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B95">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C95" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95">
-        <v>420</v>
+        <v>630</v>
       </c>
       <c r="F95">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="G95">
-        <v>0.197619047619048</v>
+        <v>0.0793650793650794</v>
       </c>
       <c r="H95">
-        <v>30.1525</v>
+        <v>18.295</v>
       </c>
       <c r="I95">
-        <v>337</v>
+        <v>580</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B96">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C96" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G96">
-        <v>0.230769230769231</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H96">
-        <v>2.97</v>
+        <v>6.93</v>
       </c>
       <c r="I96">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B97">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C97" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
       </c>
       <c r="E97">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="F97">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0.244444444444444</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>14.432</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>544</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B98">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C98" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
       </c>
       <c r="E98">
-        <v>444</v>
+        <v>666</v>
       </c>
       <c r="F98">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="G98">
-        <v>0.204954954954955</v>
+        <v>0.0285285285285285</v>
       </c>
       <c r="H98">
-        <v>32.7125</v>
+        <v>6.7925</v>
       </c>
       <c r="I98">
-        <v>353</v>
+        <v>647</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B99">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C99" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="E99">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0.214285714285714</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C100" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -3326,56 +3326,56 @@
         <v>1200</v>
       </c>
       <c r="F100">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.0583333333333333</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>5.74</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1130</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B101">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C101" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D101" t="s">
         <v>16</v>
       </c>
       <c r="E101">
-        <v>462</v>
+        <v>702</v>
       </c>
       <c r="F101">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="G101">
-        <v>0.177489177489178</v>
+        <v>0.225071225071225</v>
       </c>
       <c r="H101">
-        <v>29.315</v>
+        <v>57.035</v>
       </c>
       <c r="I101">
-        <v>380</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C102" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
@@ -3384,120 +3384,120 @@
         <v>12</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G102">
-        <v>0.166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="H102">
-        <v>1.98</v>
+        <v>8.91</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B103">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C103" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
       </c>
       <c r="E103">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="F103">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.0225490196078431</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>1.886</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>997</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C104" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
       </c>
       <c r="E104">
-        <v>546</v>
+        <v>750</v>
       </c>
       <c r="F104">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="G104">
-        <v>0.399267399267399</v>
+        <v>0.237333333333333</v>
       </c>
       <c r="H104">
-        <v>78.465</v>
+        <v>64.765</v>
       </c>
       <c r="I104">
-        <v>328</v>
+        <v>572</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B105">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C105" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G105">
-        <v>0.583333333333333</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H105">
-        <v>6.93</v>
+        <v>3.96</v>
       </c>
       <c r="I105">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106">
-        <v>363271</v>
+        <v>357993</v>
       </c>
       <c r="C106" s="2">
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
       </c>
       <c r="E106">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3509,47 +3509,47 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>960</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B107">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C107" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107">
-        <v>408</v>
+        <v>954</v>
       </c>
       <c r="F107">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="G107">
-        <v>0.438725490196078</v>
+        <v>0.10482180293501</v>
       </c>
       <c r="H107">
-        <v>64.1425</v>
+        <v>35.8</v>
       </c>
       <c r="I107">
-        <v>229</v>
+        <v>854</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B108">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C108" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
@@ -3558,85 +3558,85 @@
         <v>12</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0.416666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H108">
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
       <c r="I108">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B109">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C109" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
       </c>
       <c r="E109">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="F109">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0.0807692307692308</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>5.166</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>717</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B110">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C110" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110">
-        <v>341</v>
+        <v>492</v>
       </c>
       <c r="F110">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G110">
-        <v>0.258064516129032</v>
+        <v>0.128048780487805</v>
       </c>
       <c r="H110">
-        <v>31.46</v>
+        <v>22.5225</v>
       </c>
       <c r="I110">
-        <v>253</v>
+        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B111">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C111" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D111" t="s">
         <v>17</v>
@@ -3645,85 +3645,85 @@
         <v>12</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G111">
-        <v>0.833333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H111">
-        <v>9.9</v>
+        <v>4.95</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B112">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C112" s="2">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
       </c>
       <c r="E112">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="F112">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G112">
-        <v>0.226666666666667</v>
+        <v>0.0583333333333333</v>
       </c>
       <c r="H112">
-        <v>11.152</v>
+        <v>4.018</v>
       </c>
       <c r="I112">
-        <v>464</v>
+        <v>791</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B113">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C113" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
       </c>
       <c r="E113">
-        <v>372</v>
+        <v>516</v>
       </c>
       <c r="F113">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="G113">
-        <v>0.462365591397849</v>
+        <v>0.228682170542636</v>
       </c>
       <c r="H113">
-        <v>61.94</v>
+        <v>42.335</v>
       </c>
       <c r="I113">
-        <v>200</v>
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B114">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C114" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -3732,85 +3732,85 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C115" s="2">
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
       </c>
       <c r="E115">
-        <v>540</v>
+        <v>840</v>
       </c>
       <c r="F115">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G115">
-        <v>0.118518518518519</v>
+        <v>0.06547619047619049</v>
       </c>
       <c r="H115">
-        <v>5.248</v>
+        <v>4.51</v>
       </c>
       <c r="I115">
-        <v>476</v>
+        <v>785</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B116">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C116" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
       <c r="E116">
-        <v>360</v>
+        <v>564</v>
       </c>
       <c r="F116">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G116">
-        <v>0.194444444444444</v>
+        <v>0.074468085106383</v>
       </c>
       <c r="H116">
-        <v>25.025</v>
+        <v>15.655</v>
       </c>
       <c r="I116">
-        <v>290</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B117">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C117" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -3819,85 +3819,85 @@
         <v>12</v>
       </c>
       <c r="F117">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>0.75</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H117">
-        <v>8.91</v>
+        <v>1.98</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B118">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C118" s="2">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
       </c>
       <c r="E118">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="F118">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0.344444444444444</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>20.336</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>472</v>
+        <v>840</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B119">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C119" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D119" t="s">
         <v>16</v>
       </c>
       <c r="E119">
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="F119">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="G119">
-        <v>0.416666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H119">
-        <v>57.2</v>
+        <v>17.71</v>
       </c>
       <c r="I119">
-        <v>224</v>
+        <v>528</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B120">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C120" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
@@ -3920,608 +3920,608 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B121">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C121" s="2">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
       </c>
       <c r="E121">
-        <v>1260</v>
+        <v>840</v>
       </c>
       <c r="F121">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0.395238095238095</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>40.836</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>762</v>
+        <v>840</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B122">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C122" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D122" t="s">
         <v>16</v>
       </c>
       <c r="E122">
-        <v>402</v>
+        <v>720</v>
       </c>
       <c r="F122">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G122">
-        <v>0.218905472636816</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="H122">
-        <v>31.46</v>
+        <v>27.5125</v>
       </c>
       <c r="I122">
-        <v>314</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B123">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C123" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G123">
-        <v>0.333333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H123">
-        <v>3.96</v>
+        <v>6.93</v>
       </c>
       <c r="I123">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B124">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C124" s="2">
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
       </c>
       <c r="E124">
-        <v>1020</v>
+        <v>1320</v>
       </c>
       <c r="F124">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="G124">
-        <v>0.0392156862745098</v>
+        <v>0.140909090909091</v>
       </c>
       <c r="H124">
-        <v>3.28</v>
+        <v>15.252</v>
       </c>
       <c r="I124">
-        <v>980</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B125">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C125" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D125" t="s">
         <v>16</v>
       </c>
       <c r="E125">
-        <v>432</v>
+        <v>780</v>
       </c>
       <c r="F125">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G125">
-        <v>0.06944444444444441</v>
+        <v>0.09102564102564099</v>
       </c>
       <c r="H125">
-        <v>10.725</v>
+        <v>26.4525</v>
       </c>
       <c r="I125">
-        <v>402</v>
+        <v>709</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B126">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C126" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G126">
-        <v>0.166666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H126">
-        <v>1.98</v>
+        <v>5.94</v>
       </c>
       <c r="I126">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B127">
-        <v>343939</v>
+        <v>357993</v>
       </c>
       <c r="C127" s="2">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
       </c>
       <c r="E127">
-        <v>1080</v>
+        <v>1320</v>
       </c>
       <c r="F127">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.0268518518518519</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>2.378</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1051</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B128">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C128" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D128" t="s">
         <v>16</v>
       </c>
       <c r="E128">
-        <v>726</v>
+        <v>528</v>
       </c>
       <c r="F128">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="G128">
-        <v>0.316804407713499</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="H128">
-        <v>83.66500000000001</v>
+        <v>58.34</v>
       </c>
       <c r="I128">
-        <v>496</v>
+        <v>368</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B129">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C129" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="E129">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G129">
-        <v>0.142857142857143</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H129">
-        <v>1.98</v>
+        <v>9.9</v>
       </c>
       <c r="I129">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B130">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C130" s="2">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="D130" t="s">
         <v>18</v>
       </c>
       <c r="E130">
-        <v>540</v>
+        <v>960</v>
       </c>
       <c r="F130">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G130">
-        <v>0.287037037037037</v>
+        <v>0.159375</v>
       </c>
       <c r="H130">
-        <v>12.71</v>
+        <v>12.546</v>
       </c>
       <c r="I130">
-        <v>385</v>
+        <v>807</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B131">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C131" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
       </c>
       <c r="E131">
-        <v>564</v>
+        <v>438</v>
       </c>
       <c r="F131">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="G131">
-        <v>0.23936170212766</v>
+        <v>0.155251141552511</v>
       </c>
       <c r="H131">
-        <v>48.7325</v>
+        <v>24.85</v>
       </c>
       <c r="I131">
-        <v>429</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B132">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C132" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D132" t="s">
         <v>17</v>
       </c>
       <c r="E132">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F132">
         <v>2</v>
       </c>
       <c r="G132">
-        <v>0.125</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H132">
         <v>1.98</v>
       </c>
       <c r="I132">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B133">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C133" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
       </c>
       <c r="E133">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="F133">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>0.392857142857143</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>13.53</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>255</v>
+        <v>840</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B134">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C134" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D134" t="s">
         <v>16</v>
       </c>
       <c r="E134">
-        <v>660</v>
+        <v>402</v>
       </c>
       <c r="F134">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="G134">
-        <v>0.292424242424242</v>
+        <v>0.171641791044776</v>
       </c>
       <c r="H134">
-        <v>69.5975</v>
+        <v>24.9675</v>
       </c>
       <c r="I134">
-        <v>467</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B135">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C135" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D135" t="s">
         <v>17</v>
       </c>
       <c r="E135">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F135">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G135">
-        <v>0.352941176470588</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H135">
-        <v>5.94</v>
+        <v>3.96</v>
       </c>
       <c r="I135">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B136">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C136" s="2">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
       </c>
       <c r="E136">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="F136">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="G136">
-        <v>0.430952380952381</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="H136">
-        <v>14.842</v>
+        <v>0.328</v>
       </c>
       <c r="I136">
-        <v>239</v>
+        <v>716</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B137">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C137" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D137" t="s">
         <v>16</v>
       </c>
       <c r="E137">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="F137">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="G137">
-        <v>0.21</v>
+        <v>0.164285714285714</v>
       </c>
       <c r="H137">
-        <v>45.825</v>
+        <v>24.9675</v>
       </c>
       <c r="I137">
-        <v>474</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B138">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C138" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D138" t="s">
         <v>17</v>
       </c>
       <c r="E138">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F138">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G138">
-        <v>0.583333333333333</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="H138">
-        <v>6.93</v>
+        <v>3.96</v>
       </c>
       <c r="I138">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B139">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C139" s="2">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
       </c>
       <c r="E139">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="F139">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="G139">
-        <v>0.138095238095238</v>
+        <v>0.00476190476190476</v>
       </c>
       <c r="H139">
-        <v>4.756</v>
+        <v>0.328</v>
       </c>
       <c r="I139">
-        <v>362</v>
+        <v>836</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B140">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C140" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
       </c>
       <c r="E140">
-        <v>714</v>
+        <v>408</v>
       </c>
       <c r="F140">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="G140">
-        <v>0.224089635854342</v>
+        <v>0.0808823529411765</v>
       </c>
       <c r="H140">
-        <v>57.2</v>
+        <v>11.7975</v>
       </c>
       <c r="I140">
-        <v>554</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141">
+        <v>359042</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
         <v>15</v>
       </c>
-      <c r="B141">
-        <v>301290</v>
-      </c>
-      <c r="C141" s="2">
-        <v>45834</v>
-      </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141">
-        <v>12</v>
-      </c>
       <c r="F141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G141">
-        <v>0.0833333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="H141">
-        <v>0.99</v>
+        <v>3.96</v>
       </c>
       <c r="I141">
         <v>11</v>
@@ -4529,147 +4529,4468 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B142">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C142" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
       </c>
       <c r="E142">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="F142">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="G142">
-        <v>0.0880952380952381</v>
+        <v>0.34047619047619</v>
       </c>
       <c r="H142">
-        <v>3.034</v>
+        <v>23.452</v>
       </c>
       <c r="I142">
-        <v>383</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B143">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C143" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D143" t="s">
         <v>16</v>
       </c>
       <c r="E143">
-        <v>696</v>
+        <v>546</v>
       </c>
       <c r="F143">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="G143">
-        <v>0.209770114942529</v>
+        <v>0.08058608058608061</v>
       </c>
       <c r="H143">
-        <v>52.195</v>
+        <v>15.73</v>
       </c>
       <c r="I143">
-        <v>550</v>
+        <v>502</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B144">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C144" s="2">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>540</v>
+        <v>18</v>
       </c>
       <c r="F144">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G144">
-        <v>0.09074074074074071</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="H144">
-        <v>4.018</v>
+        <v>6.93</v>
       </c>
       <c r="I144">
-        <v>491</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B145">
-        <v>301290</v>
+        <v>359042</v>
       </c>
       <c r="C145" s="2">
-        <v>45836</v>
+        <v>45842</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E145">
-        <v>732</v>
+        <v>840</v>
       </c>
       <c r="F145">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>0.198087431693989</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>52.2375</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>587</v>
+        <v>840</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146">
+        <v>359042</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146">
+        <v>564</v>
+      </c>
+      <c r="F146">
+        <v>121</v>
+      </c>
+      <c r="G146">
+        <v>0.214539007092199</v>
+      </c>
+      <c r="H146">
+        <v>44.1575</v>
+      </c>
+      <c r="I146">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147">
+        <v>359042</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>18</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148">
+        <v>359042</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148">
+        <v>960</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149">
+        <v>359042</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149">
+        <v>558</v>
+      </c>
+      <c r="F149">
+        <v>119</v>
+      </c>
+      <c r="G149">
+        <v>0.21326164874552</v>
+      </c>
+      <c r="H149">
+        <v>43.5025</v>
+      </c>
+      <c r="I149">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150">
+        <v>359042</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>18</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
+      <c r="G150">
+        <v>0.277777777777778</v>
+      </c>
+      <c r="H150">
+        <v>4.95</v>
+      </c>
+      <c r="I150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151">
+        <v>359042</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151">
+        <v>960</v>
+      </c>
+      <c r="F151">
+        <v>192</v>
+      </c>
+      <c r="G151">
+        <v>0.2</v>
+      </c>
+      <c r="H151">
+        <v>15.744</v>
+      </c>
+      <c r="I151">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152">
+        <v>359042</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152">
+        <v>408</v>
+      </c>
+      <c r="F152">
+        <v>137</v>
+      </c>
+      <c r="G152">
+        <v>0.33578431372549</v>
+      </c>
+      <c r="H152">
+        <v>49.5175</v>
+      </c>
+      <c r="I152">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>359042</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>12</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H153">
+        <v>3.96</v>
+      </c>
+      <c r="I153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154">
+        <v>359042</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>840</v>
+      </c>
+      <c r="F154">
+        <v>124</v>
+      </c>
+      <c r="G154">
+        <v>0.147619047619048</v>
+      </c>
+      <c r="H154">
+        <v>10.168</v>
+      </c>
+      <c r="I154">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155">
+        <v>359042</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155">
+        <v>390</v>
+      </c>
+      <c r="F155">
+        <v>120</v>
+      </c>
+      <c r="G155">
+        <v>0.307692307692308</v>
+      </c>
+      <c r="H155">
+        <v>44.07</v>
+      </c>
+      <c r="I155">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156">
+        <v>359042</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>0.25</v>
+      </c>
+      <c r="H156">
+        <v>2.97</v>
+      </c>
+      <c r="I156">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157">
+        <v>359042</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157">
+        <v>720</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="H157">
+        <v>1.312</v>
+      </c>
+      <c r="I157">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158">
+        <v>359042</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158">
+        <v>516</v>
+      </c>
+      <c r="F158">
+        <v>128</v>
+      </c>
+      <c r="G158">
+        <v>0.248062015503876</v>
+      </c>
+      <c r="H158">
+        <v>48.01</v>
+      </c>
+      <c r="I158">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159">
+        <v>359042</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="F159">
+        <v>7</v>
+      </c>
+      <c r="G159">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="H159">
+        <v>6.93</v>
+      </c>
+      <c r="I159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160">
+        <v>359042</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160">
+        <v>840</v>
+      </c>
+      <c r="F160">
+        <v>277</v>
+      </c>
+      <c r="G160">
+        <v>0.329761904761905</v>
+      </c>
+      <c r="H160">
+        <v>22.714</v>
+      </c>
+      <c r="I160">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161">
+        <v>359042</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161">
+        <v>408</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>0.00490196078431373</v>
+      </c>
+      <c r="H161">
+        <v>0.715</v>
+      </c>
+      <c r="I161">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162">
+        <v>359042</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H162">
+        <v>1.98</v>
+      </c>
+      <c r="I162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163">
+        <v>359042</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163">
+        <v>780</v>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+      <c r="G163">
+        <v>0.0102564102564103</v>
+      </c>
+      <c r="H163">
+        <v>0.656</v>
+      </c>
+      <c r="I163">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164">
+        <v>359042</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164">
+        <v>558</v>
+      </c>
+      <c r="F164">
+        <v>19</v>
+      </c>
+      <c r="G164">
+        <v>0.0340501792114695</v>
+      </c>
+      <c r="H164">
+        <v>6.7925</v>
+      </c>
+      <c r="I164">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165">
+        <v>359042</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165">
+        <v>18</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="H165">
+        <v>6.93</v>
+      </c>
+      <c r="I165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>359042</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166">
+        <v>960</v>
+      </c>
+      <c r="F166">
+        <v>154</v>
+      </c>
+      <c r="G166">
+        <v>0.160416666666667</v>
+      </c>
+      <c r="H166">
+        <v>12.628</v>
+      </c>
+      <c r="I166">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167">
+        <v>359042</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167">
+        <v>558</v>
+      </c>
+      <c r="F167">
+        <v>91</v>
+      </c>
+      <c r="G167">
+        <v>0.163082437275986</v>
+      </c>
+      <c r="H167">
+        <v>34.0625</v>
+      </c>
+      <c r="I167">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168">
+        <v>359042</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168">
+        <v>18</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169">
+        <v>359042</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169">
+        <v>960</v>
+      </c>
+      <c r="F169">
+        <v>42</v>
+      </c>
+      <c r="G169">
+        <v>0.04375</v>
+      </c>
+      <c r="H169">
+        <v>3.444</v>
+      </c>
+      <c r="I169">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170">
+        <v>363271</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D170" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170">
+        <v>534</v>
+      </c>
+      <c r="F170">
+        <v>171</v>
+      </c>
+      <c r="G170">
+        <v>0.320224719101124</v>
+      </c>
+      <c r="H170">
+        <v>61.6725</v>
+      </c>
+      <c r="I170">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171">
+        <v>363271</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D171" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171">
+        <v>12</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H171">
+        <v>1.98</v>
+      </c>
+      <c r="I171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172">
+        <v>363271</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D172" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172">
+        <v>960</v>
+      </c>
+      <c r="F172">
+        <v>103</v>
+      </c>
+      <c r="G172">
+        <v>0.107291666666667</v>
+      </c>
+      <c r="H172">
+        <v>8.446</v>
+      </c>
+      <c r="I172">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173">
+        <v>363271</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173">
+        <v>444</v>
+      </c>
+      <c r="F173">
+        <v>120</v>
+      </c>
+      <c r="G173">
+        <v>0.27027027027027</v>
+      </c>
+      <c r="H173">
+        <v>43.6</v>
+      </c>
+      <c r="I173">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>363271</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D174" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174">
+        <v>12</v>
+      </c>
+      <c r="F174">
+        <v>6</v>
+      </c>
+      <c r="G174">
+        <v>0.5</v>
+      </c>
+      <c r="H174">
+        <v>5.94</v>
+      </c>
+      <c r="I174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>363271</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175">
+        <v>840</v>
+      </c>
+      <c r="F175">
+        <v>200</v>
+      </c>
+      <c r="G175">
+        <v>0.238095238095238</v>
+      </c>
+      <c r="H175">
+        <v>16.4</v>
+      </c>
+      <c r="I175">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176">
+        <v>363271</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176">
+        <v>468</v>
+      </c>
+      <c r="F176">
+        <v>106</v>
+      </c>
+      <c r="G176">
+        <v>0.226495726495726</v>
+      </c>
+      <c r="H176">
+        <v>38.435</v>
+      </c>
+      <c r="I176">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177">
+        <v>363271</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D177" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177">
         <v>15</v>
       </c>
-      <c r="B146">
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="G177">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="H177">
+        <v>1.98</v>
+      </c>
+      <c r="I177">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178">
+        <v>363271</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D178" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178">
+        <v>600</v>
+      </c>
+      <c r="F178">
+        <v>100</v>
+      </c>
+      <c r="G178">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H178">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I178">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179">
+        <v>363271</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179">
+        <v>432</v>
+      </c>
+      <c r="F179">
+        <v>51</v>
+      </c>
+      <c r="G179">
+        <v>0.118055555555556</v>
+      </c>
+      <c r="H179">
+        <v>18.2325</v>
+      </c>
+      <c r="I179">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>363271</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180">
+        <v>14</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H180">
+        <v>3.96</v>
+      </c>
+      <c r="I180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181">
+        <v>363271</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D181" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181">
+        <v>900</v>
+      </c>
+      <c r="F181">
+        <v>100</v>
+      </c>
+      <c r="G181">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="H181">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I181">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182">
+        <v>363271</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D182" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182">
+        <v>444</v>
+      </c>
+      <c r="F182">
+        <v>126</v>
+      </c>
+      <c r="G182">
+        <v>0.283783783783784</v>
+      </c>
+      <c r="H182">
+        <v>46.535</v>
+      </c>
+      <c r="I182">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183">
+        <v>363271</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D183" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183">
+        <v>12</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H183">
+        <v>1.98</v>
+      </c>
+      <c r="I183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184">
+        <v>363271</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184">
+        <v>840</v>
+      </c>
+      <c r="F184">
+        <v>65</v>
+      </c>
+      <c r="G184">
+        <v>0.0773809523809524</v>
+      </c>
+      <c r="H184">
+        <v>5.33</v>
+      </c>
+      <c r="I184">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185">
+        <v>363271</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185">
+        <v>438</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186">
+        <v>363271</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D186" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187">
+        <v>363271</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187">
+        <v>840</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188">
+        <v>363271</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188">
+        <v>432</v>
+      </c>
+      <c r="F188">
+        <v>143</v>
+      </c>
+      <c r="G188">
+        <v>0.331018518518519</v>
+      </c>
+      <c r="H188">
+        <v>52.2925</v>
+      </c>
+      <c r="I188">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189">
+        <v>363271</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189">
+        <v>12</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190">
+        <v>363271</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190">
+        <v>960</v>
+      </c>
+      <c r="F190">
+        <v>30</v>
+      </c>
+      <c r="G190">
+        <v>0.03125</v>
+      </c>
+      <c r="H190">
+        <v>2.46</v>
+      </c>
+      <c r="I190">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191">
+        <v>363271</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191">
+        <v>451</v>
+      </c>
+      <c r="F191">
+        <v>215</v>
+      </c>
+      <c r="G191">
+        <v>0.476718403547672</v>
+      </c>
+      <c r="H191">
+        <v>77.9425</v>
+      </c>
+      <c r="I191">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192">
+        <v>363271</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192">
+        <v>12</v>
+      </c>
+      <c r="F192">
+        <v>8</v>
+      </c>
+      <c r="G192">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H192">
+        <v>7.92</v>
+      </c>
+      <c r="I192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193">
+        <v>363271</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193">
+        <v>840</v>
+      </c>
+      <c r="F193">
+        <v>255</v>
+      </c>
+      <c r="G193">
+        <v>0.303571428571429</v>
+      </c>
+      <c r="H193">
+        <v>20.91</v>
+      </c>
+      <c r="I193">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194">
+        <v>363271</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194">
+        <v>390</v>
+      </c>
+      <c r="F194">
+        <v>35</v>
+      </c>
+      <c r="G194">
+        <v>0.0897435897435897</v>
+      </c>
+      <c r="H194">
+        <v>12.5125</v>
+      </c>
+      <c r="I194">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195">
+        <v>363271</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195">
+        <v>12</v>
+      </c>
+      <c r="F195">
+        <v>9</v>
+      </c>
+      <c r="G195">
+        <v>0.75</v>
+      </c>
+      <c r="H195">
+        <v>8.91</v>
+      </c>
+      <c r="I195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196">
+        <v>363271</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D196" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196">
+        <v>720</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="H196">
+        <v>1.64</v>
+      </c>
+      <c r="I196">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197">
+        <v>363271</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197">
+        <v>408</v>
+      </c>
+      <c r="F197">
+        <v>49</v>
+      </c>
+      <c r="G197">
+        <v>0.120098039215686</v>
+      </c>
+      <c r="H197">
+        <v>17.5175</v>
+      </c>
+      <c r="I197">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198">
+        <v>363271</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D198" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198">
+        <v>12</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199">
+        <v>363271</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D199" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199">
+        <v>600</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200">
+        <v>363271</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200">
+        <v>408</v>
+      </c>
+      <c r="F200">
+        <v>126</v>
+      </c>
+      <c r="G200">
+        <v>0.308823529411765</v>
+      </c>
+      <c r="H200">
+        <v>46.125</v>
+      </c>
+      <c r="I200">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201">
+        <v>363271</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201">
+        <v>12</v>
+      </c>
+      <c r="F201">
+        <v>10</v>
+      </c>
+      <c r="G201">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H201">
+        <v>9.9</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202">
+        <v>363271</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202">
+        <v>780</v>
+      </c>
+      <c r="F202">
+        <v>300</v>
+      </c>
+      <c r="G202">
+        <v>0.384615384615385</v>
+      </c>
+      <c r="H202">
+        <v>24.6</v>
+      </c>
+      <c r="I202">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203">
+        <v>363271</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>408</v>
+      </c>
+      <c r="F203">
+        <v>95</v>
+      </c>
+      <c r="G203">
+        <v>0.232843137254902</v>
+      </c>
+      <c r="H203">
+        <v>34.5025</v>
+      </c>
+      <c r="I203">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204">
+        <v>363271</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D204" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204">
+        <v>12</v>
+      </c>
+      <c r="F204">
+        <v>8</v>
+      </c>
+      <c r="G204">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H204">
+        <v>7.92</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205">
+        <v>363271</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D205" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205">
+        <v>900</v>
+      </c>
+      <c r="F205">
+        <v>210</v>
+      </c>
+      <c r="G205">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="H205">
+        <v>17.22</v>
+      </c>
+      <c r="I205">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206">
+        <v>363271</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206">
+        <v>450</v>
+      </c>
+      <c r="F206">
+        <v>104</v>
+      </c>
+      <c r="G206">
+        <v>0.231111111111111</v>
+      </c>
+      <c r="H206">
+        <v>37.18</v>
+      </c>
+      <c r="I206">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207">
+        <v>363271</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D207" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207">
+        <v>12</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H207">
+        <v>0.99</v>
+      </c>
+      <c r="I207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208">
+        <v>363271</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D208" t="s">
+        <v>18</v>
+      </c>
+      <c r="E208">
+        <v>900</v>
+      </c>
+      <c r="F208">
+        <v>181</v>
+      </c>
+      <c r="G208">
+        <v>0.201111111111111</v>
+      </c>
+      <c r="H208">
+        <v>14.842</v>
+      </c>
+      <c r="I208">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209">
+        <v>363271</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209">
+        <v>462</v>
+      </c>
+      <c r="F209">
+        <v>151</v>
+      </c>
+      <c r="G209">
+        <v>0.326839826839827</v>
+      </c>
+      <c r="H209">
+        <v>54.6125</v>
+      </c>
+      <c r="I209">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210">
+        <v>363271</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D210" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
+      </c>
+      <c r="F210">
+        <v>12</v>
+      </c>
+      <c r="G210">
+        <v>0.8</v>
+      </c>
+      <c r="H210">
+        <v>11.88</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211">
+        <v>363271</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D211" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211">
+        <v>1020</v>
+      </c>
+      <c r="F211">
+        <v>115</v>
+      </c>
+      <c r="G211">
+        <v>0.112745098039216</v>
+      </c>
+      <c r="H211">
+        <v>9.43</v>
+      </c>
+      <c r="I211">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212">
+        <v>343939</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D212" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212">
+        <v>396</v>
+      </c>
+      <c r="F212">
+        <v>68</v>
+      </c>
+      <c r="G212">
+        <v>0.171717171717172</v>
+      </c>
+      <c r="H212">
+        <v>24.31</v>
+      </c>
+      <c r="I212">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213">
+        <v>343939</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D213" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213">
+        <v>12</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
+      </c>
+      <c r="G213">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H213">
+        <v>3.96</v>
+      </c>
+      <c r="I213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214">
+        <v>343939</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D214" t="s">
+        <v>18</v>
+      </c>
+      <c r="E214">
+        <v>960</v>
+      </c>
+      <c r="F214">
+        <v>27</v>
+      </c>
+      <c r="G214">
+        <v>0.028125</v>
+      </c>
+      <c r="H214">
+        <v>2.214</v>
+      </c>
+      <c r="I214">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215">
+        <v>343939</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D215" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215">
+        <v>336</v>
+      </c>
+      <c r="F215">
+        <v>133</v>
+      </c>
+      <c r="G215">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="H215">
+        <v>47.8475</v>
+      </c>
+      <c r="I215">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <v>343939</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D216" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216">
+        <v>12</v>
+      </c>
+      <c r="F216">
+        <v>9</v>
+      </c>
+      <c r="G216">
+        <v>0.75</v>
+      </c>
+      <c r="H216">
+        <v>8.91</v>
+      </c>
+      <c r="I216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217">
+        <v>343939</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D217" t="s">
+        <v>18</v>
+      </c>
+      <c r="E217">
+        <v>540</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218">
+        <v>343939</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D218" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218">
+        <v>336</v>
+      </c>
+      <c r="F218">
+        <v>37</v>
+      </c>
+      <c r="G218">
+        <v>0.110119047619048</v>
+      </c>
+      <c r="H218">
+        <v>13.2275</v>
+      </c>
+      <c r="I218">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219">
+        <v>343939</v>
+      </c>
+      <c r="C219" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D219" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219">
+        <v>13</v>
+      </c>
+      <c r="F219">
+        <v>6</v>
+      </c>
+      <c r="G219">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="H219">
+        <v>5.94</v>
+      </c>
+      <c r="I219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220">
+        <v>343939</v>
+      </c>
+      <c r="C220" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D220" t="s">
+        <v>18</v>
+      </c>
+      <c r="E220">
+        <v>480</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221">
+        <v>343939</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D221" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221">
+        <v>372</v>
+      </c>
+      <c r="F221">
+        <v>29</v>
+      </c>
+      <c r="G221">
+        <v>0.0779569892473118</v>
+      </c>
+      <c r="H221">
+        <v>10.6175</v>
+      </c>
+      <c r="I221">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222">
+        <v>343939</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D222" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222">
+        <v>12</v>
+      </c>
+      <c r="F222">
+        <v>5</v>
+      </c>
+      <c r="G222">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H222">
+        <v>4.95</v>
+      </c>
+      <c r="I222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223">
+        <v>343939</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D223" t="s">
+        <v>18</v>
+      </c>
+      <c r="E223">
+        <v>720</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224">
+        <v>343939</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D224" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224">
+        <v>372</v>
+      </c>
+      <c r="F224">
+        <v>11</v>
+      </c>
+      <c r="G224">
+        <v>0.0295698924731183</v>
+      </c>
+      <c r="H224">
+        <v>3.9325</v>
+      </c>
+      <c r="I224">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225">
+        <v>343939</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D225" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225">
+        <v>12</v>
+      </c>
+      <c r="F225">
+        <v>7</v>
+      </c>
+      <c r="G225">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H225">
+        <v>6.93</v>
+      </c>
+      <c r="I225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226">
+        <v>343939</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D226" t="s">
+        <v>18</v>
+      </c>
+      <c r="E226">
+        <v>780</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227">
+        <v>343939</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D227" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227">
+        <v>408</v>
+      </c>
+      <c r="F227">
+        <v>115</v>
+      </c>
+      <c r="G227">
+        <v>0.281862745098039</v>
+      </c>
+      <c r="H227">
+        <v>41.1125</v>
+      </c>
+      <c r="I227">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228">
+        <v>343939</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D228" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228">
+        <v>12</v>
+      </c>
+      <c r="F228">
+        <v>7</v>
+      </c>
+      <c r="G228">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H228">
+        <v>6.93</v>
+      </c>
+      <c r="I228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229">
+        <v>343939</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D229" t="s">
+        <v>18</v>
+      </c>
+      <c r="E229">
+        <v>780</v>
+      </c>
+      <c r="F229">
+        <v>82</v>
+      </c>
+      <c r="G229">
+        <v>0.105128205128205</v>
+      </c>
+      <c r="H229">
+        <v>6.724</v>
+      </c>
+      <c r="I229">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230">
+        <v>343939</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D230" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230">
+        <v>450</v>
+      </c>
+      <c r="F230">
+        <v>158</v>
+      </c>
+      <c r="G230">
+        <v>0.351111111111111</v>
+      </c>
+      <c r="H230">
+        <v>57.285</v>
+      </c>
+      <c r="I230">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231">
+        <v>343939</v>
+      </c>
+      <c r="C231" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D231" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231">
+        <v>12</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H231">
+        <v>0.99</v>
+      </c>
+      <c r="I231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232">
+        <v>343939</v>
+      </c>
+      <c r="C232" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D232" t="s">
+        <v>18</v>
+      </c>
+      <c r="E232">
+        <v>1080</v>
+      </c>
+      <c r="F232">
+        <v>295</v>
+      </c>
+      <c r="G232">
+        <v>0.273148148148148</v>
+      </c>
+      <c r="H232">
+        <v>24.19</v>
+      </c>
+      <c r="I232">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233">
+        <v>343939</v>
+      </c>
+      <c r="C233" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D233" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233">
+        <v>390</v>
+      </c>
+      <c r="F233">
+        <v>138</v>
+      </c>
+      <c r="G233">
+        <v>0.353846153846154</v>
+      </c>
+      <c r="H233">
+        <v>49.335</v>
+      </c>
+      <c r="I233">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234">
+        <v>343939</v>
+      </c>
+      <c r="C234" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D234" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234">
+        <v>12</v>
+      </c>
+      <c r="F234">
+        <v>8</v>
+      </c>
+      <c r="G234">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H234">
+        <v>7.92</v>
+      </c>
+      <c r="I234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235">
+        <v>343939</v>
+      </c>
+      <c r="C235" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D235" t="s">
+        <v>18</v>
+      </c>
+      <c r="E235">
+        <v>840</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236">
+        <v>343939</v>
+      </c>
+      <c r="C236" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D236" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236">
+        <v>334</v>
+      </c>
+      <c r="F236">
+        <v>109</v>
+      </c>
+      <c r="G236">
+        <v>0.326347305389222</v>
+      </c>
+      <c r="H236">
+        <v>38.9675</v>
+      </c>
+      <c r="I236">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237">
+        <v>343939</v>
+      </c>
+      <c r="C237" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D237" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237">
+        <v>12</v>
+      </c>
+      <c r="F237">
+        <v>11</v>
+      </c>
+      <c r="G237">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="H237">
+        <v>10.89</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238">
+        <v>343939</v>
+      </c>
+      <c r="C238" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D238" t="s">
+        <v>18</v>
+      </c>
+      <c r="E238">
+        <v>780</v>
+      </c>
+      <c r="F238">
+        <v>243</v>
+      </c>
+      <c r="G238">
+        <v>0.311538461538462</v>
+      </c>
+      <c r="H238">
+        <v>19.926</v>
+      </c>
+      <c r="I238">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239">
+        <v>343939</v>
+      </c>
+      <c r="C239" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D239" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239">
+        <v>342</v>
+      </c>
+      <c r="F239">
+        <v>150</v>
+      </c>
+      <c r="G239">
+        <v>0.43859649122807</v>
+      </c>
+      <c r="H239">
+        <v>53.625</v>
+      </c>
+      <c r="I239">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240">
+        <v>343939</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D240" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240">
+        <v>12</v>
+      </c>
+      <c r="F240">
+        <v>8</v>
+      </c>
+      <c r="G240">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H240">
+        <v>7.92</v>
+      </c>
+      <c r="I240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241">
+        <v>343939</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D241" t="s">
+        <v>18</v>
+      </c>
+      <c r="E241">
+        <v>720</v>
+      </c>
+      <c r="F241">
+        <v>35</v>
+      </c>
+      <c r="G241">
+        <v>0.0486111111111111</v>
+      </c>
+      <c r="H241">
+        <v>2.87</v>
+      </c>
+      <c r="I241">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242">
+        <v>343939</v>
+      </c>
+      <c r="C242" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D242" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242">
+        <v>372</v>
+      </c>
+      <c r="F242">
+        <v>127</v>
+      </c>
+      <c r="G242">
+        <v>0.341397849462366</v>
+      </c>
+      <c r="H242">
+        <v>45.4025</v>
+      </c>
+      <c r="I242">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243">
+        <v>343939</v>
+      </c>
+      <c r="C243" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D243" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243">
+        <v>12</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H243">
+        <v>1.98</v>
+      </c>
+      <c r="I243">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244">
+        <v>343939</v>
+      </c>
+      <c r="C244" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D244" t="s">
+        <v>18</v>
+      </c>
+      <c r="E244">
+        <v>540</v>
+      </c>
+      <c r="F244">
+        <v>19</v>
+      </c>
+      <c r="G244">
+        <v>0.0351851851851852</v>
+      </c>
+      <c r="H244">
+        <v>1.558</v>
+      </c>
+      <c r="I244">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245">
+        <v>343939</v>
+      </c>
+      <c r="C245" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D245" t="s">
+        <v>16</v>
+      </c>
+      <c r="E245">
+        <v>336</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+      <c r="G245">
+        <v>0.0119047619047619</v>
+      </c>
+      <c r="H245">
+        <v>1.43</v>
+      </c>
+      <c r="I245">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246">
+        <v>343939</v>
+      </c>
+      <c r="C246" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D246" t="s">
+        <v>17</v>
+      </c>
+      <c r="E246">
+        <v>12</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H246">
+        <v>0.99</v>
+      </c>
+      <c r="I246">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247">
+        <v>343939</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D247" t="s">
+        <v>18</v>
+      </c>
+      <c r="E247">
+        <v>540</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248">
+        <v>343939</v>
+      </c>
+      <c r="C248" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D248" t="s">
+        <v>16</v>
+      </c>
+      <c r="E248">
+        <v>360</v>
+      </c>
+      <c r="F248">
+        <v>42</v>
+      </c>
+      <c r="G248">
+        <v>0.116666666666667</v>
+      </c>
+      <c r="H248">
+        <v>15.015</v>
+      </c>
+      <c r="I248">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249">
+        <v>343939</v>
+      </c>
+      <c r="C249" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D249" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249">
+        <v>6</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250">
+        <v>343939</v>
+      </c>
+      <c r="C250" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D250" t="s">
+        <v>18</v>
+      </c>
+      <c r="E250">
+        <v>540</v>
+      </c>
+      <c r="F250">
+        <v>39</v>
+      </c>
+      <c r="G250">
+        <v>0.0722222222222222</v>
+      </c>
+      <c r="H250">
+        <v>3.198</v>
+      </c>
+      <c r="I250">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251">
+        <v>343939</v>
+      </c>
+      <c r="C251" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D251" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251">
+        <v>396</v>
+      </c>
+      <c r="F251">
+        <v>102</v>
+      </c>
+      <c r="G251">
+        <v>0.257575757575758</v>
+      </c>
+      <c r="H251">
+        <v>36.465</v>
+      </c>
+      <c r="I251">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252">
+        <v>343939</v>
+      </c>
+      <c r="C252" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D252" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252">
+        <v>12</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+      <c r="G252">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H252">
+        <v>3.96</v>
+      </c>
+      <c r="I252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B253">
+        <v>343939</v>
+      </c>
+      <c r="C253" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D253" t="s">
+        <v>18</v>
+      </c>
+      <c r="E253">
+        <v>840</v>
+      </c>
+      <c r="F253">
+        <v>11</v>
+      </c>
+      <c r="G253">
+        <v>0.0130952380952381</v>
+      </c>
+      <c r="H253">
+        <v>0.902</v>
+      </c>
+      <c r="I253">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254">
         <v>301290</v>
       </c>
-      <c r="C146" s="2">
-        <v>45836</v>
-      </c>
-      <c r="D146" t="s">
-        <v>18</v>
-      </c>
-      <c r="E146">
+      <c r="C254" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D254" t="s">
+        <v>16</v>
+      </c>
+      <c r="E254">
+        <v>702</v>
+      </c>
+      <c r="F254">
+        <v>182</v>
+      </c>
+      <c r="G254">
+        <v>0.259259259259259</v>
+      </c>
+      <c r="H254">
+        <v>66.05500000000001</v>
+      </c>
+      <c r="I254">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255">
+        <v>301290</v>
+      </c>
+      <c r="C255" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D255" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255">
+        <v>12</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256">
+        <v>301290</v>
+      </c>
+      <c r="C256" s="2">
+        <v>45837</v>
+      </c>
+      <c r="D256" t="s">
+        <v>18</v>
+      </c>
+      <c r="E256">
+        <v>600</v>
+      </c>
+      <c r="F256">
+        <v>77</v>
+      </c>
+      <c r="G256">
+        <v>0.128333333333333</v>
+      </c>
+      <c r="H256">
+        <v>6.314</v>
+      </c>
+      <c r="I256">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257">
+        <v>301290</v>
+      </c>
+      <c r="C257" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D257" t="s">
+        <v>16</v>
+      </c>
+      <c r="E257">
+        <v>498</v>
+      </c>
+      <c r="F257">
+        <v>103</v>
+      </c>
+      <c r="G257">
+        <v>0.206827309236948</v>
+      </c>
+      <c r="H257">
+        <v>37.9025</v>
+      </c>
+      <c r="I257">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258">
+        <v>301290</v>
+      </c>
+      <c r="C258" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D258" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258">
+        <v>16</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259">
+        <v>301290</v>
+      </c>
+      <c r="C259" s="2">
+        <v>45838</v>
+      </c>
+      <c r="D259" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259">
+        <v>420</v>
+      </c>
+      <c r="F259">
+        <v>150</v>
+      </c>
+      <c r="G259">
+        <v>0.357142857142857</v>
+      </c>
+      <c r="H259">
+        <v>12.3</v>
+      </c>
+      <c r="I259">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260">
+        <v>301290</v>
+      </c>
+      <c r="C260" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D260" t="s">
+        <v>16</v>
+      </c>
+      <c r="E260">
+        <v>576</v>
+      </c>
+      <c r="F260">
+        <v>211</v>
+      </c>
+      <c r="G260">
+        <v>0.366319444444444</v>
+      </c>
+      <c r="H260">
+        <v>76.9225</v>
+      </c>
+      <c r="I260">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261">
+        <v>301290</v>
+      </c>
+      <c r="C261" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D261" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261">
+        <v>16</v>
+      </c>
+      <c r="F261">
+        <v>8</v>
+      </c>
+      <c r="G261">
+        <v>0.5</v>
+      </c>
+      <c r="H261">
+        <v>7.92</v>
+      </c>
+      <c r="I261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262">
+        <v>301290</v>
+      </c>
+      <c r="C262" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D262" t="s">
+        <v>18</v>
+      </c>
+      <c r="E262">
+        <v>480</v>
+      </c>
+      <c r="F262">
+        <v>40</v>
+      </c>
+      <c r="G262">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H262">
+        <v>3.28</v>
+      </c>
+      <c r="I262">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263">
+        <v>301290</v>
+      </c>
+      <c r="C263" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D263" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263">
+        <v>564</v>
+      </c>
+      <c r="F263">
+        <v>168</v>
+      </c>
+      <c r="G263">
+        <v>0.297872340425532</v>
+      </c>
+      <c r="H263">
+        <v>60.24</v>
+      </c>
+      <c r="I263">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264">
+        <v>301290</v>
+      </c>
+      <c r="C264" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D264" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264">
+        <v>16</v>
+      </c>
+      <c r="F264">
+        <v>3</v>
+      </c>
+      <c r="G264">
+        <v>0.1875</v>
+      </c>
+      <c r="H264">
+        <v>2.97</v>
+      </c>
+      <c r="I264">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265">
+        <v>301290</v>
+      </c>
+      <c r="C265" s="2">
+        <v>45840</v>
+      </c>
+      <c r="D265" t="s">
+        <v>18</v>
+      </c>
+      <c r="E265">
+        <v>420</v>
+      </c>
+      <c r="F265">
+        <v>84</v>
+      </c>
+      <c r="G265">
+        <v>0.2</v>
+      </c>
+      <c r="H265">
+        <v>6.888</v>
+      </c>
+      <c r="I265">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266">
+        <v>301290</v>
+      </c>
+      <c r="C266" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D266" t="s">
+        <v>16</v>
+      </c>
+      <c r="E266">
+        <v>636</v>
+      </c>
+      <c r="F266">
+        <v>198</v>
+      </c>
+      <c r="G266">
+        <v>0.311320754716981</v>
+      </c>
+      <c r="H266">
+        <v>72.405</v>
+      </c>
+      <c r="I266">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267">
+        <v>301290</v>
+      </c>
+      <c r="C267" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D267" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267">
+        <v>21</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268">
+        <v>301290</v>
+      </c>
+      <c r="C268" s="2">
+        <v>45841</v>
+      </c>
+      <c r="D268" t="s">
+        <v>18</v>
+      </c>
+      <c r="E268">
+        <v>480</v>
+      </c>
+      <c r="F268">
+        <v>90</v>
+      </c>
+      <c r="G268">
+        <v>0.1875</v>
+      </c>
+      <c r="H268">
+        <v>7.38</v>
+      </c>
+      <c r="I268">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269">
+        <v>301290</v>
+      </c>
+      <c r="C269" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D269" t="s">
+        <v>16</v>
+      </c>
+      <c r="E269">
+        <v>648</v>
+      </c>
+      <c r="F269">
+        <v>195</v>
+      </c>
+      <c r="G269">
+        <v>0.300925925925926</v>
+      </c>
+      <c r="H269">
+        <v>71.21250000000001</v>
+      </c>
+      <c r="I269">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270">
+        <v>301290</v>
+      </c>
+      <c r="C270" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D270" t="s">
+        <v>17</v>
+      </c>
+      <c r="E270">
+        <v>15</v>
+      </c>
+      <c r="F270">
+        <v>6</v>
+      </c>
+      <c r="G270">
+        <v>0.4</v>
+      </c>
+      <c r="H270">
+        <v>5.94</v>
+      </c>
+      <c r="I270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271">
+        <v>301290</v>
+      </c>
+      <c r="C271" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D271" t="s">
+        <v>18</v>
+      </c>
+      <c r="E271">
         <v>540</v>
       </c>
-      <c r="F146">
-        <v>72</v>
-      </c>
-      <c r="G146">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="H146">
-        <v>5.904</v>
-      </c>
-      <c r="I146">
-        <v>468</v>
+      <c r="F271">
+        <v>38</v>
+      </c>
+      <c r="G271">
+        <v>0.0703703703703704</v>
+      </c>
+      <c r="H271">
+        <v>3.116</v>
+      </c>
+      <c r="I271">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272">
+        <v>301290</v>
+      </c>
+      <c r="C272" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D272" t="s">
+        <v>16</v>
+      </c>
+      <c r="E272">
+        <v>702</v>
+      </c>
+      <c r="F272">
+        <v>169</v>
+      </c>
+      <c r="G272">
+        <v>0.240740740740741</v>
+      </c>
+      <c r="H272">
+        <v>61.9175</v>
+      </c>
+      <c r="I272">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273">
+        <v>301290</v>
+      </c>
+      <c r="C273" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D273" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273">
+        <v>21</v>
+      </c>
+      <c r="F273">
+        <v>6</v>
+      </c>
+      <c r="G273">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H273">
+        <v>5.94</v>
+      </c>
+      <c r="I273">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274">
+        <v>301290</v>
+      </c>
+      <c r="C274" s="2">
+        <v>45843</v>
+      </c>
+      <c r="D274" t="s">
+        <v>18</v>
+      </c>
+      <c r="E274">
+        <v>540</v>
+      </c>
+      <c r="F274">
+        <v>38</v>
+      </c>
+      <c r="G274">
+        <v>0.0703703703703704</v>
+      </c>
+      <c r="H274">
+        <v>3.116</v>
+      </c>
+      <c r="I274">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275">
+        <v>301290</v>
+      </c>
+      <c r="C275" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D275" t="s">
+        <v>16</v>
+      </c>
+      <c r="E275">
+        <v>594</v>
+      </c>
+      <c r="F275">
+        <v>159</v>
+      </c>
+      <c r="G275">
+        <v>0.267676767676768</v>
+      </c>
+      <c r="H275">
+        <v>58.3325</v>
+      </c>
+      <c r="I275">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276">
+        <v>301290</v>
+      </c>
+      <c r="C276" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D276" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276">
+        <v>15</v>
+      </c>
+      <c r="F276">
+        <v>7</v>
+      </c>
+      <c r="G276">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="H276">
+        <v>6.93</v>
+      </c>
+      <c r="I276">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277">
+        <v>301290</v>
+      </c>
+      <c r="C277" s="2">
+        <v>45844</v>
+      </c>
+      <c r="D277" t="s">
+        <v>18</v>
+      </c>
+      <c r="E277">
+        <v>600</v>
+      </c>
+      <c r="F277">
+        <v>48</v>
+      </c>
+      <c r="G277">
+        <v>0.08</v>
+      </c>
+      <c r="H277">
+        <v>3.936</v>
+      </c>
+      <c r="I277">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278">
+        <v>301290</v>
+      </c>
+      <c r="C278" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D278" t="s">
+        <v>16</v>
+      </c>
+      <c r="E278">
+        <v>504</v>
+      </c>
+      <c r="F278">
+        <v>256</v>
+      </c>
+      <c r="G278">
+        <v>0.507936507936508</v>
+      </c>
+      <c r="H278">
+        <v>94.12</v>
+      </c>
+      <c r="I278">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279">
+        <v>301290</v>
+      </c>
+      <c r="C279" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D279" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279">
+        <v>15</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280">
+        <v>301290</v>
+      </c>
+      <c r="C280" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D280" t="s">
+        <v>18</v>
+      </c>
+      <c r="E280">
+        <v>360</v>
+      </c>
+      <c r="F280">
+        <v>133</v>
+      </c>
+      <c r="G280">
+        <v>0.369444444444444</v>
+      </c>
+      <c r="H280">
+        <v>10.906</v>
+      </c>
+      <c r="I280">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281">
+        <v>301290</v>
+      </c>
+      <c r="C281" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D281" t="s">
+        <v>16</v>
+      </c>
+      <c r="E281">
+        <v>432</v>
+      </c>
+      <c r="F281">
+        <v>96</v>
+      </c>
+      <c r="G281">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="H281">
+        <v>34.6</v>
+      </c>
+      <c r="I281">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282">
+        <v>301290</v>
+      </c>
+      <c r="C282" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D282" t="s">
+        <v>17</v>
+      </c>
+      <c r="E282">
+        <v>12</v>
+      </c>
+      <c r="F282">
+        <v>3</v>
+      </c>
+      <c r="G282">
+        <v>0.25</v>
+      </c>
+      <c r="H282">
+        <v>2.97</v>
+      </c>
+      <c r="I282">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283">
+        <v>301290</v>
+      </c>
+      <c r="C283" s="2">
+        <v>45846</v>
+      </c>
+      <c r="D283" t="s">
+        <v>18</v>
+      </c>
+      <c r="E283">
+        <v>480</v>
+      </c>
+      <c r="F283">
+        <v>212</v>
+      </c>
+      <c r="G283">
+        <v>0.441666666666667</v>
+      </c>
+      <c r="H283">
+        <v>17.384</v>
+      </c>
+      <c r="I283">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284">
+        <v>301290</v>
+      </c>
+      <c r="C284" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D284" t="s">
+        <v>16</v>
+      </c>
+      <c r="E284">
+        <v>534</v>
+      </c>
+      <c r="F284">
+        <v>128</v>
+      </c>
+      <c r="G284">
+        <v>0.239700374531835</v>
+      </c>
+      <c r="H284">
+        <v>45.76</v>
+      </c>
+      <c r="I284">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285">
+        <v>301290</v>
+      </c>
+      <c r="C285" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D285" t="s">
+        <v>17</v>
+      </c>
+      <c r="E285">
+        <v>18</v>
+      </c>
+      <c r="F285">
+        <v>3</v>
+      </c>
+      <c r="G285">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H285">
+        <v>2.97</v>
+      </c>
+      <c r="I285">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286">
+        <v>301290</v>
+      </c>
+      <c r="C286" s="2">
+        <v>45847</v>
+      </c>
+      <c r="D286" t="s">
+        <v>18</v>
+      </c>
+      <c r="E286">
+        <v>420</v>
+      </c>
+      <c r="F286">
+        <v>141</v>
+      </c>
+      <c r="G286">
+        <v>0.335714285714286</v>
+      </c>
+      <c r="H286">
+        <v>11.562</v>
+      </c>
+      <c r="I286">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287">
+        <v>301290</v>
+      </c>
+      <c r="C287" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D287" t="s">
+        <v>16</v>
+      </c>
+      <c r="E287">
+        <v>516</v>
+      </c>
+      <c r="F287">
+        <v>102</v>
+      </c>
+      <c r="G287">
+        <v>0.197674418604651</v>
+      </c>
+      <c r="H287">
+        <v>37.275</v>
+      </c>
+      <c r="I287">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288">
+        <v>301290</v>
+      </c>
+      <c r="C288" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D288" t="s">
+        <v>17</v>
+      </c>
+      <c r="E288">
+        <v>21</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289">
+        <v>301290</v>
+      </c>
+      <c r="C289" s="2">
+        <v>45848</v>
+      </c>
+      <c r="D289" t="s">
+        <v>18</v>
+      </c>
+      <c r="E289">
+        <v>480</v>
+      </c>
+      <c r="F289">
+        <v>206</v>
+      </c>
+      <c r="G289">
+        <v>0.429166666666667</v>
+      </c>
+      <c r="H289">
+        <v>16.892</v>
+      </c>
+      <c r="I289">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290">
+        <v>301290</v>
+      </c>
+      <c r="C290" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D290" t="s">
+        <v>16</v>
+      </c>
+      <c r="E290">
+        <v>582</v>
+      </c>
+      <c r="F290">
+        <v>58</v>
+      </c>
+      <c r="G290">
+        <v>0.0996563573883162</v>
+      </c>
+      <c r="H290">
+        <v>20.915</v>
+      </c>
+      <c r="I290">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291">
+        <v>301290</v>
+      </c>
+      <c r="C291" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D291" t="s">
+        <v>17</v>
+      </c>
+      <c r="E291">
+        <v>15</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292">
+        <v>301290</v>
+      </c>
+      <c r="C292" s="2">
+        <v>45849</v>
+      </c>
+      <c r="D292" t="s">
+        <v>18</v>
+      </c>
+      <c r="E292">
+        <v>540</v>
+      </c>
+      <c r="F292">
+        <v>155</v>
+      </c>
+      <c r="G292">
+        <v>0.287037037037037</v>
+      </c>
+      <c r="H292">
+        <v>12.71</v>
+      </c>
+      <c r="I292">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293">
+        <v>301290</v>
+      </c>
+      <c r="C293" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D293" t="s">
+        <v>16</v>
+      </c>
+      <c r="E293">
+        <v>690</v>
+      </c>
+      <c r="F293">
+        <v>134</v>
+      </c>
+      <c r="G293">
+        <v>0.194202898550725</v>
+      </c>
+      <c r="H293">
+        <v>48.005</v>
+      </c>
+      <c r="I293">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294">
+        <v>301290</v>
+      </c>
+      <c r="C294" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D294" t="s">
+        <v>17</v>
+      </c>
+      <c r="E294">
+        <v>21</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>0.09523809523809521</v>
+      </c>
+      <c r="H294">
+        <v>1.98</v>
+      </c>
+      <c r="I294">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295">
+        <v>301290</v>
+      </c>
+      <c r="C295" s="2">
+        <v>45850</v>
+      </c>
+      <c r="D295" t="s">
+        <v>18</v>
+      </c>
+      <c r="E295">
+        <v>540</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
